--- a/21_오늘의_증권시황/Data/Output/2024년/2024년12월/Today_Stock_Information_2024-12-20.xlsx
+++ b/21_오늘의_증권시황/Data/Output/2024년/2024년12월/Today_Stock_Information_2024-12-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\21_오늘의_증권시황\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289C1FA0-E888-44BE-BC06-6DBAD89D4B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAAA80A-475E-4A3B-8FA2-31F646FFFE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="-16410" windowWidth="29040" windowHeight="16440" xr2:uid="{128CB9EE-8F8F-4283-BC02-829EA9DF085D}"/>
+    <workbookView xWindow="17010" yWindow="-13740" windowWidth="13500" windowHeight="12030" xr2:uid="{128CB9EE-8F8F-4283-BC02-829EA9DF085D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="283">
   <si>
     <t>오늘자 뉴스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,6 +296,636 @@
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>"4만전자 다시 볼라"…외국인 빠진 삼성전자, 내년은?</t>
+  </si>
+  <si>
+    <t>국내 증시 대장주 삼성전자가 내림세를 이어가고 있다. AI(인공지능) 경쟁력 등 주가 반등을 이끌 모멘텀(주가 상승 동력)이 부재한 상..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">머니투데이 </t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0005131485&amp;office_id=008&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
+  </si>
+  <si>
+    <t>PBR 0.8배 ‘코로나 수준’… 글로벌 투자 비중도 ‘뚝뚝’</t>
+  </si>
+  <si>
+    <t>■ 불붙는 ‘코스피 바닥론’ 탄핵정국·트럼프 2기 영향에 PBR 하락… 청산가치 밑돌아 美는 4.6배·유럽은 1.9배 대조 전문가 “A..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">문화일보 </t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0002679429&amp;office_id=021&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
+  </si>
+  <si>
+    <t>외인 코스피서 2조 넘게 이탈한 3가지 이유</t>
+  </si>
+  <si>
+    <t>외인투자자, 韓증시 이탈 요인 분석 三電부진·강달러·세계경기 민감 꼽아 비상계엄 사태, 탄핵정국 등 국내 정세가 요동을 치자 다수의 외..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">헤럴드경제 </t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0002405540&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
+  </si>
+  <si>
+    <t>美증시 시총&lt;63조달러&gt;, 글로벌 절반 넘었다</t>
+  </si>
+  <si>
+    <t>11월 기준 전세계 시총 50.3% 차지 1년 간 글로벌 시총 성장세보다 NYSE 1.64배·나스닥 2.28배 ↑ 연간수익률, 日·獨·..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0002405537&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
+  </si>
+  <si>
+    <t>저점 찍었나…삼성전자 순매수 1위[주식 초고수는 지금]</t>
+  </si>
+  <si>
+    <t>미래에셋증권에서 거래하는 고수익 투자자들이 20일 오전 가장 많이 순매수한 종목은 삼성전자(005930), 루닛(328130), 비보존..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서울경제 </t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0004430435&amp;office_id=011&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
+  </si>
+  <si>
+    <t>QQQ 투자? 당신도 ‘비트코인’ 투자자!…대표 나스닥 ETF, ‘마이크로스트레티지’ 편입 효과는? [투자260]</t>
+  </si>
+  <si>
+    <t>이달 23일부터 비트코인을 대량 보유한 마이크로스트레티지가 나스닥 100 지수에 편입된다. 이에 따라 나스닥 100을 추종하는 대표 E..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0002405513&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
+  </si>
+  <si>
+    <t>美 트럼프發 셧다운 위기...탄핵정국 韓 직격탄 우려 [오한마]</t>
+  </si>
+  <si>
+    <t>시청자 여러분 안녕하십니까. 오전장 한방에 마무리하는 뉴스. 오한마 시간입니다. 미국 하원에서 새 예산안이 부결되면서 연방정부 셧다운 ..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한국경제TV </t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0001192484&amp;office_id=215&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
+  </si>
+  <si>
+    <t>불닭 열풍' 삼양식품, 하락장 속 나홀로 질주…최고가 경신</t>
+  </si>
+  <si>
+    <t>삼양식품이 글로벌 불닭볶음면 열풍에 힘입어 하락장 속에서도 사상 최고가를 기록했다. 수출 증가와 생산능력 확대에 따른 성장 기대감이 주..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뉴시스 </t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0012973601&amp;office_id=003&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
+  </si>
+  <si>
+    <t>벨기에 빌딩 투자도 전액 손실로…늦어지는 금리인하 어쩌나</t>
+  </si>
+  <si>
+    <t>벨기에 정부기관이 사용하는 빌딩에 투자한 부동산 펀드가 전액 손실 위기에 처했다. 지난 6월 펀드 만기는 5년 연장했지만, 자산 매입 ..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0012973572&amp;office_id=003&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
+  </si>
+  <si>
+    <t>"대권 도전하나?" 질문에 "생각해 본 적 없다"…우원식 대답에 '테마주' 급락</t>
+  </si>
+  <si>
+    <t>연일 급등하던 '우원식 테마주'들이 하락세를 보이고 있다. 우원식 국회의장이 차기 대선 도전 가능성과 관련해 "아직 생각해 본 적 없다..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0004430414&amp;office_id=011&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
+  </si>
+  <si>
+    <t>“11만달러 가나 했더니”···꺾인 비트코인, 연이틀 약세에 국내 가상자산株도 ‘뚝’ [투자360]</t>
+  </si>
+  <si>
+    <t>가상화폐 비트코인. [로이터] 비트코인 약세가 지속되면서 20일 한화투자증권 등 가상자산 관련 종목이 일제히 내리고 있다. 이날 오전 ..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0002405434&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
+  </si>
+  <si>
+    <t>재건 수혜주' 전진건설로봇 5거래일간 63% 급등…사상 최고가[핫종목]</t>
+  </si>
+  <si>
+    <t>전진건설로봇(079900)이 5거래일 연속 급등하면서 연일 사상 최고가를 기록하고 있다. 20일 오전 10시 20분 전진건설로봇은 전일..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뉴스1 </t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0007979020&amp;office_id=421&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
+  </si>
+  <si>
+    <t>"킹달러 수혜주"…자동차株 악셀 밟나</t>
+  </si>
+  <si>
+    <t>원·달러 환율이 글로벌 금융위기 이후 15년 만에 1450원을 돌파한 가운데 국내 대표 고환율 수혜 업종인 자동차주에 관심이 모이고 있..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0012973421&amp;office_id=003&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
+  </si>
+  <si>
+    <t>강세론자' 톰 리 "증시 비관론 지나쳐…저가매수 기회"</t>
+  </si>
+  <si>
+    <t>월가 대표 강세론자로 알려진 톰 리 펀드스트랫 공동창업자가 주식 투자자들을 위한 조언을 남겼다. 19일(현지시간) CNBC에 따르면 톰..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0001192474&amp;office_id=215&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
+  </si>
+  <si>
+    <t>‘대기업 입주 속속’ 모습 갖춰가는 마곡, 서울 핵심 업무권역으로 우뚝</t>
+  </si>
+  <si>
+    <t>서울 강서구 마곡지구가 서울 업무권역의 판도를 뒤흔들 ‘태풍의 눈’으로 부상하고 있다. 마곡지구를 중심으로 국내 유수의 굵직한 기업이 ..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0004430390&amp;office_id=011&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
+  </si>
+  <si>
+    <t>삼성증권 "롯데케미칼, 재무 리스크 사라졌지만…목표가는 하향"</t>
+  </si>
+  <si>
+    <t>롯데케미칼이 회사채 재무특약 조정으로 기한이익상실(EOD) 위기에서 벗어난 가운데 증권가에선 단기적으로 투자자심리를 끌어내리는 재무 리..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">비즈워치 </t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0000031746&amp;office_id=648&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
+  </si>
+  <si>
+    <t>이러다 진짜 ‘황제주’ 등극하겠네…전세계 주목 받으며 올해 247% 오른 삼양식품</t>
+  </si>
+  <si>
+    <t>삼양식품, 올해 들어 주가 247%↑ 키움증권 목표가 95만원으로 상향 “올해 크리스마스에는 기념으로 불닭볶음면 먹어야겠네요” “100..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">매일경제 </t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0005416972&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
+  </si>
+  <si>
+    <t>“오늘도 영 맥 못 추네”…삼성전자 1%·SK하이닉스 2%대 약세</t>
+  </si>
+  <si>
+    <t>미국 메모리 반도체기업 마이크론테크놀러지의 실적 전망치가 시장의 기대치를 밑돌면서 국내 반도체주를 향한 투자심리도 좀처럼 되살아나지 못..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0005416971&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
+  </si>
+  <si>
+    <t>‘6600억 美 보조금’ 약발 안 통하는 SK하닉…FOMC·마이크론 쇼크에 K-반도체株 ‘휘청’ [투자360]</t>
+  </si>
+  <si>
+    <t>미국 정부로부터 6600억원 보조금 수령을 확정했음에도 불구하고 SK하이닉스 주가가 20일 장 초반 급락세를 면치 못하고 있다. 미국 ..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0002405379&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
+  </si>
+  <si>
+    <t>코스피 2400 저지선마저 뚫리나…파월의 여진에 ‘흔들’ [투자360]</t>
+  </si>
+  <si>
+    <t>20일 오전 서울 중구 하나은행 본점 딜링룸 현황판에 코스피, 원/달러 환율이 표시돼 있다. 이날 코스피는 2,420대에서 약보합으로 ..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0002405351&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
+  </si>
+  <si>
+    <t>"대선 도전하나?" 질문받더니…우원식 반응에 '테마주' 술렁</t>
+  </si>
+  <si>
+    <t>연일 급등하던 '우원식 테마주'의 흐름이 엇갈리고 있다. 우원식 국회의장이 차기 대선 도전 가능성과 관련해 "아직 생각해 본 적이 없다..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한국경제 </t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0005072555&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
+  </si>
+  <si>
+    <t>8.6조 국채' 투매한 외국인…환율·금리 패닉장 열린다</t>
+  </si>
+  <si>
+    <t>이 기사는 12월 19일 16:46 마켓인사이트에 게재된 기사입니다. 외국인 투자자가 계엄 사태 이후 국채선물을 8조6000원어치가량 ..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0005072547&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
+  </si>
+  <si>
+    <t>코스피 장 초반 2,400대까지 밀려…외인·기관 '팔자'(종합)</t>
+  </si>
+  <si>
+    <t>보합권 출발해 낙폭 확대…"위험자산 선호 심리 위축" 시총 상위 주 대부분 약세…코스닥도 1.3% 급락 중 코스피가 20일 미 연방준비..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">연합뉴스 </t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0015117311&amp;office_id=001&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
+  </si>
+  <si>
+    <t>보조금 확정에도…SK하이닉스, FOMC·마이크론 쇼크에 약세</t>
+  </si>
+  <si>
+    <t>SK하이닉스 주가가 조 바이든 미국 행정부가 반도체법(Chips Act)에 따라 6600억원대의 직접 보조금을 지급하기 위한 계약을 최..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0005072540&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
+  </si>
+  <si>
+    <t>"당분간 배당 어렵다" 증권가 전망에…현대해상, 52주 최저가 '추락'</t>
+  </si>
+  <si>
+    <t>현대해상의 주가가 급락하고 있다. 당분간 배당이 어려울 것이란 증권가 전망에 투자심리가 위축된 것으로 풀이된다. 20일 오전 9시13분..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0005072531&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
+  </si>
+  <si>
+    <t>신한투자증권 “美, 금리발 조정장 온다…연말연초 둔화세 전망”</t>
+  </si>
+  <si>
+    <t>연말연초 미국 증시의 거침없는 오버슈팅을 기대했으나 단기적 측면에서 주가 행보가 둔탁해질 것이라는 전망이 나왔다. 김성환 신한투자증권 ..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">데일리안 </t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0002906292&amp;office_id=119&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
+  </si>
+  <si>
+    <t>LG에너지솔루션, 4분기 실적부진 불가피…고객사 재고조정 영향-삼성</t>
+  </si>
+  <si>
+    <t>삼성증권은 LG에너지솔루션이 올해 4분기 시장 기대치에 못 미친 실적을 낼 것으로 20일 전망했다. 주요 고객사 재고조정에 따른 수익성..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0005131351&amp;office_id=008&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
+  </si>
+  <si>
+    <t>삼성證 "롯데케미칼, 단기 재무 우려 소멸에도…목표가 6%↓"</t>
+  </si>
+  <si>
+    <t>삼성증권은 20일 2조 원 규모 회사채 조기 상환 특약 조정에도 롯데케미칼(011170)의 목표가를 6% 하향했다. 업황 부진을 고려했..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0007978659&amp;office_id=421&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
+  </si>
+  <si>
+    <t>유안타證 "삼성E&amp;A, 내년 초 실적 발표가 주가 변곡점…목표가↓"</t>
+  </si>
+  <si>
+    <t>유안타증권은 20일 삼성E&amp;A에 대해 "저평가가 종료되기 위해서는 비화공 수주 감소, 내년 감익에 따른 자기자본이익률(ROE) 축소에 ..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0012973058&amp;office_id=003&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
+  </si>
+  <si>
+    <t>‘매파’ FOMC 충격 아직도 얼얼…코스피, ‘저평가’란 이유로 오를까? [투자360]</t>
+  </si>
+  <si>
+    <t>뉴욕증시는 보합세…필라델피아반도체지수 사흘째 하락 ‘저평가’ 국내 증시, 반등 시도 가능성 오늘 중국 금리 결정·미국 PCE 물가지수 ..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0002405277&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
+  </si>
+  <si>
+    <t>한투證 “외국인, 韓이 아닌 삼성전자·SK하이닉스 판 것”</t>
+  </si>
+  <si>
+    <t>외국인 투자자가 국내 주식시장에서 ‘팔자’를 이어가고 있다. 염동찬 한국투자증권 연구원은 “외국인은 한국 자산을 순매도하는 것이 아니라..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">조선비즈 </t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0001041582&amp;office_id=366&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
+  </si>
+  <si>
+    <t>美증시 혼조 마감, 국내 증시 "방어·배당주 대응 유효"[굿모닝 증시]</t>
+  </si>
+  <si>
+    <t>미국 증시가 혼조세로 마감한 가운데 국내 증시는 매크로(거시경제) 불확실성 우려에 방어주와 배당주로 대응해야 한다는 분석이 나온다. 1..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아시아경제 </t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0005520824&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
+  </si>
+  <si>
+    <t>답답한 환율천장…“낙폭과대 개별 중소형주 유리”[오늘증시전망]</t>
+  </si>
+  <si>
+    <t>간밤 뉴욕 증시가 전일 있었던 12월 연방공개시장위원회(FOMC)의 결과가 매파적이었던 영향이 이어지며 혼조 마감한 가운데 한국 증시 ..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이데일리 </t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0005910232&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
+  </si>
+  <si>
+    <t>‘NYSE+나스닥’ 美 증시, 글로벌 시총 절반 넘었다 [투자360]</t>
+  </si>
+  <si>
+    <t>11월 기준 NYSE·나스닥 시총 합산액만 63조弗…전체 약 50.3% 최근 1년 간 글로벌 시총 성장세比 NYSE 1.64배·나스닥 ..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0002405260&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
+  </si>
+  <si>
+    <t>[단독]檢 “메리츠證 전 임직원, 논현동 사업부지 담보가치 파악...CB 후순위 투자자 모집 안해”</t>
+  </si>
+  <si>
+    <t>검찰이 메리츠증권 IB사업 본부 전 임직원 6명과 다올투자증권 IB부서 전 직원 1명을 지난 10월 30일 기소하며 공소장에 “전환사채..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0005520800&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
+  </si>
+  <si>
+    <t>FOMC 여진 지속되는데…코스피 반등 가능할까[마켓뷰]</t>
+  </si>
+  <si>
+    <t>뉴욕증시는 보합세…필라델피아반도체지수 사흘째 하락 '저평가' 국내 증시, 반등 시도 가능성 오늘 중국 금리 결정·미국 PCE 물가지수 ..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0015117132&amp;office_id=001&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
+  </si>
+  <si>
+    <t>“코스피 추가 하락 제한적…FOMC 경계감 선반영 과도”</t>
+  </si>
+  <si>
+    <t>미국 연방준비제도(Fed·연준)가 12월 연방공개시장위원회(FOMC)에서 매파적 통화정책을 발표하며 코스피가 약세를 보였지만, 과도한 ..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0005910226&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
+  </si>
+  <si>
+    <t>‘매파 파월’ 영향권 지속…美경제 2분기 연속 3% 성장[뉴스새벽배송]</t>
+  </si>
+  <si>
+    <t>간밤 뉴욕 증시는 전일 있었던 12월 연방공개시장위원회(FOMC)의 결과가 매파적이었던 영향이 이어지며 혼조 마감했다. 뉴욕 유가는 수..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0005910223&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
+  </si>
+  <si>
+    <t>"우리 고양이, 겨울만 되면 왜 이러죠?"…수의사에 물었더니</t>
+  </si>
+  <si>
+    <t>겨울철 반려묘가 계절성 우울증(SAD) 증상을 보인다며 걱정하는 보호자들이 있다. 평소보다 식사량이 줄고 잠을 많이 자는 등 생활패턴이..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0005072505&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
+  </si>
+  <si>
+    <t>탄핵 정국에 불안정한 금융시장…IPO로 엑시트 포문 여는 PE ‘긴장’[주간 ‘딜’리버리]</t>
+  </si>
+  <si>
+    <t>LG CNS·케이뱅크 등 대어 대기 코스피지수 2400선 안에서 등락 반복 구주매출 소화될수록 장기적 밸류업 ‘긍정적’ [헤럴드경제=심..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0002405241&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
+  </si>
+  <si>
+    <t>"환율 1500원도 사정권"…트럼프에 정치불안까지 '이중고'</t>
+  </si>
+  <si>
+    <t>원·달러 환율 심리적 방어선이던 1430원과 1450원선이 보름 만에 잇따라 뚫리면서 이제는 상단을 1500원선까지 열어놔야 한다는 전..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0005072503&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
+  </si>
+  <si>
+    <t>김동현 “집 팔아 코인 탔다 길거리 나앉을 뻔”…‘10.8만→9.5만弗’ 비트코인, 이틀 새 ‘뚝’ [투자360]</t>
+  </si>
+  <si>
+    <t>가상자산 대장주 비트코인이 ‘매파(긴축 선호)’적 발언을 쏟아낸 제롬 파월 미국 연방준비제도(Fed·연준) 의장과 기존 대비 절반 수준..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0002405238&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
+  </si>
+  <si>
+    <t>2025년 구리 시장 전망 [원자재 &amp; ETF 뉴스]</t>
+  </si>
+  <si>
+    <t>원자재 시황도 살펴보겠습니다. 현재 시간 5시 48분 지나가고 있고요, 5시 수치를 기준으로 하고 있습니다. 국제유가부터 확인해 보겠습..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0001192438&amp;office_id=215&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
+  </si>
+  <si>
+    <t>벨기에 정부기관 입주 빌딩에 투자했다가…900억 ‘전액 손실’</t>
+  </si>
+  <si>
+    <t>한국투자리얼에셋운용 펀드가 벨기에 상업용부동산에 투자했다가 전액 손실 위기에 놓였다. 정부기관이 입주해 있는 빌딩이지만 부동산 시장 침..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0004430303&amp;office_id=011&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
+  </si>
+  <si>
+    <t>미 Fed발 충격파 여전…주요 지수 반등 실패 [뉴욕증시 브리핑]</t>
+  </si>
+  <si>
+    <t>19일(현지시간) 뉴욕증시가 보합권에서 혼조세를 나타냈다. 전날 미 중앙은행(Fed)의 '매파적 금리인하' 충격에서 여전히 벗어나지 못..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0005072496&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
+  </si>
+  <si>
+    <t>비트코인, 연준발 악재에 거듭 약세…9만6000달러선 터치</t>
+  </si>
+  <si>
+    <t>미국 연방준비제도(Fed·연준)가 유발한 악재 탓에 비트코인(BTC) 가격이 한때 9만6000달러(약 1억3901만원) 수준까지 내렸다..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0012972985&amp;office_id=003&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
+  </si>
+  <si>
+    <t>키움 이어 삼성증권...호실적에 연말 배당 기대감 ‘업’</t>
+  </si>
+  <si>
+    <t>키움증권이 올해 연말 배당금액을 대폭 늘리면서 ‘배당 우등생’인 삼성증권의 배당 집행 규모에도 관심이 모인다. 전통적으로 배당 성향이 ..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0002906248&amp;office_id=119&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
+  </si>
+  <si>
+    <t>한계상황 몰린 韓상장사…바이오·부품사 등 500개 육박</t>
+  </si>
+  <si>
+    <t>국내 상장사 중 영업이익으로 이자조차 내기 힘든 한계기업이 500개에 육박했다. 정상기업의 발목까지 붙잡는 한계기업을 증시에서 퇴출시키..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0005520778&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
+  </si>
+  <si>
+    <t>파월 충격파 여전한 美증시…산타랠리 물건너가나[월스트리트in]</t>
+  </si>
+  <si>
+    <t>19일(현지시간) 미국 뉴욕증시에서 다우지수만 소폭이나마 반등에 성공했다. 전날 연방준비제도의 ‘매파적 인하’ 결정이 나오면서 급락했지..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0005910196&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
+  </si>
+  <si>
+    <t>"삼성이 이제 와서 공시를 할까요?"‥힘빠진 밸류업, 반전있을까</t>
+  </si>
+  <si>
+    <t>삼성전자가 이제 와서 밸류업 공시를 하려고 할까요?" 윤석열 대통령에 대한 탄핵심판절차가 본격화한 가운데 금융투자업계에선 현 정부의 자..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0005520770&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
+  </si>
+  <si>
+    <t>뉴욕증시, 매파 연준 충격에 반등 실패…보합권 마감</t>
+  </si>
+  <si>
+    <t>진정호 연합인포맥스 특파원 = 뉴욕증시의 3대 주가지수는 보합권에서 혼조로 마감했다. 전날 매파적 연방공개시장위원회(FOMC)의 결과로..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0015117083&amp;office_id=001&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
+  </si>
+  <si>
+    <t>새내기株 잔혹사에서 벗어난 산일전기</t>
+  </si>
+  <si>
+    <t>새내기주들의 부진이 지속하는 가운데 산일전기가 높은 주가 상승률을 기록하고 있어 눈길을 끈다. 인공지능(AI)에 필요한 데이터센터 건립..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0005520768&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
+  </si>
+  <si>
+    <t>개미 무덤' 된 코스닥 어쩌나…전문가가 본 내년 전망은? [2025 재테크]</t>
+  </si>
+  <si>
+    <t>내년도 코스닥 시장을 둘러싼 투자 환경이 녹록지 않습니다. 하지만 미국이 한국산 제품에 낮은 관세를 물린다면 단기 반등을 기대할 순 있..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0005072486&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
+  </si>
+  <si>
+    <t>카카오페이, 계엄전 주가 회귀…'기관 물렸다'</t>
+  </si>
+  <si>
+    <t>12·3 비상계엄 사태 직후 급등했던 카카오페이 주가가 다시 제자리로 돌아왔다. 윤석열 대통령에 대한 탄핵소추안 가결 이후 분위기가 반..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0005520766&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
+  </si>
+  <si>
+    <t>공시 피한 임원들의 '꼼수매도'…신뢰잃은 루닛, 기관 대거 이탈</t>
+  </si>
+  <si>
+    <t>의료용 인공지능(AI) 관련 코스닥 상장사 루닛(328130)이 임원들의 사전공시를 피하기 위한 '꼼수 매도' 소식에 연일 하락세다. ..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0007978542&amp;office_id=421&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
+  </si>
+  <si>
+    <t>"테슬라, 내년 텍사스서 로보택시 출시…당국과 협의"</t>
+  </si>
+  <si>
+    <t>미국 전기차업체 테슬라가 내년에 텍사스주 오스틴에서 완전자율주행 로보(무인)택시를 출시하기 위해 시 당국과 초기 협의를 진행 중이라고 ..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0005520765&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
+  </si>
+  <si>
+    <t>유엔젤, 자사주로 ‘경영권 방어’ 노리나</t>
+  </si>
+  <si>
+    <t>코스피 상장사 유엔젤이 코스닥 상장사 이루온과 자사주를 맞교환했다. 최근 유엔젤의 경영권 분쟁설이 나오고 있는 가운데 시장에서는 사측이..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0005520764&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
+  </si>
+  <si>
+    <t>[속보]파월 충격서 벗어나지 못한 美증시…다우만 소폭 반등</t>
+  </si>
+  <si>
+    <t>19일(현지시간) 뉴욕증시 중에서 다우지수만 소폭이나마 반등에 성공했다. 전날 연방준비제도의 ‘매파적 인하’ 결정이 나오면서 급락했지만..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0005910191&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
+  </si>
+  <si>
+    <t>10조씩 ‘컷’하는 애널리스트들... 그만큼 내년 삼성전자 어렵다</t>
+  </si>
+  <si>
+    <t>내년 삼성전자 영업익 전망치 조단위 낮춰 중국 경쟁사 저가 물량 공세 못 당해내 PC·스마트폰에 들어가는 반도체 수요도 주춤 여의도 증..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0001041567&amp;office_id=366&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
+  </si>
+  <si>
+    <t>숨어 있는 탄핵 수혜주?… 의류株, 12월 코스피 상승률 1위</t>
+  </si>
+  <si>
+    <t>국내 증시가 추운 12월을 나고 있지만, 섬유·의류 업종은 뜨겁게 달아오르고 있다. 실적의 핵심인 겨울옷 판매 기대감이 투자심리를 자극..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0001041565&amp;office_id=366&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
+  </si>
+  <si>
+    <t>다시 날아오르는 '불닭' 삼양식품, 눈높이 90만원대로 껑충</t>
+  </si>
+  <si>
+    <t>삼양식품이 다시 날아오르고 있다. 이달에만 44% 넘게 오르며 주가는 75만원까지 올라섰다. 시장의 눈높이도 덩달아 상향 조정되는 추세..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0005520758&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=4</t>
+  </si>
+  <si>
+    <t>"4300억원 던졌다" 외국인, '셀코리아' 언제까지… 강달러 지속 우려</t>
+  </si>
+  <si>
+    <t>코스피에서 외국인 투자자의 '셀코리아'가 이어지고 있다. 외국인의 매도세에 코스피는 2400선이 붕괴하는 등 휘청이는 모양새다. 20일..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">머니S </t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0001046611&amp;office_id=417&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=4</t>
+  </si>
+  <si>
+    <t>뉴욕증시, FOMC 결과 소화·다우 11거래일만에 반등…상승 출발</t>
+  </si>
+  <si>
+    <t>김 현 연합인포맥스 통신원 = 뉴욕증시는 미국 연방공개시장위원회(FOMC) 올해 마지막 회의 결과가 촉발한 폭락장에서 벗어나 동반 상승..</t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0015117009&amp;office_id=001&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=4</t>
+  </si>
+  <si>
+    <t>상장 첫날 '따블' 지금은 '반토막'…1년새 무슨일이[IPO 불패 옛말①]</t>
+  </si>
+  <si>
+    <t>스튜디오삼익·케이엔알시스템, 공모가 대비 절반 넘게 줄어 상장 주관사 DB금융투자·금융당국 책임론도 올해 국내 기업공개(IPO) 시장엔..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">더팩트 </t>
+  </si>
+  <si>
+    <t>https://finance.naver.com/news/news_read.naver?article_id=0000349710&amp;office_id=629&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=4</t>
   </si>
 </sst>
 </file>
@@ -1780,6 +2410,606 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4C02F0-A1B6-4521-80E3-638E75549738}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612775" y="889000"/>
+          <a:ext cx="1968500" cy="1041400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B6FC684-F08A-4CB4-8BB0-F970A310C0EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3022600" y="889000"/>
+          <a:ext cx="1968500" cy="1041400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C4E618A-3A19-4A21-8266-2EFBD5631AA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5432425" y="889000"/>
+          <a:ext cx="1968500" cy="1041400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50C2550B-0A44-4F9F-988E-BADB57CD9E89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612775" y="2184400"/>
+          <a:ext cx="1968500" cy="1041400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D049C331-9E1A-4AF0-B688-4AFC473EBF20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3022600" y="2184400"/>
+          <a:ext cx="1968500" cy="1041400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49D7CBB7-FB2B-48A3-9432-6892D7DCFADD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5432425" y="2184400"/>
+          <a:ext cx="1968500" cy="1041400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA9A4D3A-9D25-44ED-B789-6AB0F98A1E17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612775" y="3470275"/>
+          <a:ext cx="1968500" cy="1041400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27486736-1BBB-430A-9BC4-F5F75D245F77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3022600" y="3470275"/>
+          <a:ext cx="1968500" cy="1041400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D87E5B-E72A-41BF-AA2A-D04AA0334496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5432425" y="3470275"/>
+          <a:ext cx="1968500" cy="1041400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2EE7278-5CEE-4130-81DC-4635FB20DD48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612775" y="4765675"/>
+          <a:ext cx="1968500" cy="1041400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A1ACAA5-E01B-4815-9DF4-973AC45CE8A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3022600" y="4765675"/>
+          <a:ext cx="1968500" cy="1041400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBDE6B5F-A1C5-4067-BB92-F3DB269418E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5432425" y="4765675"/>
+          <a:ext cx="1968500" cy="1041400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3815,14 +5045,14 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="60">
+      <c r="K29" s="60" t="str">
         <f>주요뉴스!E4</f>
-        <v>0</v>
+        <v xml:space="preserve">머니투데이 </v>
       </c>
       <c r="L29" s="60"/>
-      <c r="M29" s="61">
+      <c r="M29" s="61" t="str">
         <f>주요뉴스!C4</f>
-        <v>0</v>
+        <v>"4만전자 다시 볼라"…외국인 빠진 삼성전자, 내년은?</v>
       </c>
       <c r="N29" s="61"/>
       <c r="O29" s="61"/>
@@ -3838,7 +5068,7 @@
       <c r="Y29" s="25"/>
       <c r="Z29" s="56" t="str">
         <f>IF(주요뉴스!G4="","",HYPERLINK(주요뉴스!G4, "▶"))</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AA29" s="26"/>
       <c r="AB29" s="25">
@@ -3854,14 +5084,14 @@
       <c r="AF29" s="26"/>
     </row>
     <row r="30" spans="1:33">
-      <c r="K30" s="60">
+      <c r="K30" s="60" t="str">
         <f>주요뉴스!E5</f>
-        <v>0</v>
+        <v xml:space="preserve">문화일보 </v>
       </c>
       <c r="L30" s="60"/>
-      <c r="M30" s="61">
+      <c r="M30" s="61" t="str">
         <f>주요뉴스!C5</f>
-        <v>0</v>
+        <v>PBR 0.8배 ‘코로나 수준’… 글로벌 투자 비중도 ‘뚝뚝’</v>
       </c>
       <c r="N30" s="61"/>
       <c r="O30" s="61"/>
@@ -3877,7 +5107,7 @@
       <c r="Y30" s="25"/>
       <c r="Z30" s="56" t="str">
         <f>IF(주요뉴스!G5="","",HYPERLINK(주요뉴스!G5, "▶"))</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AA30" s="26"/>
       <c r="AB30" s="25">
@@ -3894,14 +5124,14 @@
       <c r="AG30" s="26"/>
     </row>
     <row r="31" spans="1:33">
-      <c r="K31" s="60">
+      <c r="K31" s="60" t="str">
         <f>주요뉴스!E6</f>
-        <v>0</v>
+        <v xml:space="preserve">헤럴드경제 </v>
       </c>
       <c r="L31" s="60"/>
-      <c r="M31" s="61">
+      <c r="M31" s="61" t="str">
         <f>주요뉴스!C6</f>
-        <v>0</v>
+        <v>외인 코스피서 2조 넘게 이탈한 3가지 이유</v>
       </c>
       <c r="N31" s="61"/>
       <c r="O31" s="61"/>
@@ -3917,7 +5147,7 @@
       <c r="Y31" s="25"/>
       <c r="Z31" s="56" t="str">
         <f>IF(주요뉴스!G6="","",HYPERLINK(주요뉴스!G6, "▶"))</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AA31" s="26"/>
       <c r="AB31" s="60">
@@ -3934,14 +5164,14 @@
       <c r="AG31" s="26"/>
     </row>
     <row r="32" spans="1:33">
-      <c r="K32" s="60">
+      <c r="K32" s="60" t="str">
         <f>주요뉴스!E7</f>
-        <v>0</v>
+        <v xml:space="preserve">헤럴드경제 </v>
       </c>
       <c r="L32" s="60"/>
-      <c r="M32" s="61">
+      <c r="M32" s="61" t="str">
         <f>주요뉴스!C7</f>
-        <v>0</v>
+        <v>美증시 시총&lt;63조달러&gt;, 글로벌 절반 넘었다</v>
       </c>
       <c r="N32" s="61"/>
       <c r="O32" s="61"/>
@@ -3957,7 +5187,7 @@
       <c r="Y32" s="25"/>
       <c r="Z32" s="56" t="str">
         <f>IF(주요뉴스!G7="","",HYPERLINK(주요뉴스!G7, "▶"))</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AA32" s="26"/>
       <c r="AB32" s="60">
@@ -3974,14 +5204,14 @@
       <c r="AG32" s="26"/>
     </row>
     <row r="33" spans="1:33">
-      <c r="K33" s="60">
+      <c r="K33" s="60" t="str">
         <f>주요뉴스!E8</f>
-        <v>0</v>
+        <v xml:space="preserve">서울경제 </v>
       </c>
       <c r="L33" s="60"/>
-      <c r="M33" s="61">
+      <c r="M33" s="61" t="str">
         <f>주요뉴스!C8</f>
-        <v>0</v>
+        <v>저점 찍었나…삼성전자 순매수 1위[주식 초고수는 지금]</v>
       </c>
       <c r="N33" s="61"/>
       <c r="O33" s="61"/>
@@ -3997,7 +5227,7 @@
       <c r="Y33" s="25"/>
       <c r="Z33" s="56" t="str">
         <f>IF(주요뉴스!G8="","",HYPERLINK(주요뉴스!G8, "▶"))</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AA33" s="26"/>
       <c r="AB33" s="60">
@@ -4014,14 +5244,14 @@
       <c r="AG33" s="26"/>
     </row>
     <row r="34" spans="1:33">
-      <c r="K34" s="60">
+      <c r="K34" s="60" t="str">
         <f>주요뉴스!E9</f>
-        <v>0</v>
+        <v xml:space="preserve">헤럴드경제 </v>
       </c>
       <c r="L34" s="60"/>
-      <c r="M34" s="61">
+      <c r="M34" s="61" t="str">
         <f>주요뉴스!C9</f>
-        <v>0</v>
+        <v>QQQ 투자? 당신도 ‘비트코인’ 투자자!…대표 나스닥 ETF, ‘마이크로스트레티지’ 편입 효과는? [투자260]</v>
       </c>
       <c r="N34" s="61"/>
       <c r="O34" s="61"/>
@@ -4037,7 +5267,7 @@
       <c r="Y34" s="25"/>
       <c r="Z34" s="56" t="str">
         <f>IF(주요뉴스!G9="","",HYPERLINK(주요뉴스!G9, "▶"))</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AA34" s="26"/>
       <c r="AB34" s="60">
@@ -4054,14 +5284,14 @@
       <c r="AG34" s="26"/>
     </row>
     <row r="35" spans="1:33">
-      <c r="K35" s="60">
+      <c r="K35" s="60" t="str">
         <f>주요뉴스!E10</f>
-        <v>0</v>
+        <v xml:space="preserve">한국경제TV </v>
       </c>
       <c r="L35" s="60"/>
-      <c r="M35" s="61">
+      <c r="M35" s="61" t="str">
         <f>주요뉴스!C10</f>
-        <v>0</v>
+        <v>美 트럼프發 셧다운 위기...탄핵정국 韓 직격탄 우려 [오한마]</v>
       </c>
       <c r="N35" s="61"/>
       <c r="O35" s="61"/>
@@ -4077,7 +5307,7 @@
       <c r="Y35" s="25"/>
       <c r="Z35" s="56" t="str">
         <f>IF(주요뉴스!G10="","",HYPERLINK(주요뉴스!G10, "▶"))</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AA35" s="26"/>
       <c r="AB35" s="60">
@@ -4094,14 +5324,14 @@
       <c r="AG35" s="26"/>
     </row>
     <row r="36" spans="1:33">
-      <c r="K36" s="60">
+      <c r="K36" s="60" t="str">
         <f>주요뉴스!E11</f>
-        <v>0</v>
+        <v xml:space="preserve">뉴시스 </v>
       </c>
       <c r="L36" s="60"/>
-      <c r="M36" s="61">
+      <c r="M36" s="61" t="str">
         <f>주요뉴스!C11</f>
-        <v>0</v>
+        <v>불닭 열풍' 삼양식품, 하락장 속 나홀로 질주…최고가 경신</v>
       </c>
       <c r="N36" s="61"/>
       <c r="O36" s="61"/>
@@ -4117,7 +5347,7 @@
       <c r="Y36" s="25"/>
       <c r="Z36" s="56" t="str">
         <f>IF(주요뉴스!G11="","",HYPERLINK(주요뉴스!G11, "▶"))</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AA36" s="26"/>
       <c r="AB36" s="60">
@@ -4134,14 +5364,14 @@
       <c r="AG36" s="26"/>
     </row>
     <row r="37" spans="1:33">
-      <c r="K37" s="60">
+      <c r="K37" s="60" t="str">
         <f>주요뉴스!E12</f>
-        <v>0</v>
+        <v xml:space="preserve">뉴시스 </v>
       </c>
       <c r="L37" s="60"/>
-      <c r="M37" s="61">
+      <c r="M37" s="61" t="str">
         <f>주요뉴스!C12</f>
-        <v>0</v>
+        <v>벨기에 빌딩 투자도 전액 손실로…늦어지는 금리인하 어쩌나</v>
       </c>
       <c r="N37" s="61"/>
       <c r="O37" s="61"/>
@@ -4157,7 +5387,7 @@
       <c r="Y37" s="25"/>
       <c r="Z37" s="56" t="str">
         <f>IF(주요뉴스!G12="","",HYPERLINK(주요뉴스!G12, "▶"))</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AA37" s="26"/>
       <c r="AB37" s="60">
@@ -4175,14 +5405,14 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="20"/>
-      <c r="K38" s="60">
+      <c r="K38" s="60" t="str">
         <f>주요뉴스!E13</f>
-        <v>0</v>
+        <v xml:space="preserve">서울경제 </v>
       </c>
       <c r="L38" s="60"/>
-      <c r="M38" s="61">
+      <c r="M38" s="61" t="str">
         <f>주요뉴스!C13</f>
-        <v>0</v>
+        <v>"대권 도전하나?" 질문에 "생각해 본 적 없다"…우원식 대답에 '테마주' 급락</v>
       </c>
       <c r="N38" s="61"/>
       <c r="O38" s="61"/>
@@ -4198,7 +5428,7 @@
       <c r="Y38" s="25"/>
       <c r="Z38" s="56" t="str">
         <f>IF(주요뉴스!G13="","",HYPERLINK(주요뉴스!G13, "▶"))</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AA38" s="26"/>
       <c r="AB38" s="60">
@@ -4216,14 +5446,14 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="21"/>
-      <c r="K39" s="60">
+      <c r="K39" s="60" t="str">
         <f>주요뉴스!E14</f>
-        <v>0</v>
+        <v xml:space="preserve">헤럴드경제 </v>
       </c>
       <c r="L39" s="60"/>
-      <c r="M39" s="61">
+      <c r="M39" s="61" t="str">
         <f>주요뉴스!C14</f>
-        <v>0</v>
+        <v>“11만달러 가나 했더니”···꺾인 비트코인, 연이틀 약세에 국내 가상자산株도 ‘뚝’ [투자360]</v>
       </c>
       <c r="N39" s="61"/>
       <c r="O39" s="61"/>
@@ -4239,7 +5469,7 @@
       <c r="Y39" s="25"/>
       <c r="Z39" s="56" t="str">
         <f>IF(주요뉴스!G14="","",HYPERLINK(주요뉴스!G14, "▶"))</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AA39" s="26"/>
       <c r="AB39" s="60">
@@ -4257,14 +5487,14 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="21"/>
-      <c r="K40" s="60">
+      <c r="K40" s="60" t="str">
         <f>주요뉴스!E15</f>
-        <v>0</v>
+        <v xml:space="preserve">뉴스1 </v>
       </c>
       <c r="L40" s="60"/>
-      <c r="M40" s="61">
+      <c r="M40" s="61" t="str">
         <f>주요뉴스!C15</f>
-        <v>0</v>
+        <v>재건 수혜주' 전진건설로봇 5거래일간 63% 급등…사상 최고가[핫종목]</v>
       </c>
       <c r="N40" s="61"/>
       <c r="O40" s="61"/>
@@ -4280,7 +5510,7 @@
       <c r="Y40" s="25"/>
       <c r="Z40" s="56" t="str">
         <f>IF(주요뉴스!G15="","",HYPERLINK(주요뉴스!G15, "▶"))</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AA40" s="26"/>
       <c r="AB40" s="60">
@@ -4298,14 +5528,14 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="21"/>
-      <c r="K41" s="60">
+      <c r="K41" s="60" t="str">
         <f>주요뉴스!E16</f>
-        <v>0</v>
+        <v xml:space="preserve">뉴시스 </v>
       </c>
       <c r="L41" s="60"/>
-      <c r="M41" s="61">
+      <c r="M41" s="61" t="str">
         <f>주요뉴스!C16</f>
-        <v>0</v>
+        <v>"킹달러 수혜주"…자동차株 악셀 밟나</v>
       </c>
       <c r="N41" s="61"/>
       <c r="O41" s="61"/>
@@ -4321,7 +5551,7 @@
       <c r="Y41" s="25"/>
       <c r="Z41" s="56" t="str">
         <f>IF(주요뉴스!G16="","",HYPERLINK(주요뉴스!G16, "▶"))</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AA41" s="26"/>
       <c r="AB41" s="60">
@@ -4339,14 +5569,14 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="21"/>
-      <c r="K42" s="60">
+      <c r="K42" s="60" t="str">
         <f>주요뉴스!E17</f>
-        <v>0</v>
+        <v xml:space="preserve">한국경제TV </v>
       </c>
       <c r="L42" s="60"/>
-      <c r="M42" s="61">
+      <c r="M42" s="61" t="str">
         <f>주요뉴스!C17</f>
-        <v>0</v>
+        <v>강세론자' 톰 리 "증시 비관론 지나쳐…저가매수 기회"</v>
       </c>
       <c r="N42" s="61"/>
       <c r="O42" s="61"/>
@@ -4362,7 +5592,7 @@
       <c r="Y42" s="25"/>
       <c r="Z42" s="56" t="str">
         <f>IF(주요뉴스!G17="","",HYPERLINK(주요뉴스!G17, "▶"))</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AA42" s="26"/>
       <c r="AB42" s="60">
@@ -4389,14 +5619,14 @@
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
-      <c r="K43" s="60">
+      <c r="K43" s="60" t="str">
         <f>주요뉴스!E18</f>
-        <v>0</v>
+        <v xml:space="preserve">서울경제 </v>
       </c>
       <c r="L43" s="60"/>
-      <c r="M43" s="61">
+      <c r="M43" s="61" t="str">
         <f>주요뉴스!C18</f>
-        <v>0</v>
+        <v>‘대기업 입주 속속’ 모습 갖춰가는 마곡, 서울 핵심 업무권역으로 우뚝</v>
       </c>
       <c r="N43" s="61"/>
       <c r="O43" s="61"/>
@@ -4412,7 +5642,7 @@
       <c r="Y43" s="25"/>
       <c r="Z43" s="56" t="str">
         <f>IF(주요뉴스!G18="","",HYPERLINK(주요뉴스!G18, "▶"))</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AA43" s="26"/>
       <c r="AB43" s="60">
@@ -4429,14 +5659,14 @@
       <c r="AG43" s="26"/>
     </row>
     <row r="44" spans="1:33">
-      <c r="K44" s="60">
+      <c r="K44" s="60" t="str">
         <f>주요뉴스!E19</f>
-        <v>0</v>
+        <v xml:space="preserve">비즈워치 </v>
       </c>
       <c r="L44" s="60"/>
-      <c r="M44" s="61">
+      <c r="M44" s="61" t="str">
         <f>주요뉴스!C19</f>
-        <v>0</v>
+        <v>삼성증권 "롯데케미칼, 재무 리스크 사라졌지만…목표가는 하향"</v>
       </c>
       <c r="N44" s="61"/>
       <c r="O44" s="61"/>
@@ -4452,7 +5682,7 @@
       <c r="Y44" s="25"/>
       <c r="Z44" s="56" t="str">
         <f>IF(주요뉴스!G19="","",HYPERLINK(주요뉴스!G19, "▶"))</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AA44" s="26"/>
       <c r="AB44" s="60">
@@ -4469,14 +5699,14 @@
       <c r="AG44" s="26"/>
     </row>
     <row r="45" spans="1:33">
-      <c r="K45" s="60">
+      <c r="K45" s="60" t="str">
         <f>주요뉴스!E20</f>
-        <v>0</v>
+        <v xml:space="preserve">매일경제 </v>
       </c>
       <c r="L45" s="60"/>
-      <c r="M45" s="61">
+      <c r="M45" s="61" t="str">
         <f>주요뉴스!C20</f>
-        <v>0</v>
+        <v>이러다 진짜 ‘황제주’ 등극하겠네…전세계 주목 받으며 올해 247% 오른 삼양식품</v>
       </c>
       <c r="N45" s="61"/>
       <c r="O45" s="61"/>
@@ -4492,7 +5722,7 @@
       <c r="Y45" s="25"/>
       <c r="Z45" s="56" t="str">
         <f>IF(주요뉴스!G20="","",HYPERLINK(주요뉴스!G20, "▶"))</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AA45" s="26"/>
       <c r="AB45" s="60">
@@ -4509,14 +5739,14 @@
       <c r="AG45" s="26"/>
     </row>
     <row r="46" spans="1:33" ht="18" customHeight="1">
-      <c r="K46" s="60">
+      <c r="K46" s="60" t="str">
         <f>주요뉴스!E21</f>
-        <v>0</v>
+        <v xml:space="preserve">매일경제 </v>
       </c>
       <c r="L46" s="60"/>
-      <c r="M46" s="61">
+      <c r="M46" s="61" t="str">
         <f>주요뉴스!C21</f>
-        <v>0</v>
+        <v>“오늘도 영 맥 못 추네”…삼성전자 1%·SK하이닉스 2%대 약세</v>
       </c>
       <c r="N46" s="61"/>
       <c r="O46" s="61"/>
@@ -4532,7 +5762,7 @@
       <c r="Y46" s="25"/>
       <c r="Z46" s="56" t="str">
         <f>IF(주요뉴스!G21="","",HYPERLINK(주요뉴스!G21, "▶"))</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AA46" s="26"/>
       <c r="AB46" s="60">
@@ -4549,14 +5779,14 @@
       <c r="AG46" s="26"/>
     </row>
     <row r="47" spans="1:33">
-      <c r="K47" s="60">
+      <c r="K47" s="60" t="str">
         <f>주요뉴스!E22</f>
-        <v>0</v>
+        <v xml:space="preserve">헤럴드경제 </v>
       </c>
       <c r="L47" s="60"/>
-      <c r="M47" s="61">
+      <c r="M47" s="61" t="str">
         <f>주요뉴스!C22</f>
-        <v>0</v>
+        <v>‘6600억 美 보조금’ 약발 안 통하는 SK하닉…FOMC·마이크론 쇼크에 K-반도체株 ‘휘청’ [투자360]</v>
       </c>
       <c r="N47" s="61"/>
       <c r="O47" s="61"/>
@@ -4572,7 +5802,7 @@
       <c r="Y47" s="25"/>
       <c r="Z47" s="56" t="str">
         <f>IF(주요뉴스!G22="","",HYPERLINK(주요뉴스!G22, "▶"))</f>
-        <v/>
+        <v>▶</v>
       </c>
       <c r="AA47" s="26"/>
       <c r="AB47" s="60">
@@ -6113,471 +7343,1355 @@
       <c r="F3" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="59"/>
-    </row>
-    <row r="4" spans="2:7" ht="17.25" thickTop="1">
+      <c r="G3" s="59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="33.75" thickTop="1">
       <c r="B4" s="56" t="str">
         <f>IF(G4="","",HYPERLINK(G4, "▶"))</f>
-        <v/>
-      </c>
-      <c r="C4" s="57"/>
-      <c r="F4" s="58"/>
-    </row>
-    <row r="5" spans="2:7">
+        <v>▶</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="58">
+        <v>45646.505358796298</v>
+      </c>
+      <c r="G4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="33">
       <c r="B5" s="56" t="str">
         <f t="shared" ref="B5:B68" si="0">IF(G5="","",HYPERLINK(G5, "▶"))</f>
-        <v/>
-      </c>
-      <c r="F5" s="58"/>
-    </row>
-    <row r="6" spans="2:7">
+        <v>▶</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="58">
+        <v>45646.502488425926</v>
+      </c>
+      <c r="G5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="33">
       <c r="B6" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C6" s="57"/>
-      <c r="F6" s="58"/>
-    </row>
-    <row r="7" spans="2:7">
+        <v>▶</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="58">
+        <v>45646.484166666669</v>
+      </c>
+      <c r="G6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="33">
       <c r="B7" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="F7" s="58"/>
-    </row>
-    <row r="8" spans="2:7">
+        <v>▶</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="58">
+        <v>45646.483472222222</v>
+      </c>
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="33">
       <c r="B8" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F8" s="58"/>
-    </row>
-    <row r="9" spans="2:7">
+        <v>▶</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="58">
+        <v>45646.479988425926</v>
+      </c>
+      <c r="G8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="49.5">
       <c r="B9" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C9" s="57"/>
-      <c r="F9" s="58"/>
-    </row>
-    <row r="10" spans="2:7">
+        <v>▶</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="58">
+        <v>45646.478634259256</v>
+      </c>
+      <c r="G9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="33">
       <c r="B10" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F10" s="58"/>
-    </row>
-    <row r="11" spans="2:7">
+        <v>▶</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="58">
+        <v>45646.477337962962</v>
+      </c>
+      <c r="G10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="49.5">
       <c r="B11" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F11" s="58"/>
-    </row>
-    <row r="12" spans="2:7">
+        <v>▶</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="58">
+        <v>45646.476724537039</v>
+      </c>
+      <c r="G11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="33">
       <c r="B12" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F12" s="58"/>
-    </row>
-    <row r="13" spans="2:7">
+        <v>▶</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="58">
+        <v>45646.46875</v>
+      </c>
+      <c r="G12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="33">
       <c r="B13" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C13" s="57"/>
-      <c r="F13" s="58"/>
-    </row>
-    <row r="14" spans="2:7">
+        <v>▶</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="58">
+        <v>45646.458506944444</v>
+      </c>
+      <c r="G13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="49.5">
       <c r="B14" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F14" s="58"/>
-    </row>
-    <row r="15" spans="2:7">
+        <v>▶</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="58">
+        <v>45646.452951388892</v>
+      </c>
+      <c r="G14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="33">
       <c r="B15" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F15" s="58"/>
-    </row>
-    <row r="16" spans="2:7">
+        <v>▶</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="58">
+        <v>45646.44290509259</v>
+      </c>
+      <c r="G15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="33">
       <c r="B16" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F16" s="58"/>
-    </row>
-    <row r="17" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="58">
+        <v>45646.439513888887</v>
+      </c>
+      <c r="G16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="33">
       <c r="B17" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C17" s="57"/>
-      <c r="F17" s="58"/>
-    </row>
-    <row r="18" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="58">
+        <v>45646.437152777777</v>
+      </c>
+      <c r="G17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="33">
       <c r="B18" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F18" s="58"/>
-    </row>
-    <row r="19" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="58">
+        <v>45646.435590277775</v>
+      </c>
+      <c r="G18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="49.5">
       <c r="B19" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F19" s="58"/>
-    </row>
-    <row r="20" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="58">
+        <v>45646.433530092596</v>
+      </c>
+      <c r="G19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="33">
       <c r="B20" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F20" s="58"/>
-    </row>
-    <row r="21" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="58">
+        <v>45646.433530092596</v>
+      </c>
+      <c r="G20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="49.5">
       <c r="B21" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D21" s="57"/>
-      <c r="F21" s="58"/>
-    </row>
-    <row r="22" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="58">
+        <v>45646.432754629626</v>
+      </c>
+      <c r="G21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="49.5">
       <c r="B22" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C22" s="57"/>
-      <c r="F22" s="58"/>
-    </row>
-    <row r="23" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="58">
+        <v>45646.420370370368</v>
+      </c>
+      <c r="G22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="33">
       <c r="B23" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F23" s="58"/>
-    </row>
-    <row r="24" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="58">
+        <v>45646.406400462962</v>
+      </c>
+      <c r="G23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="33">
       <c r="B24" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F24" s="58"/>
-    </row>
-    <row r="25" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="58">
+        <v>45646.404444444444</v>
+      </c>
+      <c r="G24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="33">
       <c r="B25" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F25" s="58"/>
-    </row>
-    <row r="26" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="58">
+        <v>45646.397430555553</v>
+      </c>
+      <c r="G25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="33">
       <c r="B26" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F26" s="58"/>
-    </row>
-    <row r="27" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="58">
+        <v>45646.396412037036</v>
+      </c>
+      <c r="G26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="33">
       <c r="B27" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D27" s="57"/>
-      <c r="F27" s="58"/>
-    </row>
-    <row r="28" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="58">
+        <v>45646.393252314818</v>
+      </c>
+      <c r="G27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="33">
       <c r="B28" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F28" s="58"/>
-    </row>
-    <row r="29" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="58">
+        <v>45646.386273148149</v>
+      </c>
+      <c r="G28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="49.5">
       <c r="B29" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F29" s="58"/>
-    </row>
-    <row r="30" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" s="58">
+        <v>45646.384166666663</v>
+      </c>
+      <c r="G29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="33">
       <c r="B30" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F30" s="58"/>
-    </row>
-    <row r="31" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="58">
+        <v>45646.365231481483</v>
+      </c>
+      <c r="G30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="33">
       <c r="B31" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F31" s="58"/>
-    </row>
-    <row r="32" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="58">
+        <v>45646.363298611112</v>
+      </c>
+      <c r="G31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="33">
       <c r="B32" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F32" s="58"/>
-    </row>
-    <row r="33" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="58">
+        <v>45646.362303240741</v>
+      </c>
+      <c r="G32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="33">
       <c r="B33" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F33" s="58"/>
-    </row>
-    <row r="34" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="58">
+        <v>45646.359131944446</v>
+      </c>
+      <c r="G33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="33">
       <c r="B34" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F34" s="58"/>
-    </row>
-    <row r="35" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="58">
+        <v>45646.352951388886</v>
+      </c>
+      <c r="G34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="33">
       <c r="B35" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F35" s="58"/>
-    </row>
-    <row r="36" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F35" s="58">
+        <v>45646.350844907407</v>
+      </c>
+      <c r="G35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="33">
       <c r="B36" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F36" s="58"/>
-    </row>
-    <row r="37" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" s="58">
+        <v>45646.346018518518</v>
+      </c>
+      <c r="G36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="33">
       <c r="B37" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F37" s="58"/>
-    </row>
-    <row r="38" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="58">
+        <v>45646.345243055555</v>
+      </c>
+      <c r="G37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="49.5">
       <c r="B38" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F38" s="58"/>
-    </row>
-    <row r="39" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F38" s="58">
+        <v>45646.338483796295</v>
+      </c>
+      <c r="G38" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="33">
       <c r="B39" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F39" s="58"/>
-    </row>
-    <row r="40" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" s="58">
+        <v>45646.338460648149</v>
+      </c>
+      <c r="G39" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="33">
       <c r="B40" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F40" s="58"/>
-    </row>
-    <row r="41" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F40" s="58">
+        <v>45646.337650462963</v>
+      </c>
+      <c r="G40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="33">
       <c r="B41" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F41" s="58"/>
-    </row>
-    <row r="42" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F41" s="58">
+        <v>45646.334826388891</v>
+      </c>
+      <c r="G41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="33">
       <c r="B42" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F42" s="58"/>
-    </row>
-    <row r="43" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="D42" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" s="58">
+        <v>45646.334155092591</v>
+      </c>
+      <c r="G42" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="49.5">
       <c r="B43" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F43" s="58"/>
-    </row>
-    <row r="44" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="58">
+        <v>45646.333506944444</v>
+      </c>
+      <c r="G43" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="33">
       <c r="B44" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C44" s="57"/>
-      <c r="F44" s="58"/>
-    </row>
-    <row r="45" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F44" s="58">
+        <v>45646.331377314818</v>
+      </c>
+      <c r="G44" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="49.5">
       <c r="B45" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F45" s="58"/>
-    </row>
-    <row r="46" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="58">
+        <v>45646.329965277779</v>
+      </c>
+      <c r="G45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="33">
       <c r="B46" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F46" s="58"/>
-    </row>
-    <row r="47" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="58">
+        <v>45646.311840277776</v>
+      </c>
+      <c r="G46" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="49.5">
       <c r="B47" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F47" s="58"/>
-    </row>
-    <row r="48" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="58">
+        <v>45646.309861111113</v>
+      </c>
+      <c r="G47" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="33">
       <c r="B48" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C48" s="57"/>
-      <c r="F48" s="58"/>
-    </row>
-    <row r="49" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C48" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" s="58">
+        <v>45646.298067129632</v>
+      </c>
+      <c r="G48" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="33">
       <c r="B49" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F49" s="58"/>
-    </row>
-    <row r="50" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="D49" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F49" s="58">
+        <v>45646.294675925928</v>
+      </c>
+      <c r="G49" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="33">
       <c r="B50" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F50" s="58"/>
-    </row>
-    <row r="51" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F50" s="58">
+        <v>45646.291817129626</v>
+      </c>
+      <c r="G50" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="49.5">
       <c r="B51" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F51" s="58"/>
-    </row>
-    <row r="52" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C51" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D51" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F51" s="58">
+        <v>45646.291666666664</v>
+      </c>
+      <c r="G51" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="33">
       <c r="B52" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F52" s="58"/>
-    </row>
-    <row r="53" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="D52" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F52" s="58">
+        <v>45646.281354166669</v>
+      </c>
+      <c r="G52" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="49.5">
       <c r="B53" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F53" s="58"/>
-    </row>
-    <row r="54" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="D53" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F53" s="58">
+        <v>45646.28125</v>
+      </c>
+      <c r="G53" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="49.5">
       <c r="B54" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F54" s="58"/>
-    </row>
-    <row r="55" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="D54" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" s="58">
+        <v>45646.279618055552</v>
+      </c>
+      <c r="G54" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="33">
       <c r="B55" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F55" s="58"/>
-    </row>
-    <row r="56" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C55" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="D55" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F55" s="58">
+        <v>45646.274305555555</v>
+      </c>
+      <c r="G55" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="33">
       <c r="B56" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C56" s="57"/>
-      <c r="F56" s="58"/>
-    </row>
-    <row r="57" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C56" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="D56" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F56" s="58">
+        <v>45646.271655092591</v>
+      </c>
+      <c r="G56" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="33">
       <c r="B57" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F57" s="58"/>
-    </row>
-    <row r="58" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="D57" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F57" s="58">
+        <v>45646.267361111109</v>
+      </c>
+      <c r="G57" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="33">
       <c r="B58" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C58" s="57"/>
-      <c r="F58" s="58"/>
-    </row>
-    <row r="59" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C58" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="D58" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F58" s="58">
+        <v>45646.263888888891</v>
+      </c>
+      <c r="G58" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="49.5">
       <c r="B59" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F59" s="58"/>
-    </row>
-    <row r="60" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C59" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="D59" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F59" s="58">
+        <v>45646.261203703703</v>
+      </c>
+      <c r="G59" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="49.5">
       <c r="B60" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F60" s="58"/>
-    </row>
-    <row r="61" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C60" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="D60" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F60" s="58">
+        <v>45646.260416666664</v>
+      </c>
+      <c r="G60" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="33">
       <c r="B61" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F61" s="58"/>
-    </row>
-    <row r="62" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C61" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="D61" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F61" s="58">
+        <v>45646.25986111111</v>
+      </c>
+      <c r="G61" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="33">
       <c r="B62" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F62" s="58"/>
-    </row>
-    <row r="63" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="D62" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F62" s="58">
+        <v>45646.250914351855</v>
+      </c>
+      <c r="G62" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="33">
       <c r="B63" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F63" s="58"/>
-    </row>
-    <row r="64" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C63" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="D63" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F63" s="58">
+        <v>45646.250810185185</v>
+      </c>
+      <c r="G63" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="33">
       <c r="B64" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F64" s="58"/>
-    </row>
-    <row r="65" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C64" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="D64" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F64" s="58">
+        <v>45646.25</v>
+      </c>
+      <c r="G64" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="33">
       <c r="B65" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F65" s="58"/>
-    </row>
-    <row r="66" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C65" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="D65" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="F65" s="58">
+        <v>45646.189583333333</v>
+      </c>
+      <c r="G65" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="49.5">
       <c r="B66" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F66" s="58"/>
-    </row>
-    <row r="67" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C66" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="D66" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F66" s="58">
+        <v>45646.041412037041</v>
+      </c>
+      <c r="G66" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="33">
       <c r="B67" s="56" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C67" s="57"/>
-      <c r="F67" s="58"/>
-    </row>
-    <row r="68" spans="2:6">
+        <v>▶</v>
+      </c>
+      <c r="C67" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="D67" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="F67" s="58">
+        <v>45646.001215277778</v>
+      </c>
+      <c r="G67" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
       <c r="B68" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6585,28 +8699,28 @@
       <c r="C68" s="57"/>
       <c r="F68" s="58"/>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="2:7">
       <c r="B69" s="56" t="str">
         <f t="shared" ref="B69:B132" si="1">IF(G69="","",HYPERLINK(G69, "▶"))</f>
         <v/>
       </c>
       <c r="F69" s="58"/>
     </row>
-    <row r="70" spans="2:6">
+    <row r="70" spans="2:7">
       <c r="B70" s="56" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F70" s="58"/>
     </row>
-    <row r="71" spans="2:6">
+    <row r="71" spans="2:7">
       <c r="B71" s="56" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F71" s="58"/>
     </row>
-    <row r="72" spans="2:6">
+    <row r="72" spans="2:7">
       <c r="B72" s="56" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6614,56 +8728,56 @@
       <c r="C72" s="57"/>
       <c r="F72" s="58"/>
     </row>
-    <row r="73" spans="2:6">
+    <row r="73" spans="2:7">
       <c r="B73" s="56" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F73" s="58"/>
     </row>
-    <row r="74" spans="2:6">
+    <row r="74" spans="2:7">
       <c r="B74" s="56" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F74" s="58"/>
     </row>
-    <row r="75" spans="2:6">
+    <row r="75" spans="2:7">
       <c r="B75" s="56" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F75" s="58"/>
     </row>
-    <row r="76" spans="2:6">
+    <row r="76" spans="2:7">
       <c r="B76" s="56" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F76" s="58"/>
     </row>
-    <row r="77" spans="2:6">
+    <row r="77" spans="2:7">
       <c r="B77" s="56" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F77" s="58"/>
     </row>
-    <row r="78" spans="2:6">
+    <row r="78" spans="2:7">
       <c r="B78" s="56" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F78" s="58"/>
     </row>
-    <row r="79" spans="2:6">
+    <row r="79" spans="2:7">
       <c r="B79" s="56" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F79" s="58"/>
     </row>
-    <row r="80" spans="2:6">
+    <row r="80" spans="2:7">
       <c r="B80" s="56" t="str">
         <f t="shared" si="1"/>
         <v/>

--- a/21_오늘의_증권시황/Data/Output/2024년/2024년12월/Today_Stock_Information_2024-12-20.xlsx
+++ b/21_오늘의_증권시황/Data/Output/2024년/2024년12월/Today_Stock_Information_2024-12-20.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\21_오늘의_증권시황\Data\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\21_오늘의_증권시황\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEE7CD6-FD93-4A4E-A9EF-41058928FA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A426A25-0FB1-4923-A98F-192EAC544C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13950" yWindow="2355" windowWidth="13500" windowHeight="12030" xr2:uid="{128CB9EE-8F8F-4283-BC02-829EA9DF085D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{128CB9EE-8F8F-4283-BC02-829EA9DF085D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
   <si>
     <t>오늘자 뉴스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,882 +307,6 @@
   <si>
     <t>분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>FOMC 여파' 코스피, 이틀째 급락…외인 1조 매물폭탄</t>
-  </si>
-  <si>
-    <t>20일 코스피 지수가 미 연방공개시장위원회(FOMC)의 금리인하 속도 지연 전망에 이틀째 급락했다. 외국인 투자자는 코스피 현·선물 시..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한국경제 </t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005072704&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
-  </si>
-  <si>
-    <t>다시 시작된 외인 엑소더스…2400선 진땀 사수[코스피 마감]</t>
-  </si>
-  <si>
-    <t>코스피 지수가 1%대 하락하며 2400선을 겨우 지켜냈다. 20일 엠피닥터에 따르면 이날 코스피 지수는 전일 대비 1.30%(31.78..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이데일리 </t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005910635&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
-  </si>
-  <si>
-    <t>[속보] "외국인, 8천억 던졌다"…韓 증시 '노답'</t>
-  </si>
-  <si>
-    <t>코스피가 1%대 하락 마감했다. 미 연준의 통화정책을 둘러싼 불확실성이 확대되면서 이틀 사이에 100포인트 가깝게 지수가 녹아내렸다. ..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한국경제TV </t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0001192538&amp;office_id=215&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
-  </si>
-  <si>
-    <t>“재무우려 덜었지만 4분기 부진”…롯데케미칼 목표가 하향</t>
-  </si>
-  <si>
-    <t>롯데케미칼이 사채권자 집회를 통해 회사채 관련 우려를 덜었음에도 불구하고 삼성증권은 롯데케미칼 목표가를 6% 내렸다. 20일 삼성증권은..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">매일경제 </t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005417136&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
-  </si>
-  <si>
-    <t>1450원대 고환율 지속 우려에…정부 외환수급대책 총동원 ‘주목’[외환분석]</t>
-  </si>
-  <si>
-    <t>원·달러 환율이 달러 강세 압력이 커지면서 장중 1450원대 초반에서 등락을 보이자 정부가 외환 수급 개선 방안을 발표하고 시장리스크 ..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005910574&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
-  </si>
-  <si>
-    <t>"산타 랠리는 커녕"…2400선 무너진 코스피 어디로</t>
-  </si>
-  <si>
-    <t>장중 코스피 2400선이 붕괴되면서 악재에 대한 민감도가 높아졌다는 평가가 나온다. 당초 증권가에서는 지수 하방이 제한될 것이라는 전망..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뉴시스 </t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0012973971&amp;office_id=003&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
-  </si>
-  <si>
-    <t>트럼프노믹스'는 어떤 세상을 만들까[마켓칼럼]</t>
-  </si>
-  <si>
-    <t>이 기사는 국내 최대 해외 투자정보 플랫폼 한경 글로벌마켓에 게재된 기사입니다. ※한경 마켓PRO 텔레그램을 구독하시면 프리미엄 투자 ..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005072653&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
-  </si>
-  <si>
-    <t>SK하이닉스, 4% 약세에 다시 '16만닉스'…삼성전자도 2% 급락[핫종목]</t>
-  </si>
-  <si>
-    <t>국내 대표 반도체주가 급락하고 있다. 20일 오후 1시 47분 기준 SK하이닉스(000660)는 전일 대비 7100원(4.06%) 하락..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뉴스1 </t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0007979439&amp;office_id=421&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
-  </si>
-  <si>
-    <t>"외인, 무섭게 던지네" 코스피 장중 2400선 붕괴…코스닥 2%↓</t>
-  </si>
-  <si>
-    <t>외국인의 순매도세에 밀려 코스피와 코스닥이 나란히 하락 중이다. 코스피는 2400선이 깨졌다. 20일 오후 1시 39분 기준 코스피 지..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">머니투데이 </t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005131509&amp;office_id=008&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
-  </si>
-  <si>
-    <t>‘外人·기관 매도 폭격’ 맞은 코스피, 결국 2400 붕괴 [투자360]</t>
-  </si>
-  <si>
-    <t>외인 코스피 현·선물 9000억원대 순매도 기관도 ‘팔자’ [헤럴드경제=신동윤 기자] 코스피 지수 2400 선이 결국 무너졌다. 외국인..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">헤럴드경제 </t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0002405580&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
-  </si>
-  <si>
-    <t>고려아연, 임시주총 표대결 MBK 우세 속 남은 변수는</t>
-  </si>
-  <si>
-    <t>고려아연경영권 분쟁의 분수령이 될 임시주주총회 의결권 기준일이 지난 가운데 사실상 표대결 승부의 추는 기울었다는 분석이 나온다. MBK..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">비즈워치 </t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0000031754&amp;office_id=648&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
-  </si>
-  <si>
-    <t>코스피 지수, 美 FOMC 충격에 장 중 2400선 붕괴… 8거래일만</t>
-  </si>
-  <si>
-    <t>코스피, 탄핵 정국 이후 다시 2300선으로 매파적 美 FOMC에 외국인 자금 이탈 커져 코스피 지수가 장 중 2300선으로 내려왔다...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">조선비즈 </t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0001041689&amp;office_id=366&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
-  </si>
-  <si>
-    <t>계엄과 함께 추락한 '밸류업 ETF', 탄핵으로 '활짝'</t>
-  </si>
-  <si>
-    <t>윤석열 대통령의 '계엄 선포'와 함께 추락한 '밸류업 상장지수펀드(ETF)' 수익률이 윤 대통령에 대한 탄핵안 가결로 회복세를 보이고 ..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0000031753&amp;office_id=648&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
-  </si>
-  <si>
-    <t>"4만전자 다시 볼라"…외국인 빠진 삼성전자, 내년은?</t>
-  </si>
-  <si>
-    <t>국내 증시 대장주 삼성전자가 내림세를 이어가고 있다. AI(인공지능) 경쟁력 등 주가 반등을 이끌 모멘텀(주가 상승 동력)이 부재한 상..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005131485&amp;office_id=008&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
-  </si>
-  <si>
-    <t>PBR 0.8배 ‘코로나 수준’… 글로벌 투자 비중도 ‘뚝뚝’</t>
-  </si>
-  <si>
-    <t>■ 불붙는 ‘코스피 바닥론’ 탄핵정국·트럼프 2기 영향에 PBR 하락… 청산가치 밑돌아 美는 4.6배·유럽은 1.9배 대조 전문가 “A..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">문화일보 </t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0002679429&amp;office_id=021&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
-  </si>
-  <si>
-    <t>올해 주식 사고 연말 배당받으려면…"26일까지 매수해야"</t>
-  </si>
-  <si>
-    <t>한국예탁결제원이 12월 결산 상장법인의 정기주주총회에서 의결권을 행사하거나 배당을 받고자 하는 투자자는 오는 26일까지 해당 상장법인의..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005131472&amp;office_id=008&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
-  </si>
-  <si>
-    <t>외인 코스피서 2조 넘게 이탈한 3가지 이유</t>
-  </si>
-  <si>
-    <t>외인투자자, 韓증시 이탈 요인 분석 三電부진·강달러·세계경기 민감 꼽아 비상계엄 사태, 탄핵정국 등 국내 정세가 요동을 치자 다수의 외..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0002405540&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
-  </si>
-  <si>
-    <t>美증시 시총&lt;63조달러&gt;, 글로벌 절반 넘었다</t>
-  </si>
-  <si>
-    <t>11월 기준 전세계 시총 50.3% 차지 1년 간 글로벌 시총 성장세보다 NYSE 1.64배·나스닥 2.28배 ↑ 연간수익률, 日·獨·..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0002405537&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
-  </si>
-  <si>
-    <t>저점 찍었나…삼성전자 순매수 1위[주식 초고수는 지금]</t>
-  </si>
-  <si>
-    <t>미래에셋증권에서 거래하는 고수익 투자자들이 20일 오전 가장 많이 순매수한 종목은 삼성전자(005930), 루닛(328130), 비보존..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">서울경제 </t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0004430435&amp;office_id=011&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
-  </si>
-  <si>
-    <t>QQQ 투자? 당신도 ‘비트코인’ 투자자!…대표 나스닥 ETF, ‘마이크로스트레티지’ 편입 효과는? [투자360]</t>
-  </si>
-  <si>
-    <t>이달 23일부터 비트코인을 대량 보유한 마이크로스트레티지가 나스닥 100 지수에 편입된다. 이에 따라 나스닥 100을 추종하는 대표 E..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0002405513&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=1</t>
-  </si>
-  <si>
-    <t>美 트럼프發 셧다운 위기...탄핵정국 韓 직격탄 우려 [오한마]</t>
-  </si>
-  <si>
-    <t>시청자 여러분 안녕하십니까. 오전장 한방에 마무리하는 뉴스. 오한마 시간입니다. 미국 하원에서 새 예산안이 부결되면서 연방정부 셧다운 ..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0001192484&amp;office_id=215&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
-  </si>
-  <si>
-    <t>불닭 열풍' 삼양식품, 하락장 속 나홀로 질주…최고가 경신</t>
-  </si>
-  <si>
-    <t>삼양식품이 글로벌 불닭볶음면 열풍에 힘입어 하락장 속에서도 사상 최고가를 기록했다. 수출 증가와 생산능력 확대에 따른 성장 기대감이 주..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0012973601&amp;office_id=003&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
-  </si>
-  <si>
-    <t>벨기에 빌딩 투자도 전액 손실로…늦어지는 금리인하 어쩌나</t>
-  </si>
-  <si>
-    <t>벨기에 정부기관이 사용하는 빌딩에 투자한 부동산 펀드가 전액 손실 위기에 처했다. 지난 6월 펀드 만기는 5년 연장했지만, 자산 매입 ..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0012973572&amp;office_id=003&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
-  </si>
-  <si>
-    <t>불안한 정국에 '대한한공' 주가에 쏠린 눈...왜?</t>
-  </si>
-  <si>
-    <t>비상계엄 및 대통령 탄핵, 미국 연방공개시장위원회(FOMC)의 매파적 발언 등으로 환율이 치솟고 있지만 예상보다 여객 수요는 견조한 것..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">파이낸셜뉴스 </t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005285331&amp;office_id=014&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
-  </si>
-  <si>
-    <t>"대권 도전하나?" 질문에 "생각해 본 적 없다"…우원식 대답에 '테마주' 급락</t>
-  </si>
-  <si>
-    <t>연일 급등하던 '우원식 테마주'들이 하락세를 보이고 있다. 우원식 국회의장이 차기 대선 도전 가능성과 관련해 "아직 생각해 본 적 없다..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0004430414&amp;office_id=011&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
-  </si>
-  <si>
-    <t>고려아연, '주총 명부폐쇄일' 주가 100만원 깨져[핫종목]</t>
-  </si>
-  <si>
-    <t>최윤범 회장과 영풍(000670)·MBK파트너스의 경영권 분쟁으로 주가가 큰 폭으로 올랐던 고려아연(010130)의 주가가 장중 100..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0007979065&amp;office_id=421&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
-  </si>
-  <si>
-    <t>“11만달러 가나 했더니”···꺾인 비트코인, 연이틀 약세에 국내 가상자산株도 ‘뚝’ [투자360]</t>
-  </si>
-  <si>
-    <t>가상화폐 비트코인. [로이터] 비트코인 약세가 지속되면서 20일 한화투자증권 등 가상자산 관련 종목이 일제히 내리고 있다. 이날 오전 ..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0002405434&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
-  </si>
-  <si>
-    <t>재건 수혜주' 전진건설로봇 5거래일간 63% 급등…사상 최고가[핫종목]</t>
-  </si>
-  <si>
-    <t>전진건설로봇(079900)이 5거래일 연속 급등하면서 연일 사상 최고가를 기록하고 있다. 20일 오전 10시 20분 전진건설로봇은 전일..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0007979020&amp;office_id=421&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
-  </si>
-  <si>
-    <t>"킹달러 수혜주"…자동차株 악셀 밟나</t>
-  </si>
-  <si>
-    <t>원·달러 환율이 글로벌 금융위기 이후 15년 만에 1450원을 돌파한 가운데 국내 대표 고환율 수혜 업종인 자동차주에 관심이 모이고 있..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0012973421&amp;office_id=003&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
-  </si>
-  <si>
-    <t>강세론자' 톰 리 "증시 비관론 지나쳐…저가매수 기회"</t>
-  </si>
-  <si>
-    <t>월가 대표 강세론자로 알려진 톰 리 펀드스트랫 공동창업자가 주식 투자자들을 위한 조언을 남겼다. 19일(현지시간) CNBC에 따르면 톰..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0001192474&amp;office_id=215&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
-  </si>
-  <si>
-    <t>‘대기업 입주 속속’ 모습 갖춰가는 마곡, 서울 핵심 업무권역으로 우뚝</t>
-  </si>
-  <si>
-    <t>서울 강서구 마곡지구가 서울 업무권역의 판도를 뒤흔들 ‘태풍의 눈’으로 부상하고 있다. 마곡지구를 중심으로 국내 유수의 굵직한 기업이 ..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0004430390&amp;office_id=011&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
-  </si>
-  <si>
-    <t>삼성증권 "롯데케미칼, 재무 리스크 사라졌지만…목표가는 하향"</t>
-  </si>
-  <si>
-    <t>롯데케미칼이 회사채 재무특약 조정으로 기한이익상실(EOD) 위기에서 벗어난 가운데 증권가에선 단기적으로 투자자심리를 끌어내리는 재무 리..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0000031746&amp;office_id=648&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
-  </si>
-  <si>
-    <t>이러다 진짜 ‘황제주’ 등극하겠네…전세계 주목 받으며 올해 247% 오른 삼양식품</t>
-  </si>
-  <si>
-    <t>삼양식품, 올해 들어 주가 247%↑ 키움증권 목표가 95만원으로 상향 “올해 크리스마스에는 기념으로 불닭볶음면 먹어야겠네요” “100..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005416972&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
-  </si>
-  <si>
-    <t>“오늘도 영 맥 못 추네”…삼성전자 1%·SK하이닉스 2%대 약세</t>
-  </si>
-  <si>
-    <t>미국 메모리 반도체기업 마이크론테크놀러지의 실적 전망치가 시장의 기대치를 밑돌면서 국내 반도체주를 향한 투자심리도 좀처럼 되살아나지 못..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005416971&amp;office_id=009&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
-  </si>
-  <si>
-    <t>‘6600억 美 보조금’ 약발 안 통하는 SK하닉…FOMC·마이크론 쇼크에 K-반도체株 ‘휘청’ [투자360]</t>
-  </si>
-  <si>
-    <t>미국 정부로부터 6600억원 보조금 수령을 확정했음에도 불구하고 SK하이닉스 주가가 20일 장 초반 급락세를 면치 못하고 있다. 미국 ..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0002405379&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
-  </si>
-  <si>
-    <t>코스피 2400 저지선마저 뚫리나…파월의 여진에 ‘흔들’ [투자360]</t>
-  </si>
-  <si>
-    <t>20일 오전 서울 중구 하나은행 본점 딜링룸 현황판에 코스피, 원/달러 환율이 표시돼 있다. 이날 코스피는 2,420대에서 약보합으로 ..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0002405351&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
-  </si>
-  <si>
-    <t>오징어게임2'에 찬사 쏟아지는데…이정재 '깜짝 근황'</t>
-  </si>
-  <si>
-    <t>배우 이정재가 최대주주로 있는 아티스트유나이티드와 소속사 아티스트컴퍼니가 합병을 앞둔 가운데 넷플릭스 오리지널 시리즈 '오징어게임' 시..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005072559&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
-  </si>
-  <si>
-    <t>"대선 도전하나?" 질문받더니…우원식 반응에 '테마주' 술렁</t>
-  </si>
-  <si>
-    <t>연일 급등하던 '우원식 테마주'의 흐름이 엇갈리고 있다. 우원식 국회의장이 차기 대선 도전 가능성과 관련해 "아직 생각해 본 적이 없다..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005072555&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
-  </si>
-  <si>
-    <t>8.6조 국채' 투매한 외국인…환율·금리 패닉장 열린다</t>
-  </si>
-  <si>
-    <t>이 기사는 12월 19일 16:46 마켓인사이트에 게재된 기사입니다. 외국인 투자자가 계엄 사태 이후 국채선물을 8조6000원어치가량 ..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005072547&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
-  </si>
-  <si>
-    <t>코스닥, 1% 넘게 밀리며 675선 붕괴…장중 낙폭 확대</t>
-  </si>
-  <si>
-    <t>보합권에서 출발한 코스닥 지수가 외국인 기관의 매도세에 1% 넘게 하락 중이다. 20일 엠피닥터에 따르면 오전 9시 26분 현재 코스닥..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005910344&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=2</t>
-  </si>
-  <si>
-    <t>코스피 장 초반 2,400대까지 밀려…외인·기관 '팔자'(종합)</t>
-  </si>
-  <si>
-    <t>보합권 출발해 낙폭 확대…"위험자산 선호 심리 위축" 시총 상위 주 대부분 약세…코스닥도 1.3% 급락 중 코스피가 20일 미 연방준비..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">연합뉴스 </t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0015117311&amp;office_id=001&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
-  </si>
-  <si>
-    <t>파월 쇼크' 여파 지속…코스피 1%대 하락, 환율 1450원 출발</t>
-  </si>
-  <si>
-    <t>미국 연방공개시장위원회(FOMC) 여파로 증시가 하락세를 이어간다. 외국인과 기관이 매물을 내놓으며 지수 하락을 주도하고 있다. 20일..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005131378&amp;office_id=008&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
-  </si>
-  <si>
-    <t>보조금 확정에도…SK하이닉스, FOMC·마이크론 쇼크에 약세</t>
-  </si>
-  <si>
-    <t>SK하이닉스 주가가 조 바이든 미국 행정부가 반도체법(Chips Act)에 따라 6600억원대의 직접 보조금을 지급하기 위한 계약을 최..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005072540&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
-  </si>
-  <si>
-    <t>"당분간 배당 어렵다" 증권가 전망에…현대해상, 52주 최저가 '추락'</t>
-  </si>
-  <si>
-    <t>현대해상의 주가가 급락하고 있다. 당분간 배당이 어려울 것이란 증권가 전망에 투자심리가 위축된 것으로 풀이된다. 20일 오전 9시13분..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005072531&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
-  </si>
-  <si>
-    <t>신한투자증권 “美, 금리발 조정장 온다…연말연초 둔화세 전망”</t>
-  </si>
-  <si>
-    <t>연말연초 미국 증시의 거침없는 오버슈팅을 기대했으나 단기적 측면에서 주가 행보가 둔탁해질 것이라는 전망이 나왔다. 김성환 신한투자증권 ..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">데일리안 </t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0002906292&amp;office_id=119&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
-  </si>
-  <si>
-    <t>"재무적 우려 소멸됐지만 4분기 부진" 롯데케미칼 목표가 하향-삼성</t>
-  </si>
-  <si>
-    <t>오는 4·4분기 영업이익이 컨센서스를 하회할 것으로 전망하며 삼성증권이 롯데케미칼 목표가를 85만원으로 내렸다. 투자의견은 매수를 유지..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005285228&amp;office_id=014&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
-  </si>
-  <si>
-    <t>하나證 “롯데케미칼, 트럼프 2기 들어서면 상대적 경쟁력 드러날 것”</t>
-  </si>
-  <si>
-    <t>하나증권은 트럼프 행정부 2기가 들어서면 롯데케미칼의 경쟁력이 상대적으로 부각될 것이라고 전망했다. 그러면서 목표 주가 10만원, 투자..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0001041590&amp;office_id=366&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
-  </si>
-  <si>
-    <t>LG에너지솔루션, 4분기 실적부진 불가피…고객사 재고조정 영향-삼성</t>
-  </si>
-  <si>
-    <t>삼성증권은 LG에너지솔루션이 올해 4분기 시장 기대치에 못 미친 실적을 낼 것으로 20일 전망했다. 주요 고객사 재고조정에 따른 수익성..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005131351&amp;office_id=008&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
-  </si>
-  <si>
-    <t>광림, 한전에 126억 규모 저압보수차·활선차 대량 납품</t>
-  </si>
-  <si>
-    <t>광림(014200)은 한국전력공사(이하 한전)에 절연고소작업차를 대량으로 공급한다고 20일 밝혔다. 이날 광림에 따르면 지난 18일 충..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005910259&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
-  </si>
-  <si>
-    <t>삼성證 "롯데케미칼, 단기 재무 우려 소멸에도…목표가 6%↓"</t>
-  </si>
-  <si>
-    <t>삼성증권은 20일 2조 원 규모 회사채 조기 상환 특약 조정에도 롯데케미칼(011170)의 목표가를 6% 하향했다. 업황 부진을 고려했..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0007978659&amp;office_id=421&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
-  </si>
-  <si>
-    <t>유안타證 "삼성E&amp;A, 내년 초 실적 발표가 주가 변곡점…목표가↓"</t>
-  </si>
-  <si>
-    <t>유안타증권은 20일 삼성E&amp;A에 대해 "저평가가 종료되기 위해서는 비화공 수주 감소, 내년 감익에 따른 자기자본이익률(ROE) 축소에 ..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0012973058&amp;office_id=003&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
-  </si>
-  <si>
-    <t>‘매파’ FOMC 충격 아직도 얼얼…코스피, ‘저평가’란 이유로 오를까? [투자360]</t>
-  </si>
-  <si>
-    <t>뉴욕증시는 보합세…필라델피아반도체지수 사흘째 하락 ‘저평가’ 국내 증시, 반등 시도 가능성 오늘 중국 금리 결정·미국 PCE 물가지수 ..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0002405277&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
-  </si>
-  <si>
-    <t>한투證 “외국인, 韓이 아닌 삼성전자·SK하이닉스 판 것”</t>
-  </si>
-  <si>
-    <t>외국인 투자자가 국내 주식시장에서 ‘팔자’를 이어가고 있다. 염동찬 한국투자증권 연구원은 “외국인은 한국 자산을 순매도하는 것이 아니라..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0001041582&amp;office_id=366&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
-  </si>
-  <si>
-    <t>美증시 혼조 마감, 국내 증시 "방어·배당주 대응 유효"[굿모닝 증시]</t>
-  </si>
-  <si>
-    <t>미국 증시가 혼조세로 마감한 가운데 국내 증시는 매크로(거시경제) 불확실성 우려에 방어주와 배당주로 대응해야 한다는 분석이 나온다. 1..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아시아경제 </t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005520824&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
-  </si>
-  <si>
-    <t>답답한 환율천장…“낙폭과대 개별 중소형주 유리”[오늘증시전망]</t>
-  </si>
-  <si>
-    <t>간밤 뉴욕 증시가 전일 있었던 12월 연방공개시장위원회(FOMC)의 결과가 매파적이었던 영향이 이어지며 혼조 마감한 가운데 한국 증시 ..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005910232&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
-  </si>
-  <si>
-    <t>‘NYSE+나스닥’ 美 증시, 글로벌 시총 절반 넘었다 [투자360]</t>
-  </si>
-  <si>
-    <t>11월 기준 NYSE·나스닥 시총 합산액만 63조弗…전체 약 50.3% 최근 1년 간 글로벌 시총 성장세比 NYSE 1.64배·나스닥 ..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0002405260&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
-  </si>
-  <si>
-    <t>[단독]檢 “메리츠證 전 임직원, 논현동 사업부지 담보가치 파악...CB 후순위 투자자 모집 안해”</t>
-  </si>
-  <si>
-    <t>검찰이 메리츠증권 IB사업 본부 전 임직원 6명과 다올투자증권 IB부서 전 직원 1명을 지난 10월 30일 기소하며 공소장에 “전환사채..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005520800&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
-  </si>
-  <si>
-    <t>FOMC 여진 지속되는데…코스피 반등 가능할까[마켓뷰]</t>
-  </si>
-  <si>
-    <t>뉴욕증시는 보합세…필라델피아반도체지수 사흘째 하락 '저평가' 국내 증시, 반등 시도 가능성 오늘 중국 금리 결정·미국 PCE 물가지수 ..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0015117132&amp;office_id=001&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
-  </si>
-  <si>
-    <t>“코스피 추가 하락 제한적…FOMC 경계감 선반영 과도”</t>
-  </si>
-  <si>
-    <t>미국 연방준비제도(Fed·연준)가 12월 연방공개시장위원회(FOMC)에서 매파적 통화정책을 발표하며 코스피가 약세를 보였지만, 과도한 ..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005910226&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
-  </si>
-  <si>
-    <t>‘매파 파월’ 영향권 지속…美경제 2분기 연속 3% 성장[뉴스새벽배송]</t>
-  </si>
-  <si>
-    <t>간밤 뉴욕 증시는 전일 있었던 12월 연방공개시장위원회(FOMC)의 결과가 매파적이었던 영향이 이어지며 혼조 마감했다. 뉴욕 유가는 수..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005910223&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=3</t>
-  </si>
-  <si>
-    <t>"우리 고양이, 겨울만 되면 왜 이러죠?"…수의사에 물었더니</t>
-  </si>
-  <si>
-    <t>겨울철 반려묘가 계절성 우울증(SAD) 증상을 보인다며 걱정하는 보호자들이 있다. 평소보다 식사량이 줄고 잠을 많이 자는 등 생활패턴이..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005072505&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=4</t>
-  </si>
-  <si>
-    <t>탄핵 정국에 불안정한 금융시장…IPO로 엑시트 포문 여는 PE ‘긴장’[주간 ‘딜’리버리]</t>
-  </si>
-  <si>
-    <t>LG CNS·케이뱅크 등 대어 대기 코스피지수 2400선 안에서 등락 반복 구주매출 소화될수록 장기적 밸류업 ‘긍정적’ [헤럴드경제=심..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0002405241&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=4</t>
-  </si>
-  <si>
-    <t>"환율 1500원도 사정권"…트럼프에 정치불안까지 '이중고'</t>
-  </si>
-  <si>
-    <t>원·달러 환율 심리적 방어선이던 1430원과 1450원선이 보름 만에 잇따라 뚫리면서 이제는 상단을 1500원선까지 열어놔야 한다는 전..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005072503&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=4</t>
-  </si>
-  <si>
-    <t>김동현 “집 팔아 코인 탔다 길거리 나앉을 뻔”…‘10.8만→9.5만弗’ 비트코인, 이틀 새 ‘뚝’ [투자360]</t>
-  </si>
-  <si>
-    <t>가상자산 대장주 비트코인이 ‘매파(긴축 선호)’적 발언을 쏟아낸 제롬 파월 미국 연방준비제도(Fed·연준) 의장과 기존 대비 절반 수준..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0002405238&amp;office_id=016&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=4</t>
-  </si>
-  <si>
-    <t>교보생명 풋옵션 분쟁 결론…"신창재 회장, 30일내 가격 산정하라" [시그널]</t>
-  </si>
-  <si>
-    <t>어피너티에쿼티파트너스 컨소시엄과 신창재 교보생명 회장 간 2조 원대 풋옵션(특정 가격에 주식을 팔 권리) 분쟁과 관련해 신 회장이 30..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0004430304&amp;office_id=011&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=4</t>
-  </si>
-  <si>
-    <t>2025년 구리 시장 전망 [원자재 &amp; ETF 뉴스]</t>
-  </si>
-  <si>
-    <t>원자재 시황도 살펴보겠습니다. 현재 시간 5시 48분 지나가고 있고요, 5시 수치를 기준으로 하고 있습니다. 국제유가부터 확인해 보겠습..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0001192438&amp;office_id=215&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=4</t>
-  </si>
-  <si>
-    <t>벨기에 정부기관 입주 빌딩에 투자했다가…900억 ‘전액 손실’</t>
-  </si>
-  <si>
-    <t>한국투자리얼에셋운용 펀드가 벨기에 상업용부동산에 투자했다가 전액 손실 위기에 놓였다. 정부기관이 입주해 있는 빌딩이지만 부동산 시장 침..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0004430303&amp;office_id=011&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=4</t>
-  </si>
-  <si>
-    <t>미 Fed발 충격파 여전…주요 지수 반등 실패 [뉴욕증시 브리핑]</t>
-  </si>
-  <si>
-    <t>19일(현지시간) 뉴욕증시가 보합권에서 혼조세를 나타냈다. 전날 미 중앙은행(Fed)의 '매파적 금리인하' 충격에서 여전히 벗어나지 못..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005072496&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=4</t>
-  </si>
-  <si>
-    <t>비트코인, 연준발 악재에 거듭 약세…9만6000달러선 터치</t>
-  </si>
-  <si>
-    <t>미국 연방준비제도(Fed·연준)가 유발한 악재 탓에 비트코인(BTC) 가격이 한때 9만6000달러(약 1억3901만원) 수준까지 내렸다..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0012972985&amp;office_id=003&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=4</t>
-  </si>
-  <si>
-    <t>코넥스, 올해 IPO 단 6곳…시장 외면에 존재감 ‘제로’</t>
-  </si>
-  <si>
-    <t>국내 주식 시장에서 코넥스(KONEX)가 점점 존재감을 잃어가자 기업은 물론 투자자와 증권사들까지 외면하고 있다. 기업공개(IPO) 시..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0002906250&amp;office_id=119&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=4</t>
-  </si>
-  <si>
-    <t>미 연준 금리 인하 속도 조절…추가 악재 직면한 연말 증시</t>
-  </si>
-  <si>
-    <t>미국 연방준비제도(연준·Fed)의 금리 인하 속도 조절 가능성이 대두되면서 가뜩이나 지지부진한 국내 증시에 추가 악재가 발생했다. 이달..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0002906249&amp;office_id=119&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=4</t>
-  </si>
-  <si>
-    <t>키움 이어 삼성증권...호실적에 연말 배당 기대감 ‘업’</t>
-  </si>
-  <si>
-    <t>키움증권이 올해 연말 배당금액을 대폭 늘리면서 ‘배당 우등생’인 삼성증권의 배당 집행 규모에도 관심이 모인다. 전통적으로 배당 성향이 ..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0002906248&amp;office_id=119&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=4</t>
-  </si>
-  <si>
-    <t>"느려진 美 금리인하 시계"…코스피 대응 전략은</t>
-  </si>
-  <si>
-    <t>미국 연방준비제도(연준)의 기준금리 인하 속도가 시장의 예상보다 늦춰질 것이란 관측에 국내 증시가 출렁이고 있다. 증시 전문가들은 당분..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0012972979&amp;office_id=003&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=4</t>
-  </si>
-  <si>
-    <t>한계상황 몰린 韓상장사…바이오·부품사 등 500개 육박</t>
-  </si>
-  <si>
-    <t>국내 상장사 중 영업이익으로 이자조차 내기 힘든 한계기업이 500개에 육박했다. 정상기업의 발목까지 붙잡는 한계기업을 증시에서 퇴출시키..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005520778&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=4</t>
-  </si>
-  <si>
-    <t>매파적 인하' 경계감에 S&amp;P·나스닥 하락…美 국채 금리 ↑[뉴욕증시]</t>
-  </si>
-  <si>
-    <t>미국 뉴욕증시의 3대 지수가 19일(현지시간) 보합권에서 혼조세로 마감했다. 전날 미 연방준비제도(Fed)의 '매파(통화긴축 선호)적 ..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005520772&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=4</t>
-  </si>
-  <si>
-    <t>파월 충격파 여전한 美증시…산타랠리 물건너가나[월스트리트in]</t>
-  </si>
-  <si>
-    <t>19일(현지시간) 미국 뉴욕증시에서 다우지수만 소폭이나마 반등에 성공했다. 전날 연방준비제도의 ‘매파적 인하’ 결정이 나오면서 급락했지..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005910196&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=4</t>
-  </si>
-  <si>
-    <t>"삼성이 이제 와서 공시를 할까요?"‥힘빠진 밸류업, 반전있을까</t>
-  </si>
-  <si>
-    <t>삼성전자가 이제 와서 밸류업 공시를 하려고 할까요?" 윤석열 대통령에 대한 탄핵심판절차가 본격화한 가운데 금융투자업계에선 현 정부의 자..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005520770&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=4</t>
-  </si>
-  <si>
-    <t>뉴욕증시, 매파 연준 충격에 반등 실패…보합권 마감</t>
-  </si>
-  <si>
-    <t>진정호 연합인포맥스 특파원 = 뉴욕증시의 3대 주가지수는 보합권에서 혼조로 마감했다. 전날 매파적 연방공개시장위원회(FOMC)의 결과로..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0015117083&amp;office_id=001&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=4</t>
-  </si>
-  <si>
-    <t>새내기株 잔혹사에서 벗어난 산일전기</t>
-  </si>
-  <si>
-    <t>새내기주들의 부진이 지속하는 가운데 산일전기가 높은 주가 상승률을 기록하고 있어 눈길을 끈다. 인공지능(AI)에 필요한 데이터센터 건립..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005520768&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=4</t>
-  </si>
-  <si>
-    <t>개미 무덤' 된 코스닥 어쩌나…전문가가 본 내년 전망은? [2025 재테크]</t>
-  </si>
-  <si>
-    <t>내년도 코스닥 시장을 둘러싼 투자 환경이 녹록지 않습니다. 하지만 미국이 한국산 제품에 낮은 관세를 물린다면 단기 반등을 기대할 순 있..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005072486&amp;office_id=015&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=4</t>
-  </si>
-  <si>
-    <t>카카오페이, 계엄전 주가 회귀…'기관 물렸다'</t>
-  </si>
-  <si>
-    <t>12·3 비상계엄 사태 직후 급등했던 카카오페이 주가가 다시 제자리로 돌아왔다. 윤석열 대통령에 대한 탄핵소추안 가결 이후 분위기가 반..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005520766&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=5</t>
-  </si>
-  <si>
-    <t>공시 피한 임원들의 '꼼수매도'…신뢰잃은 루닛, 기관 대거 이탈</t>
-  </si>
-  <si>
-    <t>의료용 인공지능(AI) 관련 코스닥 상장사 루닛(328130)이 임원들의 사전공시를 피하기 위한 '꼼수 매도' 소식에 연일 하락세다. ..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0007978542&amp;office_id=421&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=5</t>
-  </si>
-  <si>
-    <t>"테슬라, 내년 텍사스서 로보택시 출시…당국과 협의"</t>
-  </si>
-  <si>
-    <t>미국 전기차업체 테슬라가 내년에 텍사스주 오스틴에서 완전자율주행 로보(무인)택시를 출시하기 위해 시 당국과 초기 협의를 진행 중이라고 ..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005520765&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=5</t>
-  </si>
-  <si>
-    <t>유엔젤, 자사주로 ‘경영권 방어’ 노리나</t>
-  </si>
-  <si>
-    <t>코스피 상장사 유엔젤이 코스닥 상장사 이루온과 자사주를 맞교환했다. 최근 유엔젤의 경영권 분쟁설이 나오고 있는 가운데 시장에서는 사측이..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005520764&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=5</t>
-  </si>
-  <si>
-    <t>[속보]파월 충격서 벗어나지 못한 美증시…다우만 소폭 반등</t>
-  </si>
-  <si>
-    <t>19일(현지시간) 뉴욕증시 중에서 다우지수만 소폭이나마 반등에 성공했다. 전날 연방준비제도의 ‘매파적 인하’ 결정이 나오면서 급락했지만..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005910191&amp;office_id=018&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=5</t>
-  </si>
-  <si>
-    <t>10조씩 ‘컷’하는 애널리스트들... 그만큼 내년 삼성전자 어렵다</t>
-  </si>
-  <si>
-    <t>내년 삼성전자 영업익 전망치 조단위 낮춰 중국 경쟁사 저가 물량 공세 못 당해내 PC·스마트폰에 들어가는 반도체 수요도 주춤 여의도 증..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0001041567&amp;office_id=366&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=5</t>
-  </si>
-  <si>
-    <t>숨어 있는 탄핵 수혜주?… 의류株, 12월 코스피 상승률 1위</t>
-  </si>
-  <si>
-    <t>국내 증시가 추운 12월을 나고 있지만, 섬유·의류 업종은 뜨겁게 달아오르고 있다. 실적의 핵심인 겨울옷 판매 기대감이 투자심리를 자극..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0001041565&amp;office_id=366&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=5</t>
-  </si>
-  <si>
-    <t>다시 날아오르는 '불닭' 삼양식품, 눈높이 90만원대로 껑충</t>
-  </si>
-  <si>
-    <t>삼양식품이 다시 날아오르고 있다. 이달에만 44% 넘게 오르며 주가는 75만원까지 올라섰다. 시장의 눈높이도 덩달아 상향 조정되는 추세..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0005520758&amp;office_id=277&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=5</t>
-  </si>
-  <si>
-    <t>"4300억원 던졌다" 외국인, '셀코리아' 언제까지… 강달러 지속 우려</t>
-  </si>
-  <si>
-    <t>코스피에서 외국인 투자자의 '셀코리아'가 이어지고 있다. 외국인의 매도세에 코스피는 2400선이 붕괴하는 등 휘청이는 모양새다. 20일..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">머니S </t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0001046611&amp;office_id=417&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=5</t>
-  </si>
-  <si>
-    <t>뉴욕증시, FOMC 결과 소화·다우 11거래일만에 반등…상승 출발</t>
-  </si>
-  <si>
-    <t>김 현 연합인포맥스 통신원 = 뉴욕증시는 미국 연방공개시장위원회(FOMC) 올해 마지막 회의 결과가 촉발한 폭락장에서 벗어나 동반 상승..</t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0015117009&amp;office_id=001&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=5</t>
-  </si>
-  <si>
-    <t>상장 첫날 '따블' 지금은 '반토막'…1년새 무슨일이[IPO 불패 옛말①]</t>
-  </si>
-  <si>
-    <t>스튜디오삼익·케이엔알시스템, 공모가 대비 절반 넘게 줄어 상장 주관사 DB금융투자·금융당국 책임론도 올해 국내 기업공개(IPO) 시장엔..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">더팩트 </t>
-  </si>
-  <si>
-    <t>https://finance.naver.com/news/news_read.naver?article_id=0000349710&amp;office_id=629&amp;mode=mainnews&amp;type=&amp;date=2024-12-20&amp;page=5</t>
   </si>
 </sst>
 </file>
@@ -1682,6 +806,33 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1698,33 +849,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2699,606 +1823,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7242E40D-F1DA-491E-9789-D5E58B1A51FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="612775" y="889000"/>
-          <a:ext cx="1968500" cy="1041400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E473251-65E0-4333-86FB-C08A2FC03AFF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3022600" y="889000"/>
-          <a:ext cx="1968500" cy="1041400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF4326E0-DC3B-4183-9F34-B1CC3EFF4F2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5432425" y="889000"/>
-          <a:ext cx="1968500" cy="1041400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EBA8A82-2ABB-4026-8F5B-F4498DC40C40}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="612775" y="2184400"/>
-          <a:ext cx="1968500" cy="1041400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="그림 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F83A9E-D524-40E5-A211-73FFE648FFC6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3022600" y="2184400"/>
-          <a:ext cx="1968500" cy="1041400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{775E4038-309D-405F-A54E-664122CFB5D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5432425" y="2184400"/>
-          <a:ext cx="1968500" cy="1041400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B99AF0F-CF76-4410-BF84-E579E10361A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="612775" y="3470275"/>
-          <a:ext cx="1968500" cy="1041400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="그림 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4FBD6C-08D7-4C24-8814-B292DEA563C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3022600" y="3470275"/>
-          <a:ext cx="1968500" cy="1041400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="그림 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913DBAAB-840A-400C-B5DD-312287E0088C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5432425" y="3470275"/>
-          <a:ext cx="1968500" cy="1041400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="그림 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC0B26A8-5A01-474E-9DD1-4DE5AC572756}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="612775" y="4765675"/>
-          <a:ext cx="1968500" cy="1041400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="그림 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7BEFE3D-08A1-42FF-AE7E-960D1E44161B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3022600" y="4765675"/>
-          <a:ext cx="1968500" cy="1041400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="그림 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{984CAC81-96EF-4108-B54F-67FEE0AEC973}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5432425" y="4765675"/>
-          <a:ext cx="1968500" cy="1041400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3677,7 +2201,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AG51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -3709,43 +2233,43 @@
     </row>
     <row r="2" spans="2:32" ht="35.25" customHeight="1" thickBot="1"/>
     <row r="3" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="E3" s="61" t="s">
+      <c r="C3" s="55"/>
+      <c r="E3" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="H3" s="61" t="s">
+      <c r="F3" s="55"/>
+      <c r="H3" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="61"/>
-      <c r="K3" s="61" t="s">
+      <c r="I3" s="55"/>
+      <c r="K3" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
-      <c r="AB3" s="63" t="s">
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AB3" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
     </row>
     <row r="4" spans="2:32" ht="18" customHeight="1" thickBot="1">
       <c r="D4" s="11"/>
@@ -3800,18 +2324,18 @@
       <c r="AB4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="62" t="s">
+      <c r="AC4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="62"/>
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="61"/>
     </row>
     <row r="5" spans="2:32">
       <c r="K5" s="23">
         <v>1</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="57" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="23">
@@ -3884,7 +2408,7 @@
       <c r="K6" s="12">
         <v>2</v>
       </c>
-      <c r="L6" s="65"/>
+      <c r="L6" s="57"/>
       <c r="M6" s="12">
         <v>2</v>
       </c>
@@ -3955,7 +2479,7 @@
       <c r="K7" s="12">
         <v>3</v>
       </c>
-      <c r="L7" s="65"/>
+      <c r="L7" s="57"/>
       <c r="M7" s="12">
         <v>3</v>
       </c>
@@ -4026,7 +2550,7 @@
       <c r="K8" s="12">
         <v>4</v>
       </c>
-      <c r="L8" s="65"/>
+      <c r="L8" s="57"/>
       <c r="M8" s="12">
         <v>4</v>
       </c>
@@ -4094,22 +2618,22 @@
       </c>
     </row>
     <row r="9" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="E9" s="61" t="s">
+      <c r="C9" s="55"/>
+      <c r="E9" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="H9" s="61" t="s">
+      <c r="F9" s="55"/>
+      <c r="H9" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="61"/>
+      <c r="I9" s="55"/>
       <c r="K9" s="12">
         <v>5</v>
       </c>
-      <c r="L9" s="65"/>
+      <c r="L9" s="57"/>
       <c r="M9" s="12">
         <v>5</v>
       </c>
@@ -4183,7 +2707,7 @@
       <c r="K10" s="12">
         <v>6</v>
       </c>
-      <c r="L10" s="65"/>
+      <c r="L10" s="57"/>
       <c r="M10" s="12">
         <v>6</v>
       </c>
@@ -4253,7 +2777,7 @@
       <c r="K11" s="12">
         <v>7</v>
       </c>
-      <c r="L11" s="65"/>
+      <c r="L11" s="57"/>
       <c r="M11" s="12">
         <v>7</v>
       </c>
@@ -4323,7 +2847,7 @@
       <c r="K12" s="12">
         <v>8</v>
       </c>
-      <c r="L12" s="65"/>
+      <c r="L12" s="57"/>
       <c r="M12" s="12">
         <v>8</v>
       </c>
@@ -4393,7 +2917,7 @@
       <c r="K13" s="12">
         <v>9</v>
       </c>
-      <c r="L13" s="65"/>
+      <c r="L13" s="57"/>
       <c r="M13" s="12">
         <v>9</v>
       </c>
@@ -4463,7 +2987,7 @@
       <c r="K14" s="12">
         <v>10</v>
       </c>
-      <c r="L14" s="66"/>
+      <c r="L14" s="58"/>
       <c r="M14" s="12">
         <v>10</v>
       </c>
@@ -4530,22 +3054,22 @@
       </c>
     </row>
     <row r="15" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="E15" s="61" t="s">
+      <c r="C15" s="55"/>
+      <c r="E15" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="61"/>
-      <c r="H15" s="61" t="s">
+      <c r="F15" s="55"/>
+      <c r="H15" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="61"/>
+      <c r="I15" s="55"/>
       <c r="K15" s="12">
         <v>11</v>
       </c>
-      <c r="L15" s="64" t="s">
+      <c r="L15" s="56" t="s">
         <v>4</v>
       </c>
       <c r="M15" s="12">
@@ -4603,16 +3127,16 @@
         <f>KOSDAQ!C7</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="67"/>
+      <c r="AB15" s="60"/>
+      <c r="AC15" s="60"/>
+      <c r="AD15" s="60"/>
       <c r="AF15" s="33"/>
     </row>
     <row r="16" spans="2:32" ht="17.25" thickBot="1">
       <c r="K16" s="12">
         <v>12</v>
       </c>
-      <c r="L16" s="65"/>
+      <c r="L16" s="57"/>
       <c r="M16" s="12">
         <v>2</v>
       </c>
@@ -4668,21 +3192,21 @@
         <f>KOSDAQ!C8</f>
         <v>0</v>
       </c>
-      <c r="AB16" s="63" t="s">
+      <c r="AB16" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="AC16" s="63"/>
+      <c r="AC16" s="59"/>
       <c r="AD16" s="16"/>
-      <c r="AE16" s="63" t="s">
+      <c r="AE16" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="AF16" s="63"/>
+      <c r="AF16" s="59"/>
     </row>
     <row r="17" spans="1:33" ht="17.25" thickBot="1">
       <c r="K17" s="12">
         <v>13</v>
       </c>
-      <c r="L17" s="65"/>
+      <c r="L17" s="57"/>
       <c r="M17" s="12">
         <v>3</v>
       </c>
@@ -4756,7 +3280,7 @@
       <c r="K18" s="12">
         <v>14</v>
       </c>
-      <c r="L18" s="65"/>
+      <c r="L18" s="57"/>
       <c r="M18" s="12">
         <v>4</v>
       </c>
@@ -4828,7 +3352,7 @@
       <c r="K19" s="12">
         <v>15</v>
       </c>
-      <c r="L19" s="65"/>
+      <c r="L19" s="57"/>
       <c r="M19" s="12">
         <v>5</v>
       </c>
@@ -4896,7 +3420,7 @@
       <c r="K20" s="12">
         <v>16</v>
       </c>
-      <c r="L20" s="65"/>
+      <c r="L20" s="57"/>
       <c r="M20" s="12">
         <v>6</v>
       </c>
@@ -4961,22 +3485,22 @@
       </c>
     </row>
     <row r="21" spans="1:33" ht="17.25" thickBot="1">
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="E21" s="61" t="s">
+      <c r="C21" s="55"/>
+      <c r="E21" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="61"/>
-      <c r="H21" s="61" t="s">
+      <c r="F21" s="55"/>
+      <c r="H21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="61"/>
+      <c r="I21" s="55"/>
       <c r="K21" s="12">
         <v>17</v>
       </c>
-      <c r="L21" s="65"/>
+      <c r="L21" s="57"/>
       <c r="M21" s="12">
         <v>7</v>
       </c>
@@ -5037,7 +3561,7 @@
       <c r="K22" s="12">
         <v>18</v>
       </c>
-      <c r="L22" s="65"/>
+      <c r="L22" s="57"/>
       <c r="M22" s="12">
         <v>8</v>
       </c>
@@ -5093,16 +3617,16 @@
         <f>KOSDAQ!C14</f>
         <v>0</v>
       </c>
-      <c r="AE22" s="63" t="s">
+      <c r="AE22" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="AF22" s="63"/>
+      <c r="AF22" s="59"/>
     </row>
     <row r="23" spans="1:33" ht="17.25" thickBot="1">
       <c r="K23" s="12">
         <v>19</v>
       </c>
-      <c r="L23" s="65"/>
+      <c r="L23" s="57"/>
       <c r="M23" s="12">
         <v>9</v>
       </c>
@@ -5169,7 +3693,7 @@
       <c r="K24" s="12">
         <v>20</v>
       </c>
-      <c r="L24" s="66"/>
+      <c r="L24" s="58"/>
       <c r="M24" s="12">
         <v>10</v>
       </c>
@@ -5262,44 +3786,44 @@
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
-      <c r="K27" s="61" t="s">
+      <c r="K27" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="61"/>
-      <c r="V27" s="61"/>
-      <c r="W27" s="61"/>
-      <c r="X27" s="61"/>
-      <c r="Y27" s="61"/>
-      <c r="Z27" s="61"/>
-      <c r="AB27" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="63"/>
-      <c r="AD27" s="63"/>
-      <c r="AE27" s="63"/>
-      <c r="AF27" s="63"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="55"/>
+      <c r="AB27" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="59"/>
+      <c r="AE27" s="59"/>
+      <c r="AF27" s="59"/>
     </row>
     <row r="28" spans="1:33" ht="17.25" thickBot="1">
-      <c r="K28" s="61" t="s">
+      <c r="K28" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61" t="s">
+      <c r="L28" s="55"/>
+      <c r="M28" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
       <c r="T28" s="22"/>
@@ -5334,19 +3858,19 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="59" t="str">
+      <c r="K29" s="54">
         <f>주요뉴스!E4</f>
-        <v xml:space="preserve">한국경제 </v>
-      </c>
-      <c r="L29" s="59"/>
-      <c r="M29" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L29" s="54"/>
+      <c r="M29" s="53">
         <f>주요뉴스!C4</f>
-        <v>FOMC 여파' 코스피, 이틀째 급락…외인 1조 매물폭탄</v>
-      </c>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
       <c r="R29" s="25"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
@@ -5357,7 +3881,7 @@
       <c r="Y29" s="25"/>
       <c r="Z29" s="50" t="str">
         <f>IF(주요뉴스!G4="","",HYPERLINK(주요뉴스!G4, "▶"))</f>
-        <v>▶</v>
+        <v/>
       </c>
       <c r="AA29" s="26"/>
       <c r="AB29" s="25">
@@ -5373,19 +3897,19 @@
       <c r="AF29" s="26"/>
     </row>
     <row r="30" spans="1:33">
-      <c r="K30" s="59" t="str">
+      <c r="K30" s="54">
         <f>주요뉴스!E5</f>
-        <v xml:space="preserve">이데일리 </v>
-      </c>
-      <c r="L30" s="59"/>
-      <c r="M30" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L30" s="54"/>
+      <c r="M30" s="53">
         <f>주요뉴스!C5</f>
-        <v>다시 시작된 외인 엑소더스…2400선 진땀 사수[코스피 마감]</v>
-      </c>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
       <c r="R30" s="25"/>
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
@@ -5396,7 +3920,7 @@
       <c r="Y30" s="25"/>
       <c r="Z30" s="50" t="str">
         <f>IF(주요뉴스!G5="","",HYPERLINK(주요뉴스!G5, "▶"))</f>
-        <v>▶</v>
+        <v/>
       </c>
       <c r="AA30" s="26"/>
       <c r="AB30" s="25">
@@ -5413,19 +3937,19 @@
       <c r="AG30" s="26"/>
     </row>
     <row r="31" spans="1:33">
-      <c r="K31" s="59" t="str">
+      <c r="K31" s="54">
         <f>주요뉴스!E6</f>
-        <v xml:space="preserve">한국경제TV </v>
-      </c>
-      <c r="L31" s="59"/>
-      <c r="M31" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L31" s="54"/>
+      <c r="M31" s="53">
         <f>주요뉴스!C6</f>
-        <v>[속보] "외국인, 8천억 던졌다"…韓 증시 '노답'</v>
-      </c>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="60"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
       <c r="T31" s="25"/>
@@ -5436,15 +3960,15 @@
       <c r="Y31" s="25"/>
       <c r="Z31" s="50" t="str">
         <f>IF(주요뉴스!G6="","",HYPERLINK(주요뉴스!G6, "▶"))</f>
-        <v>▶</v>
+        <v/>
       </c>
       <c r="AA31" s="26"/>
-      <c r="AB31" s="59">
+      <c r="AB31" s="54">
         <f>종목별이슈!A5</f>
         <v>0</v>
       </c>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="59"/>
+      <c r="AC31" s="54"/>
+      <c r="AD31" s="54"/>
       <c r="AE31" s="26">
         <f>종목별이슈!D5</f>
         <v>0</v>
@@ -5453,19 +3977,19 @@
       <c r="AG31" s="26"/>
     </row>
     <row r="32" spans="1:33">
-      <c r="K32" s="59" t="str">
+      <c r="K32" s="54">
         <f>주요뉴스!E7</f>
-        <v xml:space="preserve">매일경제 </v>
-      </c>
-      <c r="L32" s="59"/>
-      <c r="M32" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L32" s="54"/>
+      <c r="M32" s="53">
         <f>주요뉴스!C7</f>
-        <v>“재무우려 덜었지만 4분기 부진”…롯데케미칼 목표가 하향</v>
-      </c>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="60"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
       <c r="T32" s="25"/>
@@ -5476,15 +4000,15 @@
       <c r="Y32" s="25"/>
       <c r="Z32" s="50" t="str">
         <f>IF(주요뉴스!G7="","",HYPERLINK(주요뉴스!G7, "▶"))</f>
-        <v>▶</v>
+        <v/>
       </c>
       <c r="AA32" s="26"/>
-      <c r="AB32" s="59">
+      <c r="AB32" s="54">
         <f>종목별이슈!A6</f>
         <v>0</v>
       </c>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="59"/>
+      <c r="AC32" s="54"/>
+      <c r="AD32" s="54"/>
       <c r="AE32" s="26">
         <f>종목별이슈!D6</f>
         <v>0</v>
@@ -5493,19 +4017,19 @@
       <c r="AG32" s="26"/>
     </row>
     <row r="33" spans="1:33">
-      <c r="K33" s="59" t="str">
+      <c r="K33" s="54">
         <f>주요뉴스!E8</f>
-        <v xml:space="preserve">이데일리 </v>
-      </c>
-      <c r="L33" s="59"/>
-      <c r="M33" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L33" s="54"/>
+      <c r="M33" s="53">
         <f>주요뉴스!C8</f>
-        <v>1450원대 고환율 지속 우려에…정부 외환수급대책 총동원 ‘주목’[외환분석]</v>
-      </c>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="60"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
       <c r="R33" s="25"/>
       <c r="S33" s="25"/>
       <c r="T33" s="25"/>
@@ -5516,15 +4040,15 @@
       <c r="Y33" s="25"/>
       <c r="Z33" s="50" t="str">
         <f>IF(주요뉴스!G8="","",HYPERLINK(주요뉴스!G8, "▶"))</f>
-        <v>▶</v>
+        <v/>
       </c>
       <c r="AA33" s="26"/>
-      <c r="AB33" s="59">
+      <c r="AB33" s="54">
         <f>종목별이슈!A7</f>
         <v>0</v>
       </c>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="59"/>
+      <c r="AC33" s="54"/>
+      <c r="AD33" s="54"/>
       <c r="AE33" s="26">
         <f>종목별이슈!D7</f>
         <v>0</v>
@@ -5533,19 +4057,19 @@
       <c r="AG33" s="26"/>
     </row>
     <row r="34" spans="1:33">
-      <c r="K34" s="59" t="str">
+      <c r="K34" s="54">
         <f>주요뉴스!E9</f>
-        <v xml:space="preserve">뉴시스 </v>
-      </c>
-      <c r="L34" s="59"/>
-      <c r="M34" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L34" s="54"/>
+      <c r="M34" s="53">
         <f>주요뉴스!C9</f>
-        <v>"산타 랠리는 커녕"…2400선 무너진 코스피 어디로</v>
-      </c>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="60"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
       <c r="T34" s="25"/>
@@ -5556,15 +4080,15 @@
       <c r="Y34" s="25"/>
       <c r="Z34" s="50" t="str">
         <f>IF(주요뉴스!G9="","",HYPERLINK(주요뉴스!G9, "▶"))</f>
-        <v>▶</v>
+        <v/>
       </c>
       <c r="AA34" s="26"/>
-      <c r="AB34" s="59">
+      <c r="AB34" s="54">
         <f>종목별이슈!A8</f>
         <v>0</v>
       </c>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="59"/>
+      <c r="AC34" s="54"/>
+      <c r="AD34" s="54"/>
       <c r="AE34" s="26">
         <f>종목별이슈!D8</f>
         <v>0</v>
@@ -5573,19 +4097,19 @@
       <c r="AG34" s="26"/>
     </row>
     <row r="35" spans="1:33">
-      <c r="K35" s="59" t="str">
+      <c r="K35" s="54">
         <f>주요뉴스!E10</f>
-        <v xml:space="preserve">한국경제 </v>
-      </c>
-      <c r="L35" s="59"/>
-      <c r="M35" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L35" s="54"/>
+      <c r="M35" s="53">
         <f>주요뉴스!C10</f>
-        <v>트럼프노믹스'는 어떤 세상을 만들까[마켓칼럼]</v>
-      </c>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
       <c r="T35" s="25"/>
@@ -5596,15 +4120,15 @@
       <c r="Y35" s="25"/>
       <c r="Z35" s="50" t="str">
         <f>IF(주요뉴스!G10="","",HYPERLINK(주요뉴스!G10, "▶"))</f>
-        <v>▶</v>
+        <v/>
       </c>
       <c r="AA35" s="26"/>
-      <c r="AB35" s="59">
+      <c r="AB35" s="54">
         <f>종목별이슈!A9</f>
         <v>0</v>
       </c>
-      <c r="AC35" s="59"/>
-      <c r="AD35" s="59"/>
+      <c r="AC35" s="54"/>
+      <c r="AD35" s="54"/>
       <c r="AE35" s="26">
         <f>종목별이슈!D9</f>
         <v>0</v>
@@ -5613,19 +4137,19 @@
       <c r="AG35" s="26"/>
     </row>
     <row r="36" spans="1:33">
-      <c r="K36" s="59" t="str">
+      <c r="K36" s="54">
         <f>주요뉴스!E11</f>
-        <v xml:space="preserve">뉴스1 </v>
-      </c>
-      <c r="L36" s="59"/>
-      <c r="M36" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L36" s="54"/>
+      <c r="M36" s="53">
         <f>주요뉴스!C11</f>
-        <v>SK하이닉스, 4% 약세에 다시 '16만닉스'…삼성전자도 2% 급락[핫종목]</v>
-      </c>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="60"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
       <c r="R36" s="25"/>
       <c r="S36" s="25"/>
       <c r="T36" s="25"/>
@@ -5636,15 +4160,15 @@
       <c r="Y36" s="25"/>
       <c r="Z36" s="50" t="str">
         <f>IF(주요뉴스!G11="","",HYPERLINK(주요뉴스!G11, "▶"))</f>
-        <v>▶</v>
+        <v/>
       </c>
       <c r="AA36" s="26"/>
-      <c r="AB36" s="59">
+      <c r="AB36" s="54">
         <f>종목별이슈!A10</f>
         <v>0</v>
       </c>
-      <c r="AC36" s="59"/>
-      <c r="AD36" s="59"/>
+      <c r="AC36" s="54"/>
+      <c r="AD36" s="54"/>
       <c r="AE36" s="26">
         <f>종목별이슈!D10</f>
         <v>0</v>
@@ -5653,19 +4177,19 @@
       <c r="AG36" s="26"/>
     </row>
     <row r="37" spans="1:33">
-      <c r="K37" s="59" t="str">
+      <c r="K37" s="54">
         <f>주요뉴스!E12</f>
-        <v xml:space="preserve">머니투데이 </v>
-      </c>
-      <c r="L37" s="59"/>
-      <c r="M37" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L37" s="54"/>
+      <c r="M37" s="53">
         <f>주요뉴스!C12</f>
-        <v>"외인, 무섭게 던지네" 코스피 장중 2400선 붕괴…코스닥 2%↓</v>
-      </c>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="60"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
       <c r="R37" s="25"/>
       <c r="S37" s="25"/>
       <c r="T37" s="25"/>
@@ -5676,15 +4200,15 @@
       <c r="Y37" s="25"/>
       <c r="Z37" s="50" t="str">
         <f>IF(주요뉴스!G12="","",HYPERLINK(주요뉴스!G12, "▶"))</f>
-        <v>▶</v>
+        <v/>
       </c>
       <c r="AA37" s="26"/>
-      <c r="AB37" s="59">
+      <c r="AB37" s="54">
         <f>종목별이슈!A11</f>
         <v>0</v>
       </c>
-      <c r="AC37" s="59"/>
-      <c r="AD37" s="59"/>
+      <c r="AC37" s="54"/>
+      <c r="AD37" s="54"/>
       <c r="AE37" s="26">
         <f>종목별이슈!D11</f>
         <v>0</v>
@@ -5694,19 +4218,19 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="20"/>
-      <c r="K38" s="59" t="str">
+      <c r="K38" s="54">
         <f>주요뉴스!E13</f>
-        <v xml:space="preserve">헤럴드경제 </v>
-      </c>
-      <c r="L38" s="59"/>
-      <c r="M38" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L38" s="54"/>
+      <c r="M38" s="53">
         <f>주요뉴스!C13</f>
-        <v>‘外人·기관 매도 폭격’ 맞은 코스피, 결국 2400 붕괴 [투자360]</v>
-      </c>
-      <c r="N38" s="60"/>
-      <c r="O38" s="60"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="60"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
       <c r="R38" s="25"/>
       <c r="S38" s="25"/>
       <c r="T38" s="25"/>
@@ -5717,15 +4241,15 @@
       <c r="Y38" s="25"/>
       <c r="Z38" s="50" t="str">
         <f>IF(주요뉴스!G13="","",HYPERLINK(주요뉴스!G13, "▶"))</f>
-        <v>▶</v>
+        <v/>
       </c>
       <c r="AA38" s="26"/>
-      <c r="AB38" s="59">
+      <c r="AB38" s="54">
         <f>종목별이슈!A12</f>
         <v>0</v>
       </c>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="59"/>
+      <c r="AC38" s="54"/>
+      <c r="AD38" s="54"/>
       <c r="AE38" s="26">
         <f>종목별이슈!D12</f>
         <v>0</v>
@@ -5735,19 +4259,19 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="21"/>
-      <c r="K39" s="59" t="str">
+      <c r="K39" s="54">
         <f>주요뉴스!E14</f>
-        <v xml:space="preserve">비즈워치 </v>
-      </c>
-      <c r="L39" s="59"/>
-      <c r="M39" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L39" s="54"/>
+      <c r="M39" s="53">
         <f>주요뉴스!C14</f>
-        <v>고려아연, 임시주총 표대결 MBK 우세 속 남은 변수는</v>
-      </c>
-      <c r="N39" s="60"/>
-      <c r="O39" s="60"/>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="60"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
       <c r="R39" s="25"/>
       <c r="S39" s="25"/>
       <c r="T39" s="25"/>
@@ -5758,15 +4282,15 @@
       <c r="Y39" s="25"/>
       <c r="Z39" s="50" t="str">
         <f>IF(주요뉴스!G14="","",HYPERLINK(주요뉴스!G14, "▶"))</f>
-        <v>▶</v>
+        <v/>
       </c>
       <c r="AA39" s="26"/>
-      <c r="AB39" s="59">
+      <c r="AB39" s="54">
         <f>종목별이슈!A13</f>
         <v>0</v>
       </c>
-      <c r="AC39" s="59"/>
-      <c r="AD39" s="59"/>
+      <c r="AC39" s="54"/>
+      <c r="AD39" s="54"/>
       <c r="AE39" s="26">
         <f>종목별이슈!D13</f>
         <v>0</v>
@@ -5776,19 +4300,19 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="21"/>
-      <c r="K40" s="59" t="str">
+      <c r="K40" s="54">
         <f>주요뉴스!E15</f>
-        <v xml:space="preserve">조선비즈 </v>
-      </c>
-      <c r="L40" s="59"/>
-      <c r="M40" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L40" s="54"/>
+      <c r="M40" s="53">
         <f>주요뉴스!C15</f>
-        <v>코스피 지수, 美 FOMC 충격에 장 중 2400선 붕괴… 8거래일만</v>
-      </c>
-      <c r="N40" s="60"/>
-      <c r="O40" s="60"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="60"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53"/>
       <c r="R40" s="25"/>
       <c r="S40" s="25"/>
       <c r="T40" s="25"/>
@@ -5799,15 +4323,15 @@
       <c r="Y40" s="25"/>
       <c r="Z40" s="50" t="str">
         <f>IF(주요뉴스!G15="","",HYPERLINK(주요뉴스!G15, "▶"))</f>
-        <v>▶</v>
+        <v/>
       </c>
       <c r="AA40" s="26"/>
-      <c r="AB40" s="59">
+      <c r="AB40" s="54">
         <f>종목별이슈!A14</f>
         <v>0</v>
       </c>
-      <c r="AC40" s="59"/>
-      <c r="AD40" s="59"/>
+      <c r="AC40" s="54"/>
+      <c r="AD40" s="54"/>
       <c r="AE40" s="26">
         <f>종목별이슈!D14</f>
         <v>0</v>
@@ -5817,19 +4341,19 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="21"/>
-      <c r="K41" s="59" t="str">
+      <c r="K41" s="54">
         <f>주요뉴스!E16</f>
-        <v xml:space="preserve">비즈워치 </v>
-      </c>
-      <c r="L41" s="59"/>
-      <c r="M41" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L41" s="54"/>
+      <c r="M41" s="53">
         <f>주요뉴스!C16</f>
-        <v>계엄과 함께 추락한 '밸류업 ETF', 탄핵으로 '활짝'</v>
-      </c>
-      <c r="N41" s="60"/>
-      <c r="O41" s="60"/>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="60"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
       <c r="R41" s="25"/>
       <c r="S41" s="25"/>
       <c r="T41" s="25"/>
@@ -5840,15 +4364,15 @@
       <c r="Y41" s="25"/>
       <c r="Z41" s="50" t="str">
         <f>IF(주요뉴스!G16="","",HYPERLINK(주요뉴스!G16, "▶"))</f>
-        <v>▶</v>
+        <v/>
       </c>
       <c r="AA41" s="26"/>
-      <c r="AB41" s="59">
+      <c r="AB41" s="54">
         <f>종목별이슈!A15</f>
         <v>0</v>
       </c>
-      <c r="AC41" s="59"/>
-      <c r="AD41" s="59"/>
+      <c r="AC41" s="54"/>
+      <c r="AD41" s="54"/>
       <c r="AE41" s="26">
         <f>종목별이슈!D15</f>
         <v>0</v>
@@ -5858,19 +4382,19 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="21"/>
-      <c r="K42" s="59" t="str">
+      <c r="K42" s="54">
         <f>주요뉴스!E17</f>
-        <v xml:space="preserve">머니투데이 </v>
-      </c>
-      <c r="L42" s="59"/>
-      <c r="M42" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L42" s="54"/>
+      <c r="M42" s="53">
         <f>주요뉴스!C17</f>
-        <v>"4만전자 다시 볼라"…외국인 빠진 삼성전자, 내년은?</v>
-      </c>
-      <c r="N42" s="60"/>
-      <c r="O42" s="60"/>
-      <c r="P42" s="60"/>
-      <c r="Q42" s="60"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
       <c r="T42" s="25"/>
@@ -5881,15 +4405,15 @@
       <c r="Y42" s="25"/>
       <c r="Z42" s="50" t="str">
         <f>IF(주요뉴스!G17="","",HYPERLINK(주요뉴스!G17, "▶"))</f>
-        <v>▶</v>
+        <v/>
       </c>
       <c r="AA42" s="26"/>
-      <c r="AB42" s="59">
+      <c r="AB42" s="54">
         <f>종목별이슈!A16</f>
         <v>0</v>
       </c>
-      <c r="AC42" s="59"/>
-      <c r="AD42" s="59"/>
+      <c r="AC42" s="54"/>
+      <c r="AD42" s="54"/>
       <c r="AE42" s="26">
         <f>종목별이슈!D16</f>
         <v>0</v>
@@ -5908,19 +4432,19 @@
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
-      <c r="K43" s="59" t="str">
+      <c r="K43" s="54">
         <f>주요뉴스!E18</f>
-        <v xml:space="preserve">문화일보 </v>
-      </c>
-      <c r="L43" s="59"/>
-      <c r="M43" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L43" s="54"/>
+      <c r="M43" s="53">
         <f>주요뉴스!C18</f>
-        <v>PBR 0.8배 ‘코로나 수준’… 글로벌 투자 비중도 ‘뚝뚝’</v>
-      </c>
-      <c r="N43" s="60"/>
-      <c r="O43" s="60"/>
-      <c r="P43" s="60"/>
-      <c r="Q43" s="60"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="53"/>
       <c r="R43" s="25"/>
       <c r="S43" s="25"/>
       <c r="T43" s="25"/>
@@ -5931,15 +4455,15 @@
       <c r="Y43" s="25"/>
       <c r="Z43" s="50" t="str">
         <f>IF(주요뉴스!G18="","",HYPERLINK(주요뉴스!G18, "▶"))</f>
-        <v>▶</v>
+        <v/>
       </c>
       <c r="AA43" s="26"/>
-      <c r="AB43" s="59">
+      <c r="AB43" s="54">
         <f>종목별이슈!A17</f>
         <v>0</v>
       </c>
-      <c r="AC43" s="59"/>
-      <c r="AD43" s="59"/>
+      <c r="AC43" s="54"/>
+      <c r="AD43" s="54"/>
       <c r="AE43" s="26">
         <f>종목별이슈!D17</f>
         <v>0</v>
@@ -5948,19 +4472,19 @@
       <c r="AG43" s="26"/>
     </row>
     <row r="44" spans="1:33">
-      <c r="K44" s="59" t="str">
+      <c r="K44" s="54">
         <f>주요뉴스!E19</f>
-        <v xml:space="preserve">머니투데이 </v>
-      </c>
-      <c r="L44" s="59"/>
-      <c r="M44" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L44" s="54"/>
+      <c r="M44" s="53">
         <f>주요뉴스!C19</f>
-        <v>올해 주식 사고 연말 배당받으려면…"26일까지 매수해야"</v>
-      </c>
-      <c r="N44" s="60"/>
-      <c r="O44" s="60"/>
-      <c r="P44" s="60"/>
-      <c r="Q44" s="60"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="53"/>
+      <c r="Q44" s="53"/>
       <c r="R44" s="25"/>
       <c r="S44" s="25"/>
       <c r="T44" s="25"/>
@@ -5971,15 +4495,15 @@
       <c r="Y44" s="25"/>
       <c r="Z44" s="50" t="str">
         <f>IF(주요뉴스!G19="","",HYPERLINK(주요뉴스!G19, "▶"))</f>
-        <v>▶</v>
+        <v/>
       </c>
       <c r="AA44" s="26"/>
-      <c r="AB44" s="59">
+      <c r="AB44" s="54">
         <f>종목별이슈!A18</f>
         <v>0</v>
       </c>
-      <c r="AC44" s="59"/>
-      <c r="AD44" s="59"/>
+      <c r="AC44" s="54"/>
+      <c r="AD44" s="54"/>
       <c r="AE44" s="26">
         <f>종목별이슈!D18</f>
         <v>0</v>
@@ -5988,19 +4512,19 @@
       <c r="AG44" s="26"/>
     </row>
     <row r="45" spans="1:33">
-      <c r="K45" s="59" t="str">
+      <c r="K45" s="54">
         <f>주요뉴스!E20</f>
-        <v xml:space="preserve">헤럴드경제 </v>
-      </c>
-      <c r="L45" s="59"/>
-      <c r="M45" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L45" s="54"/>
+      <c r="M45" s="53">
         <f>주요뉴스!C20</f>
-        <v>외인 코스피서 2조 넘게 이탈한 3가지 이유</v>
-      </c>
-      <c r="N45" s="60"/>
-      <c r="O45" s="60"/>
-      <c r="P45" s="60"/>
-      <c r="Q45" s="60"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="53"/>
       <c r="R45" s="25"/>
       <c r="S45" s="25"/>
       <c r="T45" s="25"/>
@@ -6011,15 +4535,15 @@
       <c r="Y45" s="25"/>
       <c r="Z45" s="50" t="str">
         <f>IF(주요뉴스!G20="","",HYPERLINK(주요뉴스!G20, "▶"))</f>
-        <v>▶</v>
+        <v/>
       </c>
       <c r="AA45" s="26"/>
-      <c r="AB45" s="59">
+      <c r="AB45" s="54">
         <f>종목별이슈!A19</f>
         <v>0</v>
       </c>
-      <c r="AC45" s="59"/>
-      <c r="AD45" s="59"/>
+      <c r="AC45" s="54"/>
+      <c r="AD45" s="54"/>
       <c r="AE45" s="26">
         <f>종목별이슈!D19</f>
         <v>0</v>
@@ -6028,19 +4552,19 @@
       <c r="AG45" s="26"/>
     </row>
     <row r="46" spans="1:33" ht="18" customHeight="1">
-      <c r="K46" s="59" t="str">
+      <c r="K46" s="54">
         <f>주요뉴스!E21</f>
-        <v xml:space="preserve">헤럴드경제 </v>
-      </c>
-      <c r="L46" s="59"/>
-      <c r="M46" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L46" s="54"/>
+      <c r="M46" s="53">
         <f>주요뉴스!C21</f>
-        <v>美증시 시총&lt;63조달러&gt;, 글로벌 절반 넘었다</v>
-      </c>
-      <c r="N46" s="60"/>
-      <c r="O46" s="60"/>
-      <c r="P46" s="60"/>
-      <c r="Q46" s="60"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="53"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="53"/>
+      <c r="Q46" s="53"/>
       <c r="R46" s="25"/>
       <c r="S46" s="25"/>
       <c r="T46" s="25"/>
@@ -6051,15 +4575,15 @@
       <c r="Y46" s="25"/>
       <c r="Z46" s="50" t="str">
         <f>IF(주요뉴스!G21="","",HYPERLINK(주요뉴스!G21, "▶"))</f>
-        <v>▶</v>
+        <v/>
       </c>
       <c r="AA46" s="26"/>
-      <c r="AB46" s="59">
+      <c r="AB46" s="54">
         <f>종목별이슈!A20</f>
         <v>0</v>
       </c>
-      <c r="AC46" s="59"/>
-      <c r="AD46" s="59"/>
+      <c r="AC46" s="54"/>
+      <c r="AD46" s="54"/>
       <c r="AE46" s="26">
         <f>종목별이슈!D20</f>
         <v>0</v>
@@ -6068,19 +4592,19 @@
       <c r="AG46" s="26"/>
     </row>
     <row r="47" spans="1:33">
-      <c r="K47" s="59" t="str">
+      <c r="K47" s="54">
         <f>주요뉴스!E22</f>
-        <v xml:space="preserve">서울경제 </v>
-      </c>
-      <c r="L47" s="59"/>
-      <c r="M47" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L47" s="54"/>
+      <c r="M47" s="53">
         <f>주요뉴스!C22</f>
-        <v>저점 찍었나…삼성전자 순매수 1위[주식 초고수는 지금]</v>
-      </c>
-      <c r="N47" s="60"/>
-      <c r="O47" s="60"/>
-      <c r="P47" s="60"/>
-      <c r="Q47" s="60"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="53"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="53"/>
       <c r="R47" s="25"/>
       <c r="S47" s="25"/>
       <c r="T47" s="25"/>
@@ -6091,15 +4615,15 @@
       <c r="Y47" s="25"/>
       <c r="Z47" s="50" t="str">
         <f>IF(주요뉴스!G22="","",HYPERLINK(주요뉴스!G22, "▶"))</f>
-        <v>▶</v>
+        <v/>
       </c>
       <c r="AA47" s="26"/>
-      <c r="AB47" s="59">
+      <c r="AB47" s="54">
         <f>종목별이슈!A21</f>
         <v>0</v>
       </c>
-      <c r="AC47" s="59"/>
-      <c r="AD47" s="59"/>
+      <c r="AC47" s="54"/>
+      <c r="AD47" s="54"/>
       <c r="AE47" s="26">
         <f>종목별이슈!D21</f>
         <v>0</v>
@@ -6108,37 +4632,85 @@
       <c r="AG47" s="26"/>
     </row>
     <row r="48" spans="1:33">
-      <c r="K48" s="59"/>
-      <c r="L48" s="59"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
       <c r="M48" s="26"/>
-      <c r="N48" s="59"/>
-      <c r="O48" s="59"/>
-      <c r="P48" s="59"/>
-      <c r="Q48" s="59"/>
-      <c r="R48" s="59"/>
-      <c r="S48" s="59"/>
-      <c r="T48" s="59"/>
-      <c r="U48" s="59"/>
-      <c r="V48" s="59"/>
-      <c r="W48" s="59"/>
-      <c r="X48" s="59"/>
-      <c r="Y48" s="59"/>
-      <c r="Z48" s="59"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="54"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="54"/>
+      <c r="T48" s="54"/>
+      <c r="U48" s="54"/>
+      <c r="V48" s="54"/>
+      <c r="W48" s="54"/>
+      <c r="X48" s="54"/>
+      <c r="Y48" s="54"/>
+      <c r="Z48" s="54"/>
       <c r="AA48" s="26"/>
       <c r="AG48" s="26"/>
     </row>
     <row r="51" ht="19.149999999999999" customHeight="1"/>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="M43:Q43"/>
-    <mergeCell ref="M44:Q44"/>
-    <mergeCell ref="M45:Q45"/>
-    <mergeCell ref="M46:Q46"/>
-    <mergeCell ref="M38:Q38"/>
-    <mergeCell ref="M39:Q39"/>
-    <mergeCell ref="M40:Q40"/>
-    <mergeCell ref="M41:Q41"/>
-    <mergeCell ref="M42:Q42"/>
+    <mergeCell ref="N48:Z48"/>
+    <mergeCell ref="M47:Q47"/>
+    <mergeCell ref="AB47:AD47"/>
+    <mergeCell ref="AB31:AD31"/>
+    <mergeCell ref="AB38:AD38"/>
+    <mergeCell ref="AB39:AD39"/>
+    <mergeCell ref="AB40:AD40"/>
+    <mergeCell ref="AB41:AD41"/>
+    <mergeCell ref="AB32:AD32"/>
+    <mergeCell ref="AB33:AD33"/>
+    <mergeCell ref="AB34:AD34"/>
+    <mergeCell ref="AB35:AD35"/>
+    <mergeCell ref="AB36:AD36"/>
+    <mergeCell ref="AB42:AD42"/>
+    <mergeCell ref="AB46:AD46"/>
+    <mergeCell ref="AB43:AD43"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="K3:Z3"/>
+    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="K27:Z27"/>
+    <mergeCell ref="L15:L24"/>
+    <mergeCell ref="L5:L14"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AB27:AF27"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="M30:Q30"/>
+    <mergeCell ref="M31:Q31"/>
     <mergeCell ref="AB44:AD44"/>
     <mergeCell ref="AB45:AD45"/>
     <mergeCell ref="AB37:AD37"/>
@@ -6155,63 +4727,15 @@
     <mergeCell ref="M35:Q35"/>
     <mergeCell ref="M36:Q36"/>
     <mergeCell ref="M37:Q37"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="M30:Q30"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="K27:Z27"/>
-    <mergeCell ref="L15:L24"/>
-    <mergeCell ref="L5:L14"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AB27:AF27"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="K3:Z3"/>
-    <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="N48:Z48"/>
-    <mergeCell ref="M47:Q47"/>
-    <mergeCell ref="AB47:AD47"/>
-    <mergeCell ref="AB31:AD31"/>
-    <mergeCell ref="AB38:AD38"/>
-    <mergeCell ref="AB39:AD39"/>
-    <mergeCell ref="AB40:AD40"/>
-    <mergeCell ref="AB41:AD41"/>
-    <mergeCell ref="AB32:AD32"/>
-    <mergeCell ref="AB33:AD33"/>
-    <mergeCell ref="AB34:AD34"/>
-    <mergeCell ref="AB35:AD35"/>
-    <mergeCell ref="AB36:AD36"/>
-    <mergeCell ref="AB42:AD42"/>
-    <mergeCell ref="AB46:AD46"/>
-    <mergeCell ref="AB43:AD43"/>
+    <mergeCell ref="M43:Q43"/>
+    <mergeCell ref="M44:Q44"/>
+    <mergeCell ref="M45:Q45"/>
+    <mergeCell ref="M46:Q46"/>
+    <mergeCell ref="M38:Q38"/>
+    <mergeCell ref="M39:Q39"/>
+    <mergeCell ref="M40:Q40"/>
+    <mergeCell ref="M41:Q41"/>
+    <mergeCell ref="M42:Q42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -6241,20 +4765,20 @@
     <col min="5" max="5" width="12.375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="58" customFormat="1" ht="21" thickBot="1">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:5" s="67" customFormat="1" ht="21" thickBot="1">
+      <c r="A1" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="62" t="s">
         <v>64</v>
       </c>
     </row>
@@ -6269,7 +4793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE6CA88-1CFA-4AE2-821A-C78C90C5A167}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -6281,17 +4805,17 @@
     <col min="4" max="4" width="13.375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="58" customFormat="1" ht="21" thickBot="1">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:4" s="67" customFormat="1" ht="21" thickBot="1">
+      <c r="A1" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="62" t="s">
         <v>64</v>
       </c>
     </row>
@@ -7750,1945 +6274,687 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="54" customFormat="1" ht="21" thickBot="1">
-      <c r="B3" s="55" t="s">
+    <row r="3" spans="2:7" s="63" customFormat="1" ht="21" thickBot="1">
+      <c r="B3" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="33.75" thickTop="1">
+      <c r="G3" s="66"/>
+    </row>
+    <row r="4" spans="2:7" ht="17.25" thickTop="1">
       <c r="B4" s="50" t="str">
         <f>IF(G4="","",HYPERLINK(G4, "▶"))</f>
-        <v>▶</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="52">
-        <v>45646.661909722221</v>
-      </c>
-      <c r="G4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="F4" s="52"/>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="50" t="str">
         <f t="shared" ref="B5:B68" si="0">IF(G5="","",HYPERLINK(G5, "▶"))</f>
-        <v>▶</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="52">
-        <v>45646.652939814812</v>
-      </c>
-      <c r="G5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F5" s="52"/>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="52">
-        <v>45646.647627314815</v>
-      </c>
-      <c r="G6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="49.5">
+        <v/>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="F6" s="52"/>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="52">
-        <v>45646.629282407404</v>
-      </c>
-      <c r="G7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="F7" s="52"/>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="52">
-        <v>45646.594606481478</v>
-      </c>
-      <c r="G8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F8" s="52"/>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="52">
-        <v>45646.585810185185</v>
-      </c>
-      <c r="G9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="F9" s="52"/>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="52">
-        <v>45646.584247685183</v>
-      </c>
-      <c r="G10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F10" s="52"/>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="52">
-        <v>45646.581400462965</v>
-      </c>
-      <c r="G11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F11" s="52"/>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="52">
-        <v>45646.572685185187</v>
-      </c>
-      <c r="G12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F12" s="52"/>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" s="52">
-        <v>45646.571631944447</v>
-      </c>
-      <c r="G13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="49.5">
+        <v/>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="F13" s="52"/>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="52">
-        <v>45646.541851851849</v>
-      </c>
-      <c r="G14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F14" s="52"/>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="52">
-        <v>45646.538287037038</v>
-      </c>
-      <c r="G15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F15" s="52"/>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="52">
-        <v>45646.52579861111</v>
-      </c>
-      <c r="G16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F16" s="52"/>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="52">
-        <v>45646.505358796298</v>
-      </c>
-      <c r="G17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="C17" s="51"/>
+      <c r="F17" s="52"/>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="52">
-        <v>45646.502488425926</v>
-      </c>
-      <c r="G18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="49.5">
+        <v/>
+      </c>
+      <c r="F18" s="52"/>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" s="52">
-        <v>45646.491064814814</v>
-      </c>
-      <c r="G19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F19" s="52"/>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="52">
-        <v>45646.484166666669</v>
-      </c>
-      <c r="G20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F20" s="52"/>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F21" s="52">
-        <v>45646.483472222222</v>
-      </c>
-      <c r="G21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="D21" s="51"/>
+      <c r="F21" s="52"/>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F22" s="52">
-        <v>45646.479988425926</v>
-      </c>
-      <c r="G22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="49.5">
+        <v/>
+      </c>
+      <c r="C22" s="51"/>
+      <c r="F22" s="52"/>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" s="52">
-        <v>45646.478634259256</v>
-      </c>
-      <c r="G23" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F23" s="52"/>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="52">
-        <v>45646.477337962962</v>
-      </c>
-      <c r="G24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="49.5">
+        <v/>
+      </c>
+      <c r="F24" s="52"/>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="52">
-        <v>45646.476724537039</v>
-      </c>
-      <c r="G25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F25" s="52"/>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="52">
-        <v>45646.46875</v>
-      </c>
-      <c r="G26" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F26" s="52"/>
+    </row>
+    <row r="27" spans="2:6">
       <c r="B27" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C27" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F27" s="52">
-        <v>45646.459907407407</v>
-      </c>
-      <c r="G27" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="D27" s="51"/>
+      <c r="F27" s="52"/>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F28" s="52">
-        <v>45646.458506944444</v>
-      </c>
-      <c r="G28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F28" s="52"/>
+    </row>
+    <row r="29" spans="2:6">
       <c r="B29" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="52">
-        <v>45646.455057870371</v>
-      </c>
-      <c r="G29" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="49.5">
+        <v/>
+      </c>
+      <c r="F29" s="52"/>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30" s="52">
-        <v>45646.452951388892</v>
-      </c>
-      <c r="G30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F30" s="52"/>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" s="52">
-        <v>45646.44290509259</v>
-      </c>
-      <c r="G31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F31" s="52"/>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C32" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="52">
-        <v>45646.439513888887</v>
-      </c>
-      <c r="G32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F32" s="52"/>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C33" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="D33" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F33" s="52">
-        <v>45646.437152777777</v>
-      </c>
-      <c r="G33" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F33" s="52"/>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C34" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="D34" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F34" s="52">
-        <v>45646.435590277775</v>
-      </c>
-      <c r="G34" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="49.5">
+        <v/>
+      </c>
+      <c r="F34" s="52"/>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C35" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="D35" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F35" s="52">
-        <v>45646.433530092596</v>
-      </c>
-      <c r="G35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F35" s="52"/>
+    </row>
+    <row r="36" spans="2:6">
       <c r="B36" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C36" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="D36" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="52">
-        <v>45646.433530092596</v>
-      </c>
-      <c r="G36" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="49.5">
+        <v/>
+      </c>
+      <c r="F36" s="52"/>
+    </row>
+    <row r="37" spans="2:6">
       <c r="B37" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C37" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="D37" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="52">
-        <v>45646.432754629626</v>
-      </c>
-      <c r="G37" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="49.5">
+        <v/>
+      </c>
+      <c r="F37" s="52"/>
+    </row>
+    <row r="38" spans="2:6">
       <c r="B38" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="D38" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F38" s="52">
-        <v>45646.420370370368</v>
-      </c>
-      <c r="G38" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F38" s="52"/>
+    </row>
+    <row r="39" spans="2:6">
       <c r="B39" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C39" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="D39" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" s="52">
-        <v>45646.406400462962</v>
-      </c>
-      <c r="G39" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="49.5">
+        <v/>
+      </c>
+      <c r="F39" s="52"/>
+    </row>
+    <row r="40" spans="2:6">
       <c r="B40" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C40" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="D40" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F40" s="52">
-        <v>45646.405717592592</v>
-      </c>
-      <c r="G40" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F40" s="52"/>
+    </row>
+    <row r="41" spans="2:6">
       <c r="B41" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C41" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="D41" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F41" s="52">
-        <v>45646.404444444444</v>
-      </c>
-      <c r="G41" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F41" s="52"/>
+    </row>
+    <row r="42" spans="2:6">
       <c r="B42" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C42" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="D42" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F42" s="52">
-        <v>45646.397430555553</v>
-      </c>
-      <c r="G42" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F42" s="52"/>
+    </row>
+    <row r="43" spans="2:6">
       <c r="B43" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C43" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="D43" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F43" s="52">
-        <v>45646.396666666667</v>
-      </c>
-      <c r="G43" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F43" s="52"/>
+    </row>
+    <row r="44" spans="2:6">
       <c r="B44" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C44" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="D44" s="48" t="s">
-        <v>210</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="F44" s="52">
-        <v>45646.396412037036</v>
-      </c>
-      <c r="G44" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="C44" s="51"/>
+      <c r="F44" s="52"/>
+    </row>
+    <row r="45" spans="2:6">
       <c r="B45" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C45" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="D45" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F45" s="52">
-        <v>45646.393692129626</v>
-      </c>
-      <c r="G45" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F45" s="52"/>
+    </row>
+    <row r="46" spans="2:6">
       <c r="B46" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C46" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="D46" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F46" s="52">
-        <v>45646.393252314818</v>
-      </c>
-      <c r="G46" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F46" s="52"/>
+    </row>
+    <row r="47" spans="2:6">
       <c r="B47" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C47" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="D47" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F47" s="52">
-        <v>45646.386273148149</v>
-      </c>
-      <c r="G47" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" ht="49.5">
+        <v/>
+      </c>
+      <c r="F47" s="52"/>
+    </row>
+    <row r="48" spans="2:6">
       <c r="B48" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C48" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="D48" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="F48" s="52">
-        <v>45646.384166666663</v>
-      </c>
-      <c r="G48" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" ht="49.5">
+        <v/>
+      </c>
+      <c r="C48" s="51"/>
+      <c r="F48" s="52"/>
+    </row>
+    <row r="49" spans="2:6">
       <c r="B49" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C49" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="D49" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F49" s="52">
-        <v>45646.38008101852</v>
-      </c>
-      <c r="G49" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F49" s="52"/>
+    </row>
+    <row r="50" spans="2:6">
       <c r="B50" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C50" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="D50" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F50" s="52">
-        <v>45646.377187500002</v>
-      </c>
-      <c r="G50" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F50" s="52"/>
+    </row>
+    <row r="51" spans="2:6">
       <c r="B51" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C51" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="D51" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F51" s="52">
-        <v>45646.365231481483</v>
-      </c>
-      <c r="G51" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F51" s="52"/>
+    </row>
+    <row r="52" spans="2:6">
       <c r="B52" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C52" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="D52" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F52" s="52">
-        <v>45646.364722222221</v>
-      </c>
-      <c r="G52" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F52" s="52"/>
+    </row>
+    <row r="53" spans="2:6">
       <c r="B53" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C53" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="D53" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F53" s="52">
-        <v>45646.363298611112</v>
-      </c>
-      <c r="G53" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F53" s="52"/>
+    </row>
+    <row r="54" spans="2:6">
       <c r="B54" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C54" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="D54" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F54" s="52">
-        <v>45646.362303240741</v>
-      </c>
-      <c r="G54" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F54" s="52"/>
+    </row>
+    <row r="55" spans="2:6">
       <c r="B55" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C55" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="D55" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F55" s="52">
-        <v>45646.359131944446</v>
-      </c>
-      <c r="G55" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F55" s="52"/>
+    </row>
+    <row r="56" spans="2:6">
       <c r="B56" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C56" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="D56" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F56" s="52">
-        <v>45646.352951388886</v>
-      </c>
-      <c r="G56" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="C56" s="51"/>
+      <c r="F56" s="52"/>
+    </row>
+    <row r="57" spans="2:6">
       <c r="B57" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C57" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="D57" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F57" s="52">
-        <v>45646.350844907407</v>
-      </c>
-      <c r="G57" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F57" s="52"/>
+    </row>
+    <row r="58" spans="2:6">
       <c r="B58" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C58" s="51" t="s">
-        <v>254</v>
-      </c>
-      <c r="D58" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F58" s="52">
-        <v>45646.346018518518</v>
-      </c>
-      <c r="G58" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="C58" s="51"/>
+      <c r="F58" s="52"/>
+    </row>
+    <row r="59" spans="2:6">
       <c r="B59" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C59" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="D59" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F59" s="52">
-        <v>45646.345243055555</v>
-      </c>
-      <c r="G59" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" ht="49.5">
+        <v/>
+      </c>
+      <c r="F59" s="52"/>
+    </row>
+    <row r="60" spans="2:6">
       <c r="B60" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C60" s="48" t="s">
-        <v>260</v>
-      </c>
-      <c r="D60" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F60" s="52">
-        <v>45646.338483796295</v>
-      </c>
-      <c r="G60" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F60" s="52"/>
+    </row>
+    <row r="61" spans="2:6">
       <c r="B61" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C61" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="D61" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="F61" s="52">
-        <v>45646.338460648149</v>
-      </c>
-      <c r="G61" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F61" s="52"/>
+    </row>
+    <row r="62" spans="2:6">
       <c r="B62" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C62" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="D62" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F62" s="52">
-        <v>45646.337650462963</v>
-      </c>
-      <c r="G62" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F62" s="52"/>
+    </row>
+    <row r="63" spans="2:6">
       <c r="B63" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C63" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="D63" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F63" s="52">
-        <v>45646.334826388891</v>
-      </c>
-      <c r="G63" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F63" s="52"/>
+    </row>
+    <row r="64" spans="2:6">
       <c r="B64" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C64" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="D64" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F64" s="52">
-        <v>45646.334155092591</v>
-      </c>
-      <c r="G64" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" ht="49.5">
+        <v/>
+      </c>
+      <c r="F64" s="52"/>
+    </row>
+    <row r="65" spans="2:6">
       <c r="B65" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C65" s="48" t="s">
-        <v>275</v>
-      </c>
-      <c r="D65" s="48" t="s">
-        <v>276</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F65" s="52">
-        <v>45646.333506944444</v>
-      </c>
-      <c r="G65" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F65" s="52"/>
+    </row>
+    <row r="66" spans="2:6">
       <c r="B66" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C66" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="D66" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F66" s="52">
-        <v>45646.331377314818</v>
-      </c>
-      <c r="G66" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" ht="49.5">
+        <v/>
+      </c>
+      <c r="F66" s="52"/>
+    </row>
+    <row r="67" spans="2:6">
       <c r="B67" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C67" s="51" t="s">
-        <v>281</v>
-      </c>
-      <c r="D67" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F67" s="52">
-        <v>45646.329965277779</v>
-      </c>
-      <c r="G67" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="C67" s="51"/>
+      <c r="F67" s="52"/>
+    </row>
+    <row r="68" spans="2:6">
       <c r="B68" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>▶</v>
-      </c>
-      <c r="C68" s="51" t="s">
-        <v>284</v>
-      </c>
-      <c r="D68" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F68" s="52">
-        <v>45646.313275462962</v>
-      </c>
-      <c r="G68" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="C68" s="51"/>
+      <c r="F68" s="52"/>
+    </row>
+    <row r="69" spans="2:6">
       <c r="B69" s="50" t="str">
         <f t="shared" ref="B69:B132" si="1">IF(G69="","",HYPERLINK(G69, "▶"))</f>
-        <v>▶</v>
-      </c>
-      <c r="C69" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="D69" s="48" t="s">
-        <v>288</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F69" s="52">
-        <v>45646.311840277776</v>
-      </c>
-      <c r="G69" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" ht="49.5">
+        <v/>
+      </c>
+      <c r="F69" s="52"/>
+    </row>
+    <row r="70" spans="2:6">
       <c r="B70" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>▶</v>
-      </c>
-      <c r="C70" s="48" t="s">
-        <v>290</v>
-      </c>
-      <c r="D70" s="48" t="s">
-        <v>291</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F70" s="52">
-        <v>45646.309861111113</v>
-      </c>
-      <c r="G70" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F70" s="52"/>
+    </row>
+    <row r="71" spans="2:6">
       <c r="B71" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>▶</v>
-      </c>
-      <c r="C71" s="48" t="s">
-        <v>293</v>
-      </c>
-      <c r="D71" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F71" s="52">
-        <v>45646.298067129632</v>
-      </c>
-      <c r="G71" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F71" s="52"/>
+    </row>
+    <row r="72" spans="2:6">
       <c r="B72" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>▶</v>
-      </c>
-      <c r="C72" s="51" t="s">
-        <v>296</v>
-      </c>
-      <c r="D72" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F72" s="52">
-        <v>45646.294675925928</v>
-      </c>
-      <c r="G72" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="C72" s="51"/>
+      <c r="F72" s="52"/>
+    </row>
+    <row r="73" spans="2:6">
       <c r="B73" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>▶</v>
-      </c>
-      <c r="C73" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="D73" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="F73" s="52">
-        <v>45646.291886574072</v>
-      </c>
-      <c r="G73" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F73" s="52"/>
+    </row>
+    <row r="74" spans="2:6">
       <c r="B74" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>▶</v>
-      </c>
-      <c r="C74" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="D74" s="48" t="s">
-        <v>303</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="F74" s="52">
-        <v>45646.291851851849</v>
-      </c>
-      <c r="G74" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F74" s="52"/>
+    </row>
+    <row r="75" spans="2:6">
       <c r="B75" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>▶</v>
-      </c>
-      <c r="C75" s="48" t="s">
-        <v>305</v>
-      </c>
-      <c r="D75" s="48" t="s">
-        <v>306</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="F75" s="52">
-        <v>45646.291817129626</v>
-      </c>
-      <c r="G75" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" ht="49.5">
+        <v/>
+      </c>
+      <c r="F75" s="52"/>
+    </row>
+    <row r="76" spans="2:6">
       <c r="B76" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>▶</v>
-      </c>
-      <c r="C76" s="48" t="s">
-        <v>308</v>
-      </c>
-      <c r="D76" s="48" t="s">
-        <v>309</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F76" s="52">
-        <v>45646.291666666664</v>
-      </c>
-      <c r="G76" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" ht="49.5">
+        <v/>
+      </c>
+      <c r="F76" s="52"/>
+    </row>
+    <row r="77" spans="2:6">
       <c r="B77" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>▶</v>
-      </c>
-      <c r="C77" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="D77" s="48" t="s">
-        <v>312</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F77" s="52">
-        <v>45646.291666666664</v>
-      </c>
-      <c r="G77" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F77" s="52"/>
+    </row>
+    <row r="78" spans="2:6">
       <c r="B78" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>▶</v>
-      </c>
-      <c r="C78" s="51" t="s">
-        <v>314</v>
-      </c>
-      <c r="D78" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F78" s="52">
-        <v>45646.283888888887</v>
-      </c>
-      <c r="G78" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F78" s="52"/>
+    </row>
+    <row r="79" spans="2:6">
       <c r="B79" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>▶</v>
-      </c>
-      <c r="C79" s="48" t="s">
-        <v>317</v>
-      </c>
-      <c r="D79" s="48" t="s">
-        <v>318</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F79" s="52">
-        <v>45646.281354166669</v>
-      </c>
-      <c r="G79" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" ht="49.5">
+        <v/>
+      </c>
+      <c r="F79" s="52"/>
+    </row>
+    <row r="80" spans="2:6">
       <c r="B80" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>▶</v>
-      </c>
-      <c r="C80" s="51" t="s">
-        <v>320</v>
-      </c>
-      <c r="D80" s="48" t="s">
-        <v>321</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F80" s="52">
-        <v>45646.28125</v>
-      </c>
-      <c r="G80" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" ht="49.5">
+        <v/>
+      </c>
+      <c r="C80" s="51"/>
+      <c r="F80" s="52"/>
+    </row>
+    <row r="81" spans="2:6">
       <c r="B81" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>▶</v>
-      </c>
-      <c r="C81" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="D81" s="48" t="s">
-        <v>324</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="F81" s="52">
-        <v>45646.279618055552</v>
-      </c>
-      <c r="G81" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F81" s="52"/>
+    </row>
+    <row r="82" spans="2:6">
       <c r="B82" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>▶</v>
-      </c>
-      <c r="C82" s="48" t="s">
-        <v>326</v>
-      </c>
-      <c r="D82" s="48" t="s">
-        <v>327</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F82" s="52">
-        <v>45646.274305555555</v>
-      </c>
-      <c r="G82" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F82" s="52"/>
+    </row>
+    <row r="83" spans="2:6">
       <c r="B83" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>▶</v>
-      </c>
-      <c r="C83" s="51" t="s">
-        <v>329</v>
-      </c>
-      <c r="D83" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F83" s="52">
-        <v>45646.271655092591</v>
-      </c>
-      <c r="G83" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F83" s="52"/>
+    </row>
+    <row r="84" spans="2:6">
       <c r="B84" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>▶</v>
-      </c>
-      <c r="C84" s="51" t="s">
-        <v>332</v>
-      </c>
-      <c r="D84" s="48" t="s">
-        <v>333</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F84" s="52">
-        <v>45646.267361111109</v>
-      </c>
-      <c r="G84" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="C84" s="51"/>
+      <c r="F84" s="52"/>
+    </row>
+    <row r="85" spans="2:6">
       <c r="B85" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>▶</v>
-      </c>
-      <c r="C85" s="48" t="s">
-        <v>335</v>
-      </c>
-      <c r="D85" s="48" t="s">
-        <v>336</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F85" s="52">
-        <v>45646.263888888891</v>
-      </c>
-      <c r="G85" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" ht="49.5">
+        <v/>
+      </c>
+      <c r="F85" s="52"/>
+    </row>
+    <row r="86" spans="2:6">
       <c r="B86" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>▶</v>
-      </c>
-      <c r="C86" s="48" t="s">
-        <v>338</v>
-      </c>
-      <c r="D86" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F86" s="52">
-        <v>45646.261203703703</v>
-      </c>
-      <c r="G86" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" ht="49.5">
+        <v/>
+      </c>
+      <c r="F86" s="52"/>
+    </row>
+    <row r="87" spans="2:6">
       <c r="B87" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>▶</v>
-      </c>
-      <c r="C87" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="D87" s="48" t="s">
-        <v>342</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F87" s="52">
-        <v>45646.260416666664</v>
-      </c>
-      <c r="G87" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F87" s="52"/>
+    </row>
+    <row r="88" spans="2:6">
       <c r="B88" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>▶</v>
-      </c>
-      <c r="C88" s="48" t="s">
-        <v>344</v>
-      </c>
-      <c r="D88" s="48" t="s">
-        <v>345</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F88" s="52">
-        <v>45646.25986111111</v>
-      </c>
-      <c r="G88" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F88" s="52"/>
+    </row>
+    <row r="89" spans="2:6">
       <c r="B89" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>▶</v>
-      </c>
-      <c r="C89" s="48" t="s">
-        <v>347</v>
-      </c>
-      <c r="D89" s="48" t="s">
-        <v>348</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F89" s="52">
-        <v>45646.250914351855</v>
-      </c>
-      <c r="G89" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F89" s="52"/>
+    </row>
+    <row r="90" spans="2:6">
       <c r="B90" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>▶</v>
-      </c>
-      <c r="C90" s="48" t="s">
-        <v>350</v>
-      </c>
-      <c r="D90" s="48" t="s">
-        <v>351</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F90" s="52">
-        <v>45646.250810185185</v>
-      </c>
-      <c r="G90" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F90" s="52"/>
+    </row>
+    <row r="91" spans="2:6">
       <c r="B91" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>▶</v>
-      </c>
-      <c r="C91" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="D91" s="48" t="s">
-        <v>354</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F91" s="52">
-        <v>45646.25</v>
-      </c>
-      <c r="G91" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F91" s="52"/>
+    </row>
+    <row r="92" spans="2:6">
       <c r="B92" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>▶</v>
-      </c>
-      <c r="C92" s="48" t="s">
-        <v>356</v>
-      </c>
-      <c r="D92" s="48" t="s">
-        <v>357</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="F92" s="52">
-        <v>45646.189583333333</v>
-      </c>
-      <c r="G92" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" ht="49.5">
+        <v/>
+      </c>
+      <c r="F92" s="52"/>
+    </row>
+    <row r="93" spans="2:6">
       <c r="B93" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>▶</v>
-      </c>
-      <c r="C93" s="48" t="s">
-        <v>360</v>
-      </c>
-      <c r="D93" s="48" t="s">
-        <v>361</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="F93" s="52">
-        <v>45646.041412037041</v>
-      </c>
-      <c r="G93" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" ht="33">
+        <v/>
+      </c>
+      <c r="F93" s="52"/>
+    </row>
+    <row r="94" spans="2:6">
       <c r="B94" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>▶</v>
-      </c>
-      <c r="C94" s="48" t="s">
-        <v>363</v>
-      </c>
-      <c r="D94" s="48" t="s">
-        <v>364</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="F94" s="52">
-        <v>45646.001215277778</v>
-      </c>
-      <c r="G94" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7">
+        <v/>
+      </c>
+      <c r="F94" s="52"/>
+    </row>
+    <row r="95" spans="2:6">
       <c r="B95" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F95" s="52"/>
     </row>
-    <row r="96" spans="2:7">
+    <row r="96" spans="2:6">
       <c r="B96" s="50" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -15119,17 +12385,17 @@
     <col min="4" max="4" width="13.375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="58" customFormat="1" ht="21" thickBot="1">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:4" s="67" customFormat="1" ht="21" thickBot="1">
+      <c r="A1" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="62" t="s">
         <v>64</v>
       </c>
     </row>
@@ -15212,17 +12478,17 @@
     <col min="4" max="4" width="13.75" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="58" customFormat="1" ht="21" thickBot="1">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:4" s="67" customFormat="1" ht="21" thickBot="1">
+      <c r="A1" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="62" t="s">
         <v>64</v>
       </c>
     </row>
@@ -15270,20 +12536,20 @@
     <col min="5" max="5" width="12.375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="58" customFormat="1" ht="21" thickBot="1">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:5" s="67" customFormat="1" ht="21" thickBot="1">
+      <c r="A1" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="62" t="s">
         <v>64</v>
       </c>
     </row>

--- a/21_오늘의_증권시황/Data/Output/2024년/2024년12월/Today_Stock_Information_2024-12-20.xlsx
+++ b/21_오늘의_증권시황/Data/Output/2024년/2024년12월/Today_Stock_Information_2024-12-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\21_오늘의_증권시황\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378EF818-2AE8-43E4-9EF0-BC401FBF5F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E19CD5-2906-45A0-8905-14C015E3C30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5640" yWindow="-23040" windowWidth="16920" windowHeight="12030" xr2:uid="{128CB9EE-8F8F-4283-BC02-829EA9DF085D}"/>
+    <workbookView xWindow="-5895" yWindow="-23175" windowWidth="16920" windowHeight="12030" xr2:uid="{128CB9EE-8F8F-4283-BC02-829EA9DF085D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="695">
   <si>
     <t>오늘자 뉴스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,7 +212,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>종목명</t>
+  </si>
+  <si>
     <t>남선알미늄</t>
+  </si>
+  <si>
+    <t>제목</t>
   </si>
   <si>
     <t>주요 뉴스</t>
@@ -251,6 +257,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>순위</t>
+  </si>
+  <si>
+    <t>지수명</t>
+  </si>
+  <si>
+    <t>출처</t>
+  </si>
+  <si>
+    <t>제공자</t>
+  </si>
+  <si>
+    <t>링크</t>
+  </si>
+  <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -489,58 +510,6 @@
     <t>https://finance.naver.com/item/main.naver?code=300720</t>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종목명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종목명 Url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전일비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등락률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시가총액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영업이익</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>외국인비율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PBR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>티케이케미칼</t>
   </si>
   <si>
@@ -1870,6 +1839,366 @@
   </si>
   <si>
     <t>https://finance.naver.com/research/economy_read.naver?nid=11193&amp;page=1</t>
+  </si>
+  <si>
+    <t>코스피</t>
+  </si>
+  <si>
+    <t>뉴스공시</t>
+  </si>
+  <si>
+    <t>코스피, 외인 매도 폭탄에 2400선으로…코스닥 2%↓</t>
+  </si>
+  <si>
+    <t>아시아경제</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/277/0005521194</t>
+  </si>
+  <si>
+    <t>[특징주]"차기 지도자 이재명 1위"…여론조사에 테마주 강세</t>
+  </si>
+  <si>
+    <t>이데일리</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/018/0005910540</t>
+  </si>
+  <si>
+    <t>‘이재명 테마주’, 조기 대선 국면에 422% 주가 폭등</t>
+  </si>
+  <si>
+    <t>주간동아</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/037/0000035484</t>
+  </si>
+  <si>
+    <t>넷플릭스에서 '런닝맨'본다… 웨이브 '독점전략' 무너지나</t>
+  </si>
+  <si>
+    <t>미디어오늘</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/006/0000127754</t>
+  </si>
+  <si>
+    <t>SBS-넷플릭스 전략적 파트너십 체결 
+동영상기사</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/055/0001217171</t>
+  </si>
+  <si>
+    <t>골때녀·그알' 넷플릭스서 본다…SBS 상한가 직행</t>
+  </si>
+  <si>
+    <t>SBS Biz</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/374/0000416918</t>
+  </si>
+  <si>
+    <t>"데이터로 평가하니 공정성↑"…메가존클라우드, 콘텐츠 시상식 새 기.....</t>
+  </si>
+  <si>
+    <t>아이뉴스24</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/031/0000895456</t>
+  </si>
+  <si>
+    <t>[DD퇴근길] 우티, 티맵 손 떼고 우버 단독체제…넷플릭스에 올라탄 S...</t>
+  </si>
+  <si>
+    <t>디지털데일리</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/138/0002188357</t>
+  </si>
+  <si>
+    <t>[특징주] SBS, 넷플릭스와 콘텐츠 공급 계약 체결 소식에 상한가 직...</t>
+  </si>
+  <si>
+    <t>매일경제</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/009/0005417193</t>
+  </si>
+  <si>
+    <t>기업공시 [12월 20일]</t>
+  </si>
+  <si>
+    <t>서울경제</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/011/0004430549</t>
+  </si>
+  <si>
+    <t>20일 코스피·코스닥 주요 공시</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/009/0005417182</t>
+  </si>
+  <si>
+    <t>[코스피 마감]다시 시작된 외인 엑소더스…2400선 진땀 사수</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/018/0005910635</t>
+  </si>
+  <si>
+    <t>전자공시</t>
+  </si>
+  <si>
+    <t>투자판단관련주요경영사항</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241220800190</t>
+  </si>
+  <si>
+    <t>"대선 도전하나?" 질문받더니…우원식 반응에 '테마주' 술렁</t>
+  </si>
+  <si>
+    <t>한국경제</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/015/0005072555</t>
+  </si>
+  <si>
+    <t>코스피, 외인·기관 매도 물량에 2400선 붕괴</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/018/0005910552</t>
+  </si>
+  <si>
+    <t>특수관계인으로부터받은담보</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241220000473</t>
+  </si>
+  <si>
+    <t>[ET라씨로] 다시 술렁이는 정치인 테마주… 오리엔트정공 25%↑</t>
+  </si>
+  <si>
+    <t>전자신문</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/030/0003269849</t>
+  </si>
+  <si>
+    <t>[특징주]우오현 회장, 트럼프 취임식 초청 예상에…SM그룹株 급등</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/277/0005521069</t>
+  </si>
+  <si>
+    <t>한화건설, 대전 도마동 ‘도마 포레나해모로’ 분양 중</t>
+  </si>
+  <si>
+    <t>조선비즈</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/366/0001041809</t>
+  </si>
+  <si>
+    <t>어제 5200억 판 外人, 오늘은 8300억 순매도…코스피, 2400 ...</t>
+  </si>
+  <si>
+    <t>헤럴드경제</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/016/0002405664</t>
+  </si>
+  <si>
+    <t>美 셧다운 해도 안해도…국채금리 리스크 증폭 [장 안의 화제] 
+동영상기사</t>
+  </si>
+  <si>
+    <t>한국경제TV</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/215/0001192547</t>
+  </si>
+  <si>
+    <t>HJ중공업, 공공 건설공사 안전관리 '최고' 등급 획득</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/277/0005521189</t>
+  </si>
+  <si>
+    <t>[특징주]HJ중공업, 방위사업청과 2663억원 규모 수주 계약…11%↑</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/277/0005521024</t>
+  </si>
+  <si>
+    <t>코스피 FOMC 여진에 장중 1% 넘게 밀려…코스닥도 1.4% 급락</t>
+  </si>
+  <si>
+    <t>연합뉴스</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/001/0015117628</t>
+  </si>
+  <si>
+    <t>HJ중공업, 2663억 해군 검독수리 Batch-II 후속함 수주</t>
+  </si>
+  <si>
+    <t>뉴시스</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/003/0012973491</t>
+  </si>
+  <si>
+    <t>[기재정정]단일판매ㆍ공급계약체결</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241220800204</t>
+  </si>
+  <si>
+    <t>단일판매ㆍ공급계약체결</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241220800050</t>
+  </si>
+  <si>
+    <t>IPO 본부장 칼바람 속에…미래에셋증권은 ‘유임’</t>
+  </si>
+  <si>
+    <t>이코노미스트</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/243/0000070018</t>
+  </si>
+  <si>
+    <t>‘매파’ 파월 입에 국내 증시 충격… 2400 선 위협받아</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/037/0000035488</t>
+  </si>
+  <si>
+    <t>[오늘장 탑픽] 국내증시 흔들려도 조선주 '방긋'…업황 전망은? 
+동영상기사</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/374/0000416799</t>
+  </si>
+  <si>
+    <t>"삼성이 이제 와서 공시를 할까요?"‥힘빠진 밸류업, 반전있을까</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/277/0005520770</t>
+  </si>
+  <si>
+    <t>코스닥</t>
+  </si>
+  <si>
+    <t>[코스닥 마감] 외인·기관 동반 매도에 670선 무너져…8거래일 만</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/018/0005910637</t>
+  </si>
+  <si>
+    <t>[특징주]트럼프도 꽂힌 CCUS 관련주 '상한가' 직행</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/018/0005910350</t>
+  </si>
+  <si>
+    <t>퀀텀온, 엠디캠퍼스 소송 취하로 파산신청 기각</t>
+  </si>
+  <si>
+    <t>블로터</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/293/0000061861</t>
+  </si>
+  <si>
+    <t>[기재정정]소액공모공시서류(지분증권)</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241220000614</t>
+  </si>
+  <si>
+    <t>[기재정정]주요사항보고서(유상증자결정)</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241220000606</t>
+  </si>
+  <si>
+    <t>[기재정정]타법인주식및출자증권처분결정(자율공시)</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241220900750</t>
+  </si>
+  <si>
+    <t>파산신청기각 (취하)</t>
+  </si>
+  <si>
+    <t>https://dart.fss.or.kr/dsaf001/main.do?rcpNo=20241220900316</t>
+  </si>
+  <si>
+    <t>방사성 의약품' 듀켐바이오, 코스닥 상장 첫날 13.5%↑</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/015/0005072761</t>
+  </si>
+  <si>
+    <t>바이오 상장 ‘첫 날’은 상승…분위기 이어질까 [바이오맥짚기]</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/018/0005910548</t>
+  </si>
+  <si>
+    <t>美 트럼프發 셧다운 위기...탄핵정국 韓 직격탄 우려 [오한마] 
+동영상기사</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/215/0001192484</t>
+  </si>
+  <si>
+    <t>듀켐바이오, 코스닥 상장</t>
+  </si>
+  <si>
+    <t>뉴스1</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/421/0007978974</t>
+  </si>
+  <si>
+    <t>[이 시각 시황] 트럼프 2기 대응 수출입 공급망 안정화에 해운 역량 ... 
+동영상기사</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/374/0000416798</t>
+  </si>
+  <si>
+    <t>[김진만의 종목 뜯어보기] "연준 매파적 인하"…뉴욕증시 마감 상황은.... 
+동영상기사</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/374/0000416796</t>
+  </si>
+  <si>
+    <t>[특징주]‘이전상장’ 듀켐바이오, 공모가 대비 56%↑</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/018/0005910303</t>
+  </si>
+  <si>
+    <t>美 연준 "내년 인하전망 4회→2회 축소" [3분 브리프]</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/277/0005520791</t>
+  </si>
+  <si>
+    <t>코넥스, 올해 IPO 단 6곳…시장 외면에 존재감 ‘제로’</t>
+  </si>
+  <si>
+    <t>데일리안</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/119/0002906250</t>
   </si>
 </sst>
 </file>
@@ -2209,7 +2538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2385,6 +2714,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3957,43 +4289,43 @@
     </row>
     <row r="2" spans="2:32" ht="35.25" customHeight="1" thickBot="1"/>
     <row r="3" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="E3" s="61" t="s">
+      <c r="C3" s="62"/>
+      <c r="E3" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="H3" s="61" t="s">
+      <c r="F3" s="62"/>
+      <c r="H3" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="61"/>
-      <c r="K3" s="61" t="s">
+      <c r="I3" s="62"/>
+      <c r="K3" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
-      <c r="AB3" s="65" t="s">
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AB3" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
     </row>
     <row r="4" spans="2:32" ht="18" customHeight="1" thickBot="1">
       <c r="D4" s="11"/>
@@ -4048,18 +4380,18 @@
       <c r="AB4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD4" s="67"/>
-      <c r="AE4" s="67"/>
-      <c r="AF4" s="67"/>
+      <c r="AC4" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
     </row>
     <row r="5" spans="2:32">
       <c r="K5" s="23">
         <v>1</v>
       </c>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="64" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="23">
@@ -4132,7 +4464,7 @@
       <c r="K6" s="12">
         <v>2</v>
       </c>
-      <c r="L6" s="63"/>
+      <c r="L6" s="64"/>
       <c r="M6" s="12">
         <v>2</v>
       </c>
@@ -4203,7 +4535,7 @@
       <c r="K7" s="12">
         <v>3</v>
       </c>
-      <c r="L7" s="63"/>
+      <c r="L7" s="64"/>
       <c r="M7" s="12">
         <v>3</v>
       </c>
@@ -4274,7 +4606,7 @@
       <c r="K8" s="12">
         <v>4</v>
       </c>
-      <c r="L8" s="63"/>
+      <c r="L8" s="64"/>
       <c r="M8" s="12">
         <v>4</v>
       </c>
@@ -4342,22 +4674,22 @@
       </c>
     </row>
     <row r="9" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="E9" s="61" t="s">
+      <c r="C9" s="62"/>
+      <c r="E9" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="H9" s="61" t="s">
+      <c r="F9" s="62"/>
+      <c r="H9" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="61"/>
+      <c r="I9" s="62"/>
       <c r="K9" s="12">
         <v>5</v>
       </c>
-      <c r="L9" s="63"/>
+      <c r="L9" s="64"/>
       <c r="M9" s="12">
         <v>5</v>
       </c>
@@ -4431,7 +4763,7 @@
       <c r="K10" s="12">
         <v>6</v>
       </c>
-      <c r="L10" s="63"/>
+      <c r="L10" s="64"/>
       <c r="M10" s="12">
         <v>6</v>
       </c>
@@ -4501,7 +4833,7 @@
       <c r="K11" s="12">
         <v>7</v>
       </c>
-      <c r="L11" s="63"/>
+      <c r="L11" s="64"/>
       <c r="M11" s="12">
         <v>7</v>
       </c>
@@ -4558,7 +4890,7 @@
         <v>https://finance.naver.com/item/main.naver?code=097230</v>
       </c>
       <c r="AB11" s="44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC11" s="44"/>
       <c r="AD11" s="44"/>
@@ -4571,7 +4903,7 @@
       <c r="K12" s="12">
         <v>8</v>
       </c>
-      <c r="L12" s="63"/>
+      <c r="L12" s="64"/>
       <c r="M12" s="12">
         <v>8</v>
       </c>
@@ -4641,7 +4973,7 @@
       <c r="K13" s="12">
         <v>9</v>
       </c>
-      <c r="L13" s="63"/>
+      <c r="L13" s="64"/>
       <c r="M13" s="12">
         <v>9</v>
       </c>
@@ -4711,7 +5043,7 @@
       <c r="K14" s="12">
         <v>10</v>
       </c>
-      <c r="L14" s="64"/>
+      <c r="L14" s="65"/>
       <c r="M14" s="12">
         <v>10</v>
       </c>
@@ -4778,22 +5110,22 @@
       </c>
     </row>
     <row r="15" spans="2:32" ht="17.25" thickBot="1">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="E15" s="61" t="s">
+      <c r="C15" s="62"/>
+      <c r="E15" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="61"/>
-      <c r="H15" s="61" t="s">
+      <c r="F15" s="62"/>
+      <c r="H15" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="61"/>
+      <c r="I15" s="62"/>
       <c r="K15" s="12">
         <v>11</v>
       </c>
-      <c r="L15" s="62" t="s">
+      <c r="L15" s="63" t="s">
         <v>4</v>
       </c>
       <c r="M15" s="12">
@@ -4851,16 +5183,16 @@
         <f>KOSDAQ!C7</f>
         <v>https://finance.naver.com/item/main.naver?code=448280</v>
       </c>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="66"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="67"/>
       <c r="AF15" s="33"/>
     </row>
     <row r="16" spans="2:32" ht="17.25" thickBot="1">
       <c r="K16" s="12">
         <v>12</v>
       </c>
-      <c r="L16" s="63"/>
+      <c r="L16" s="64"/>
       <c r="M16" s="12">
         <v>2</v>
       </c>
@@ -4916,21 +5248,21 @@
         <f>KOSDAQ!C8</f>
         <v>https://finance.naver.com/item/main.naver?code=227100</v>
       </c>
-      <c r="AB16" s="65" t="s">
+      <c r="AB16" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="AC16" s="65"/>
+      <c r="AC16" s="66"/>
       <c r="AD16" s="16"/>
-      <c r="AE16" s="65" t="s">
+      <c r="AE16" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="AF16" s="65"/>
+      <c r="AF16" s="66"/>
     </row>
     <row r="17" spans="1:33" ht="17.25" thickBot="1">
       <c r="K17" s="12">
         <v>13</v>
       </c>
-      <c r="L17" s="63"/>
+      <c r="L17" s="64"/>
       <c r="M17" s="12">
         <v>3</v>
       </c>
@@ -5004,7 +5336,7 @@
       <c r="K18" s="12">
         <v>14</v>
       </c>
-      <c r="L18" s="63"/>
+      <c r="L18" s="64"/>
       <c r="M18" s="12">
         <v>4</v>
       </c>
@@ -5076,7 +5408,7 @@
       <c r="K19" s="12">
         <v>15</v>
       </c>
-      <c r="L19" s="63"/>
+      <c r="L19" s="64"/>
       <c r="M19" s="12">
         <v>5</v>
       </c>
@@ -5144,7 +5476,7 @@
       <c r="K20" s="12">
         <v>16</v>
       </c>
-      <c r="L20" s="63"/>
+      <c r="L20" s="64"/>
       <c r="M20" s="12">
         <v>6</v>
       </c>
@@ -5209,22 +5541,22 @@
       </c>
     </row>
     <row r="21" spans="1:33" ht="17.25" thickBot="1">
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="E21" s="61" t="s">
+      <c r="C21" s="62"/>
+      <c r="E21" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="61"/>
-      <c r="H21" s="61" t="s">
+      <c r="F21" s="62"/>
+      <c r="H21" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="61"/>
+      <c r="I21" s="62"/>
       <c r="K21" s="12">
         <v>17</v>
       </c>
-      <c r="L21" s="63"/>
+      <c r="L21" s="64"/>
       <c r="M21" s="12">
         <v>7</v>
       </c>
@@ -5285,7 +5617,7 @@
       <c r="K22" s="12">
         <v>18</v>
       </c>
-      <c r="L22" s="63"/>
+      <c r="L22" s="64"/>
       <c r="M22" s="12">
         <v>8</v>
       </c>
@@ -5341,16 +5673,16 @@
         <f>KOSDAQ!C14</f>
         <v>https://finance.naver.com/item/main.naver?code=031860</v>
       </c>
-      <c r="AE22" s="65" t="s">
+      <c r="AE22" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="AF22" s="65"/>
+      <c r="AF22" s="66"/>
     </row>
     <row r="23" spans="1:33" ht="17.25" thickBot="1">
       <c r="K23" s="12">
         <v>19</v>
       </c>
-      <c r="L23" s="63"/>
+      <c r="L23" s="64"/>
       <c r="M23" s="12">
         <v>9</v>
       </c>
@@ -5417,7 +5749,7 @@
       <c r="K24" s="12">
         <v>20</v>
       </c>
-      <c r="L24" s="64"/>
+      <c r="L24" s="65"/>
       <c r="M24" s="12">
         <v>10</v>
       </c>
@@ -5510,44 +5842,44 @@
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
-      <c r="K27" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="61"/>
-      <c r="V27" s="61"/>
-      <c r="W27" s="61"/>
-      <c r="X27" s="61"/>
-      <c r="Y27" s="61"/>
-      <c r="Z27" s="61"/>
-      <c r="AB27" s="65" t="s">
+      <c r="K27" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AB27" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="65"/>
-      <c r="AE27" s="65"/>
-      <c r="AF27" s="65"/>
+      <c r="AC27" s="66"/>
+      <c r="AD27" s="66"/>
+      <c r="AE27" s="66"/>
+      <c r="AF27" s="66"/>
     </row>
     <row r="28" spans="1:33" ht="17.25" thickBot="1">
-      <c r="K28" s="61" t="s">
+      <c r="K28" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61" t="s">
+      <c r="L28" s="62"/>
+      <c r="M28" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
       <c r="T28" s="22"/>
@@ -5582,19 +5914,19 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="60">
+      <c r="K29" s="61">
         <f>주요뉴스!E4</f>
         <v>0</v>
       </c>
-      <c r="L29" s="60"/>
-      <c r="M29" s="59">
+      <c r="L29" s="61"/>
+      <c r="M29" s="60">
         <f>주요뉴스!C4</f>
         <v>0</v>
       </c>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
       <c r="R29" s="25"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
@@ -5610,30 +5942,30 @@
       <c r="AA29" s="26"/>
       <c r="AB29" s="25">
         <f>종목별이슈!A2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29" s="25"/>
       <c r="AD29" s="25"/>
-      <c r="AE29" s="26">
+      <c r="AE29" s="26" t="str">
         <f>종목별이슈!D2</f>
-        <v>0</v>
+        <v>뉴스공시</v>
       </c>
       <c r="AF29" s="26"/>
     </row>
     <row r="30" spans="1:33">
-      <c r="K30" s="60">
+      <c r="K30" s="61">
         <f>주요뉴스!E5</f>
         <v>0</v>
       </c>
-      <c r="L30" s="60"/>
-      <c r="M30" s="59">
+      <c r="L30" s="61"/>
+      <c r="M30" s="60">
         <f>주요뉴스!C5</f>
         <v>0</v>
       </c>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
       <c r="R30" s="25"/>
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
@@ -5649,31 +5981,31 @@
       <c r="AA30" s="26"/>
       <c r="AB30" s="25">
         <f>종목별이슈!A3</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC30" s="25"/>
       <c r="AD30" s="25"/>
-      <c r="AE30" s="26">
+      <c r="AE30" s="26" t="str">
         <f>종목별이슈!D3</f>
-        <v>0</v>
+        <v>뉴스공시</v>
       </c>
       <c r="AF30" s="26"/>
       <c r="AG30" s="26"/>
     </row>
     <row r="31" spans="1:33">
-      <c r="K31" s="60">
+      <c r="K31" s="61">
         <f>주요뉴스!E6</f>
         <v>0</v>
       </c>
-      <c r="L31" s="60"/>
-      <c r="M31" s="59">
+      <c r="L31" s="61"/>
+      <c r="M31" s="60">
         <f>주요뉴스!C6</f>
         <v>0</v>
       </c>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="60"/>
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
       <c r="T31" s="25"/>
@@ -5687,33 +6019,33 @@
         <v/>
       </c>
       <c r="AA31" s="26"/>
-      <c r="AB31" s="60">
+      <c r="AB31" s="61">
         <f>종목별이슈!A5</f>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="60"/>
-      <c r="AD31" s="60"/>
-      <c r="AE31" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="61"/>
+      <c r="AD31" s="61"/>
+      <c r="AE31" s="26" t="str">
         <f>종목별이슈!D5</f>
-        <v>0</v>
+        <v>뉴스공시</v>
       </c>
       <c r="AF31" s="26"/>
       <c r="AG31" s="26"/>
     </row>
     <row r="32" spans="1:33">
-      <c r="K32" s="60">
+      <c r="K32" s="61">
         <f>주요뉴스!E7</f>
         <v>0</v>
       </c>
-      <c r="L32" s="60"/>
-      <c r="M32" s="59">
+      <c r="L32" s="61"/>
+      <c r="M32" s="60">
         <f>주요뉴스!C7</f>
         <v>0</v>
       </c>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
       <c r="T32" s="25"/>
@@ -5727,33 +6059,33 @@
         <v/>
       </c>
       <c r="AA32" s="26"/>
-      <c r="AB32" s="60">
+      <c r="AB32" s="61">
         <f>종목별이슈!A6</f>
-        <v>0</v>
-      </c>
-      <c r="AC32" s="60"/>
-      <c r="AD32" s="60"/>
-      <c r="AE32" s="26">
+        <v>2</v>
+      </c>
+      <c r="AC32" s="61"/>
+      <c r="AD32" s="61"/>
+      <c r="AE32" s="26" t="str">
         <f>종목별이슈!D6</f>
-        <v>0</v>
+        <v>뉴스공시</v>
       </c>
       <c r="AF32" s="26"/>
       <c r="AG32" s="26"/>
     </row>
     <row r="33" spans="1:33">
-      <c r="K33" s="60">
+      <c r="K33" s="61">
         <f>주요뉴스!E8</f>
         <v>0</v>
       </c>
-      <c r="L33" s="60"/>
-      <c r="M33" s="59">
+      <c r="L33" s="61"/>
+      <c r="M33" s="60">
         <f>주요뉴스!C8</f>
         <v>0</v>
       </c>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="60"/>
       <c r="R33" s="25"/>
       <c r="S33" s="25"/>
       <c r="T33" s="25"/>
@@ -5767,33 +6099,33 @@
         <v/>
       </c>
       <c r="AA33" s="26"/>
-      <c r="AB33" s="60">
+      <c r="AB33" s="61">
         <f>종목별이슈!A7</f>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="60"/>
-      <c r="AD33" s="60"/>
-      <c r="AE33" s="26">
+        <v>3</v>
+      </c>
+      <c r="AC33" s="61"/>
+      <c r="AD33" s="61"/>
+      <c r="AE33" s="26" t="str">
         <f>종목별이슈!D7</f>
-        <v>0</v>
+        <v>뉴스공시</v>
       </c>
       <c r="AF33" s="26"/>
       <c r="AG33" s="26"/>
     </row>
     <row r="34" spans="1:33">
-      <c r="K34" s="60">
+      <c r="K34" s="61">
         <f>주요뉴스!E9</f>
         <v>0</v>
       </c>
-      <c r="L34" s="60"/>
-      <c r="M34" s="59">
+      <c r="L34" s="61"/>
+      <c r="M34" s="60">
         <f>주요뉴스!C9</f>
         <v>0</v>
       </c>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
       <c r="T34" s="25"/>
@@ -5807,33 +6139,33 @@
         <v/>
       </c>
       <c r="AA34" s="26"/>
-      <c r="AB34" s="60">
+      <c r="AB34" s="61">
         <f>종목별이슈!A8</f>
-        <v>0</v>
-      </c>
-      <c r="AC34" s="60"/>
-      <c r="AD34" s="60"/>
-      <c r="AE34" s="26">
+        <v>4</v>
+      </c>
+      <c r="AC34" s="61"/>
+      <c r="AD34" s="61"/>
+      <c r="AE34" s="26" t="str">
         <f>종목별이슈!D8</f>
-        <v>0</v>
+        <v>뉴스공시</v>
       </c>
       <c r="AF34" s="26"/>
       <c r="AG34" s="26"/>
     </row>
     <row r="35" spans="1:33">
-      <c r="K35" s="60">
+      <c r="K35" s="61">
         <f>주요뉴스!E10</f>
         <v>0</v>
       </c>
-      <c r="L35" s="60"/>
-      <c r="M35" s="59">
+      <c r="L35" s="61"/>
+      <c r="M35" s="60">
         <f>주요뉴스!C10</f>
         <v>0</v>
       </c>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
       <c r="T35" s="25"/>
@@ -5847,33 +6179,33 @@
         <v/>
       </c>
       <c r="AA35" s="26"/>
-      <c r="AB35" s="60">
+      <c r="AB35" s="61">
         <f>종목별이슈!A9</f>
-        <v>0</v>
-      </c>
-      <c r="AC35" s="60"/>
-      <c r="AD35" s="60"/>
-      <c r="AE35" s="26">
+        <v>5</v>
+      </c>
+      <c r="AC35" s="61"/>
+      <c r="AD35" s="61"/>
+      <c r="AE35" s="26" t="str">
         <f>종목별이슈!D9</f>
-        <v>0</v>
+        <v>뉴스공시</v>
       </c>
       <c r="AF35" s="26"/>
       <c r="AG35" s="26"/>
     </row>
     <row r="36" spans="1:33">
-      <c r="K36" s="60">
+      <c r="K36" s="61">
         <f>주요뉴스!E11</f>
         <v>0</v>
       </c>
-      <c r="L36" s="60"/>
-      <c r="M36" s="59">
+      <c r="L36" s="61"/>
+      <c r="M36" s="60">
         <f>주요뉴스!C11</f>
         <v>0</v>
       </c>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
       <c r="R36" s="25"/>
       <c r="S36" s="25"/>
       <c r="T36" s="25"/>
@@ -5887,33 +6219,33 @@
         <v/>
       </c>
       <c r="AA36" s="26"/>
-      <c r="AB36" s="60">
+      <c r="AB36" s="61">
         <f>종목별이슈!A10</f>
-        <v>0</v>
-      </c>
-      <c r="AC36" s="60"/>
-      <c r="AD36" s="60"/>
-      <c r="AE36" s="26">
+        <v>6</v>
+      </c>
+      <c r="AC36" s="61"/>
+      <c r="AD36" s="61"/>
+      <c r="AE36" s="26" t="str">
         <f>종목별이슈!D10</f>
-        <v>0</v>
+        <v>뉴스공시</v>
       </c>
       <c r="AF36" s="26"/>
       <c r="AG36" s="26"/>
     </row>
     <row r="37" spans="1:33">
-      <c r="K37" s="60">
+      <c r="K37" s="61">
         <f>주요뉴스!E12</f>
         <v>0</v>
       </c>
-      <c r="L37" s="60"/>
-      <c r="M37" s="59">
+      <c r="L37" s="61"/>
+      <c r="M37" s="60">
         <f>주요뉴스!C12</f>
         <v>0</v>
       </c>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60"/>
       <c r="R37" s="25"/>
       <c r="S37" s="25"/>
       <c r="T37" s="25"/>
@@ -5927,34 +6259,34 @@
         <v/>
       </c>
       <c r="AA37" s="26"/>
-      <c r="AB37" s="60">
+      <c r="AB37" s="61">
         <f>종목별이슈!A11</f>
-        <v>0</v>
-      </c>
-      <c r="AC37" s="60"/>
-      <c r="AD37" s="60"/>
-      <c r="AE37" s="26">
+        <v>7</v>
+      </c>
+      <c r="AC37" s="61"/>
+      <c r="AD37" s="61"/>
+      <c r="AE37" s="26" t="str">
         <f>종목별이슈!D11</f>
-        <v>0</v>
+        <v>뉴스공시</v>
       </c>
       <c r="AF37" s="26"/>
       <c r="AG37" s="26"/>
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="20"/>
-      <c r="K38" s="60">
+      <c r="K38" s="61">
         <f>주요뉴스!E13</f>
         <v>0</v>
       </c>
-      <c r="L38" s="60"/>
-      <c r="M38" s="59">
+      <c r="L38" s="61"/>
+      <c r="M38" s="60">
         <f>주요뉴스!C13</f>
         <v>0</v>
       </c>
-      <c r="N38" s="59"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
+      <c r="N38" s="60"/>
+      <c r="O38" s="60"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="60"/>
       <c r="R38" s="25"/>
       <c r="S38" s="25"/>
       <c r="T38" s="25"/>
@@ -5968,34 +6300,34 @@
         <v/>
       </c>
       <c r="AA38" s="26"/>
-      <c r="AB38" s="60">
+      <c r="AB38" s="61">
         <f>종목별이슈!A12</f>
-        <v>0</v>
-      </c>
-      <c r="AC38" s="60"/>
-      <c r="AD38" s="60"/>
-      <c r="AE38" s="26">
+        <v>8</v>
+      </c>
+      <c r="AC38" s="61"/>
+      <c r="AD38" s="61"/>
+      <c r="AE38" s="26" t="str">
         <f>종목별이슈!D12</f>
-        <v>0</v>
+        <v>뉴스공시</v>
       </c>
       <c r="AF38" s="26"/>
       <c r="AG38" s="26"/>
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="21"/>
-      <c r="K39" s="60">
+      <c r="K39" s="61">
         <f>주요뉴스!E14</f>
         <v>0</v>
       </c>
-      <c r="L39" s="60"/>
-      <c r="M39" s="59">
+      <c r="L39" s="61"/>
+      <c r="M39" s="60">
         <f>주요뉴스!C14</f>
         <v>0</v>
       </c>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
+      <c r="N39" s="60"/>
+      <c r="O39" s="60"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="60"/>
       <c r="R39" s="25"/>
       <c r="S39" s="25"/>
       <c r="T39" s="25"/>
@@ -6009,34 +6341,34 @@
         <v/>
       </c>
       <c r="AA39" s="26"/>
-      <c r="AB39" s="60">
+      <c r="AB39" s="61">
         <f>종목별이슈!A13</f>
-        <v>0</v>
-      </c>
-      <c r="AC39" s="60"/>
-      <c r="AD39" s="60"/>
-      <c r="AE39" s="26">
+        <v>9</v>
+      </c>
+      <c r="AC39" s="61"/>
+      <c r="AD39" s="61"/>
+      <c r="AE39" s="26" t="str">
         <f>종목별이슈!D13</f>
-        <v>0</v>
+        <v>뉴스공시</v>
       </c>
       <c r="AF39" s="26"/>
       <c r="AG39" s="26"/>
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="21"/>
-      <c r="K40" s="60">
+      <c r="K40" s="61">
         <f>주요뉴스!E15</f>
         <v>0</v>
       </c>
-      <c r="L40" s="60"/>
-      <c r="M40" s="59">
+      <c r="L40" s="61"/>
+      <c r="M40" s="60">
         <f>주요뉴스!C15</f>
         <v>0</v>
       </c>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="60"/>
       <c r="R40" s="25"/>
       <c r="S40" s="25"/>
       <c r="T40" s="25"/>
@@ -6050,34 +6382,34 @@
         <v/>
       </c>
       <c r="AA40" s="26"/>
-      <c r="AB40" s="60">
+      <c r="AB40" s="61">
         <f>종목별이슈!A14</f>
-        <v>0</v>
-      </c>
-      <c r="AC40" s="60"/>
-      <c r="AD40" s="60"/>
-      <c r="AE40" s="26">
+        <v>10</v>
+      </c>
+      <c r="AC40" s="61"/>
+      <c r="AD40" s="61"/>
+      <c r="AE40" s="26" t="str">
         <f>종목별이슈!D14</f>
-        <v>0</v>
+        <v>뉴스공시</v>
       </c>
       <c r="AF40" s="26"/>
       <c r="AG40" s="26"/>
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="21"/>
-      <c r="K41" s="60">
+      <c r="K41" s="61">
         <f>주요뉴스!E16</f>
         <v>0</v>
       </c>
-      <c r="L41" s="60"/>
-      <c r="M41" s="59">
+      <c r="L41" s="61"/>
+      <c r="M41" s="60">
         <f>주요뉴스!C16</f>
         <v>0</v>
       </c>
-      <c r="N41" s="59"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="60"/>
       <c r="R41" s="25"/>
       <c r="S41" s="25"/>
       <c r="T41" s="25"/>
@@ -6091,34 +6423,34 @@
         <v/>
       </c>
       <c r="AA41" s="26"/>
-      <c r="AB41" s="60">
+      <c r="AB41" s="61">
         <f>종목별이슈!A15</f>
-        <v>0</v>
-      </c>
-      <c r="AC41" s="60"/>
-      <c r="AD41" s="60"/>
-      <c r="AE41" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="61"/>
+      <c r="AD41" s="61"/>
+      <c r="AE41" s="26" t="str">
         <f>종목별이슈!D15</f>
-        <v>0</v>
+        <v>전자공시</v>
       </c>
       <c r="AF41" s="26"/>
       <c r="AG41" s="26"/>
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="21"/>
-      <c r="K42" s="60">
+      <c r="K42" s="61">
         <f>주요뉴스!E17</f>
         <v>0</v>
       </c>
-      <c r="L42" s="60"/>
-      <c r="M42" s="59">
+      <c r="L42" s="61"/>
+      <c r="M42" s="60">
         <f>주요뉴스!C17</f>
         <v>0</v>
       </c>
-      <c r="N42" s="59"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60"/>
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
       <c r="T42" s="25"/>
@@ -6132,15 +6464,15 @@
         <v/>
       </c>
       <c r="AA42" s="26"/>
-      <c r="AB42" s="60">
+      <c r="AB42" s="61">
         <f>종목별이슈!A16</f>
-        <v>0</v>
-      </c>
-      <c r="AC42" s="60"/>
-      <c r="AD42" s="60"/>
-      <c r="AE42" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="61"/>
+      <c r="AD42" s="61"/>
+      <c r="AE42" s="26" t="str">
         <f>종목별이슈!D16</f>
-        <v>0</v>
+        <v>뉴스공시</v>
       </c>
       <c r="AF42" s="26"/>
       <c r="AG42" s="26"/>
@@ -6156,19 +6488,19 @@
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
-      <c r="K43" s="60">
+      <c r="K43" s="61">
         <f>주요뉴스!E18</f>
         <v>0</v>
       </c>
-      <c r="L43" s="60"/>
-      <c r="M43" s="59">
+      <c r="L43" s="61"/>
+      <c r="M43" s="60">
         <f>주요뉴스!C18</f>
         <v>0</v>
       </c>
-      <c r="N43" s="59"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="60"/>
       <c r="R43" s="25"/>
       <c r="S43" s="25"/>
       <c r="T43" s="25"/>
@@ -6182,33 +6514,33 @@
         <v/>
       </c>
       <c r="AA43" s="26"/>
-      <c r="AB43" s="60">
+      <c r="AB43" s="61">
         <f>종목별이슈!A17</f>
-        <v>0</v>
-      </c>
-      <c r="AC43" s="60"/>
-      <c r="AD43" s="60"/>
-      <c r="AE43" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="61"/>
+      <c r="AD43" s="61"/>
+      <c r="AE43" s="26" t="str">
         <f>종목별이슈!D17</f>
-        <v>0</v>
+        <v>뉴스공시</v>
       </c>
       <c r="AF43" s="26"/>
       <c r="AG43" s="26"/>
     </row>
     <row r="44" spans="1:33">
-      <c r="K44" s="60">
+      <c r="K44" s="61">
         <f>주요뉴스!E19</f>
         <v>0</v>
       </c>
-      <c r="L44" s="60"/>
-      <c r="M44" s="59">
+      <c r="L44" s="61"/>
+      <c r="M44" s="60">
         <f>주요뉴스!C19</f>
         <v>0</v>
       </c>
-      <c r="N44" s="59"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
+      <c r="N44" s="60"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="60"/>
       <c r="R44" s="25"/>
       <c r="S44" s="25"/>
       <c r="T44" s="25"/>
@@ -6222,33 +6554,33 @@
         <v/>
       </c>
       <c r="AA44" s="26"/>
-      <c r="AB44" s="60">
+      <c r="AB44" s="61">
         <f>종목별이슈!A18</f>
-        <v>0</v>
-      </c>
-      <c r="AC44" s="60"/>
-      <c r="AD44" s="60"/>
-      <c r="AE44" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="61"/>
+      <c r="AD44" s="61"/>
+      <c r="AE44" s="26" t="str">
         <f>종목별이슈!D18</f>
-        <v>0</v>
+        <v>뉴스공시</v>
       </c>
       <c r="AF44" s="26"/>
       <c r="AG44" s="26"/>
     </row>
     <row r="45" spans="1:33">
-      <c r="K45" s="60">
+      <c r="K45" s="61">
         <f>주요뉴스!E20</f>
         <v>0</v>
       </c>
-      <c r="L45" s="60"/>
-      <c r="M45" s="59">
+      <c r="L45" s="61"/>
+      <c r="M45" s="60">
         <f>주요뉴스!C20</f>
         <v>0</v>
       </c>
-      <c r="N45" s="59"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="60"/>
+      <c r="P45" s="60"/>
+      <c r="Q45" s="60"/>
       <c r="R45" s="25"/>
       <c r="S45" s="25"/>
       <c r="T45" s="25"/>
@@ -6262,33 +6594,33 @@
         <v/>
       </c>
       <c r="AA45" s="26"/>
-      <c r="AB45" s="60">
+      <c r="AB45" s="61">
         <f>종목별이슈!A19</f>
-        <v>0</v>
-      </c>
-      <c r="AC45" s="60"/>
-      <c r="AD45" s="60"/>
-      <c r="AE45" s="26">
+        <v>2</v>
+      </c>
+      <c r="AC45" s="61"/>
+      <c r="AD45" s="61"/>
+      <c r="AE45" s="26" t="str">
         <f>종목별이슈!D19</f>
-        <v>0</v>
+        <v>뉴스공시</v>
       </c>
       <c r="AF45" s="26"/>
       <c r="AG45" s="26"/>
     </row>
     <row r="46" spans="1:33" ht="18" customHeight="1">
-      <c r="K46" s="60">
+      <c r="K46" s="61">
         <f>주요뉴스!E21</f>
         <v>0</v>
       </c>
-      <c r="L46" s="60"/>
-      <c r="M46" s="59">
+      <c r="L46" s="61"/>
+      <c r="M46" s="60">
         <f>주요뉴스!C21</f>
         <v>0</v>
       </c>
-      <c r="N46" s="59"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
+      <c r="N46" s="60"/>
+      <c r="O46" s="60"/>
+      <c r="P46" s="60"/>
+      <c r="Q46" s="60"/>
       <c r="R46" s="25"/>
       <c r="S46" s="25"/>
       <c r="T46" s="25"/>
@@ -6302,33 +6634,33 @@
         <v/>
       </c>
       <c r="AA46" s="26"/>
-      <c r="AB46" s="60">
+      <c r="AB46" s="61">
         <f>종목별이슈!A20</f>
-        <v>0</v>
-      </c>
-      <c r="AC46" s="60"/>
-      <c r="AD46" s="60"/>
-      <c r="AE46" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="61"/>
+      <c r="AD46" s="61"/>
+      <c r="AE46" s="26" t="str">
         <f>종목별이슈!D20</f>
-        <v>0</v>
+        <v>전자공시</v>
       </c>
       <c r="AF46" s="26"/>
       <c r="AG46" s="26"/>
     </row>
     <row r="47" spans="1:33">
-      <c r="K47" s="60">
+      <c r="K47" s="61">
         <f>주요뉴스!E22</f>
         <v>0</v>
       </c>
-      <c r="L47" s="60"/>
-      <c r="M47" s="59">
+      <c r="L47" s="61"/>
+      <c r="M47" s="60">
         <f>주요뉴스!C22</f>
         <v>0</v>
       </c>
-      <c r="N47" s="59"/>
-      <c r="O47" s="59"/>
-      <c r="P47" s="59"/>
-      <c r="Q47" s="59"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="60"/>
+      <c r="P47" s="60"/>
+      <c r="Q47" s="60"/>
       <c r="R47" s="25"/>
       <c r="S47" s="25"/>
       <c r="T47" s="25"/>
@@ -6342,36 +6674,36 @@
         <v/>
       </c>
       <c r="AA47" s="26"/>
-      <c r="AB47" s="60">
+      <c r="AB47" s="61">
         <f>종목별이슈!A21</f>
-        <v>0</v>
-      </c>
-      <c r="AC47" s="60"/>
-      <c r="AD47" s="60"/>
-      <c r="AE47" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="61"/>
+      <c r="AD47" s="61"/>
+      <c r="AE47" s="26" t="str">
         <f>종목별이슈!D21</f>
-        <v>0</v>
+        <v>뉴스공시</v>
       </c>
       <c r="AF47" s="26"/>
       <c r="AG47" s="26"/>
     </row>
     <row r="48" spans="1:33">
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="61"/>
       <c r="M48" s="26"/>
-      <c r="N48" s="60"/>
-      <c r="O48" s="60"/>
-      <c r="P48" s="60"/>
-      <c r="Q48" s="60"/>
-      <c r="R48" s="60"/>
-      <c r="S48" s="60"/>
-      <c r="T48" s="60"/>
-      <c r="U48" s="60"/>
-      <c r="V48" s="60"/>
-      <c r="W48" s="60"/>
-      <c r="X48" s="60"/>
-      <c r="Y48" s="60"/>
-      <c r="Z48" s="60"/>
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="61"/>
+      <c r="T48" s="61"/>
+      <c r="U48" s="61"/>
+      <c r="V48" s="61"/>
+      <c r="W48" s="61"/>
+      <c r="X48" s="61"/>
+      <c r="Y48" s="61"/>
+      <c r="Z48" s="61"/>
       <c r="AA48" s="26"/>
       <c r="AG48" s="26"/>
     </row>
@@ -6491,155 +6823,155 @@
   <sheetData>
     <row r="1" spans="1:5" s="58" customFormat="1" ht="21" thickBot="1">
       <c r="A1" s="53" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B1" s="53" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="45" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="45" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B3" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="45" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B4" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="45" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B5" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="45" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B6" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="45" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="45" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B8" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="45" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B9" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -6667,86 +6999,86 @@
   <sheetData>
     <row r="1" spans="1:4" s="58" customFormat="1" ht="21" thickBot="1">
       <c r="A1" s="53" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6838,43 +7170,43 @@
   <sheetData>
     <row r="1" spans="1:14" ht="46.9" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1"/>
     </row>
@@ -6883,16 +7215,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2">
         <v>1236</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F2" s="30">
         <v>0.29970000000000002</v>
@@ -6924,16 +7256,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2">
         <v>20000</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F3" s="30">
         <v>0.29949999999999999</v>
@@ -6965,16 +7297,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2">
         <v>5580</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F4" s="30">
         <v>0.29920000000000002</v>
@@ -6986,7 +7318,7 @@
         <v>69</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="J4" s="2">
         <v>0.52</v>
@@ -6995,7 +7327,7 @@
         <v>-0.38</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M4" s="3">
         <v>0.24</v>
@@ -7006,16 +7338,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2">
         <v>8870</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F5" s="30">
         <v>0.29870000000000002</v>
@@ -7027,16 +7359,16 @@
         <v>218</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="J5" s="2">
         <v>0.01</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M5" s="3">
         <v>3.07</v>
@@ -7047,16 +7379,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2">
         <v>21400</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F6" s="30">
         <v>0.29849999999999999</v>
@@ -7068,7 +7400,7 @@
         <v>66</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="J6" s="2">
         <v>0.18</v>
@@ -7077,7 +7409,7 @@
         <v>237.78</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M6" s="3">
         <v>8.66</v>
@@ -7088,16 +7420,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2">
         <v>1700</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F7" s="30">
         <v>0.19719999999999999</v>
@@ -7129,16 +7461,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2">
         <v>5850</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F8" s="30">
         <v>0.12720000000000001</v>
@@ -7170,16 +7502,16 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2">
         <v>699</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F9" s="30">
         <v>9.9099999999999994E-2</v>
@@ -7211,16 +7543,16 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2">
         <v>1540</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F10" s="30">
         <v>8.3699999999999997E-2</v>
@@ -7252,16 +7584,16 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D11" s="2">
         <v>162000</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F11" s="30">
         <v>8.2199999999999995E-2</v>
@@ -7293,16 +7625,16 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2">
         <v>38150</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F12" s="30">
         <v>8.0699999999999994E-2</v>
@@ -7334,16 +7666,16 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D13" s="2">
         <v>1600</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F13" s="30">
         <v>7.8200000000000006E-2</v>
@@ -7375,16 +7707,16 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D14" s="2">
         <v>8380</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F14" s="30">
         <v>7.5700000000000003E-2</v>
@@ -7396,7 +7728,7 @@
         <v>26</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
@@ -7405,7 +7737,7 @@
         <v>-118.03</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M14" s="3">
         <v>2.06</v>
@@ -7416,16 +7748,16 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D15" s="2">
         <v>3360</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F15" s="30">
         <v>7.5200000000000003E-2</v>
@@ -7457,16 +7789,16 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D16" s="2">
         <v>13540</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F16" s="30">
         <v>7.2900000000000006E-2</v>
@@ -7498,16 +7830,16 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D17" s="2">
         <v>1400</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F17" s="30">
         <v>6.8699999999999997E-2</v>
@@ -7539,16 +7871,16 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D18" s="2">
         <v>1340</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F18" s="30">
         <v>6.7699999999999996E-2</v>
@@ -7580,16 +7912,16 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D19" s="2">
         <v>1585</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F19" s="30">
         <v>5.67E-2</v>
@@ -7621,16 +7953,16 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D20" s="2">
         <v>3075</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F20" s="30">
         <v>5.67E-2</v>
@@ -7662,16 +7994,16 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D21" s="2">
         <v>1965</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F21" s="30">
         <v>5.6500000000000002E-2</v>
@@ -7703,16 +8035,16 @@
         <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D22" s="2">
         <v>1500</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F22" s="30">
         <v>5.2600000000000001E-2</v>
@@ -7744,16 +8076,16 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D23" s="2">
         <v>652</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F23" s="30">
         <v>4.99E-2</v>
@@ -7785,16 +8117,16 @@
         <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D24" s="2">
         <v>3005</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F24" s="30">
         <v>4.1599999999999998E-2</v>
@@ -7826,16 +8158,16 @@
         <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D25" s="2">
         <v>33400</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F25" s="30">
         <v>3.5700000000000003E-2</v>
@@ -7867,16 +8199,16 @@
         <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D26" s="2">
         <v>2490</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F26" s="30">
         <v>3.5299999999999998E-2</v>
@@ -7908,16 +8240,16 @@
         <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D27" s="2">
         <v>8250</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F27" s="30">
         <v>3.3799999999999997E-2</v>
@@ -7949,16 +8281,16 @@
         <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D28" s="2">
         <v>12245</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F28" s="30">
         <v>3.3799999999999997E-2</v>
@@ -7970,19 +8302,19 @@
         <v>294</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="25.15" customHeight="1">
@@ -7990,16 +8322,16 @@
         <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D29" s="2">
         <v>23450</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F29" s="30">
         <v>3.3000000000000002E-2</v>
@@ -8031,16 +8363,16 @@
         <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D30" s="2">
         <v>1347</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F30" s="30">
         <v>3.3000000000000002E-2</v>
@@ -8072,16 +8404,16 @@
         <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D31" s="2">
         <v>16420</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F31" s="30">
         <v>3.27E-2</v>
@@ -8137,43 +8469,43 @@
   <sheetData>
     <row r="1" spans="1:14" ht="46.9" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1"/>
     </row>
@@ -8182,16 +8514,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2">
         <v>1816</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F2" s="30">
         <v>0.2999</v>
@@ -8223,16 +8555,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D3" s="2">
         <v>1536</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F3" s="30">
         <v>0.29949999999999999</v>
@@ -8264,16 +8596,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D4" s="2">
         <v>21400</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F4" s="30">
         <v>0.23699999999999999</v>
@@ -8305,16 +8637,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D5" s="2">
         <v>6100</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F5" s="30">
         <v>0.22489999999999999</v>
@@ -8346,16 +8678,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D6" s="2">
         <v>4250</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F6" s="30">
         <v>0.1822</v>
@@ -8387,16 +8719,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D7" s="2">
         <v>20050</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F7" s="30">
         <v>0.16300000000000001</v>
@@ -8428,16 +8760,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D8" s="2">
         <v>698</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F8" s="30">
         <v>0.14610000000000001</v>
@@ -8469,16 +8801,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D9" s="2">
         <v>17420</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F9" s="30">
         <v>0.14449999999999999</v>
@@ -8510,16 +8842,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D10" s="2">
         <v>9080</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F10" s="30">
         <v>0.13500000000000001</v>
@@ -8537,13 +8869,13 @@
         <v>0.34</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L10" s="3">
         <v>20.309999999999999</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="25.15" customHeight="1">
@@ -8551,16 +8883,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D11" s="2">
         <v>4560</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F11" s="30">
         <v>0.1108</v>
@@ -8592,16 +8924,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D12" s="2">
         <v>26950</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F12" s="30">
         <v>0.1045</v>
@@ -8633,16 +8965,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D13" s="2">
         <v>6070</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F13" s="30">
         <v>9.1700000000000004E-2</v>
@@ -8674,16 +9006,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D14" s="2">
         <v>1700</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F14" s="30">
         <v>8.9700000000000002E-2</v>
@@ -8715,16 +9047,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D15" s="2">
         <v>4590</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F15" s="30">
         <v>8.5099999999999995E-2</v>
@@ -8756,16 +9088,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D16" s="2">
         <v>1185</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F16" s="30">
         <v>7.7299999999999994E-2</v>
@@ -8797,16 +9129,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D17" s="2">
         <v>881</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F17" s="30">
         <v>7.5700000000000003E-2</v>
@@ -8838,16 +9170,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D18" s="2">
         <v>18760</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F18" s="30">
         <v>7.0199999999999999E-2</v>
@@ -8879,16 +9211,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D19" s="2">
         <v>9550</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F19" s="30">
         <v>6.8199999999999997E-2</v>
@@ -8920,16 +9252,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D20" s="2">
         <v>1117</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F20" s="30">
         <v>6.4799999999999996E-2</v>
@@ -8961,16 +9293,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D21" s="2">
         <v>21250</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F21" s="30">
         <v>6.4600000000000005E-2</v>
@@ -9002,16 +9334,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D22" s="2">
         <v>2030</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F22" s="30">
         <v>6.3399999999999998E-2</v>
@@ -9043,16 +9375,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D23" s="2">
         <v>1013</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F23" s="30">
         <v>6.0699999999999997E-2</v>
@@ -9084,16 +9416,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D24" s="2">
         <v>9610</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F24" s="30">
         <v>6.0699999999999997E-2</v>
@@ -9125,16 +9457,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D25" s="2">
         <v>15120</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F25" s="30">
         <v>6.0299999999999999E-2</v>
@@ -9166,16 +9498,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D26" s="2">
         <v>540</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F26" s="30">
         <v>5.8799999999999998E-2</v>
@@ -9207,16 +9539,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D27" s="2">
         <v>3240</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F27" s="30">
         <v>5.8799999999999998E-2</v>
@@ -9248,16 +9580,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D28" s="2">
         <v>15270</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F28" s="30">
         <v>5.8200000000000002E-2</v>
@@ -9289,16 +9621,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D29" s="2">
         <v>3380</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F29" s="30">
         <v>5.79E-2</v>
@@ -9330,16 +9662,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D30" s="2">
         <v>3050</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F30" s="30">
         <v>5.7200000000000001E-2</v>
@@ -9371,16 +9703,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D31" s="2">
         <v>1012</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F31" s="30">
         <v>5.3100000000000001E-2</v>
@@ -9431,28 +9763,28 @@
   <sheetData>
     <row r="1" spans="1:14" ht="46.9" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -9463,10 +9795,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C2" s="17">
         <v>2.69E-2</v>
@@ -9489,10 +9821,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C3" s="17">
         <v>1.9800000000000002E-2</v>
@@ -9515,10 +9847,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C4" s="17">
         <v>1.61E-2</v>
@@ -9541,10 +9873,10 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C5" s="17">
         <v>5.4000000000000003E-3</v>
@@ -9567,10 +9899,10 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C6" s="17">
         <v>5.3E-3</v>
@@ -9593,10 +9925,10 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C7" s="17">
         <v>2.0999999999999999E-3</v>
@@ -9619,10 +9951,10 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C8" s="17">
         <v>5.0000000000000001E-4</v>
@@ -9645,10 +9977,10 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C9" s="17">
         <v>-2.9999999999999997E-4</v>
@@ -9671,10 +10003,10 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C10" s="17">
         <v>-5.9999999999999995E-4</v>
@@ -9697,10 +10029,10 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C11" s="17">
         <v>-8.0000000000000004E-4</v>
@@ -9723,10 +10055,10 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C12" s="17">
         <v>-8.9999999999999998E-4</v>
@@ -9749,10 +10081,10 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C13" s="17">
         <v>-1.9E-3</v>
@@ -9775,10 +10107,10 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C14" s="17">
         <v>-2.3999999999999998E-3</v>
@@ -9801,10 +10133,10 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C15" s="17">
         <v>-3.0000000000000001E-3</v>
@@ -9827,10 +10159,10 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C16" s="17">
         <v>-3.5000000000000001E-3</v>
@@ -9853,10 +10185,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C17" s="17">
         <v>-3.8999999999999998E-3</v>
@@ -9879,10 +10211,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C18" s="17">
         <v>-4.4999999999999997E-3</v>
@@ -9905,10 +10237,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C19" s="17">
         <v>-4.8999999999999998E-3</v>
@@ -9931,10 +10263,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C20" s="17">
         <v>-5.3E-3</v>
@@ -9957,10 +10289,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C21" s="17">
         <v>-6.3E-3</v>
@@ -9983,10 +10315,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C22" s="17">
         <v>-6.3E-3</v>
@@ -10009,10 +10341,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C23" s="17">
         <v>-6.6E-3</v>
@@ -10035,10 +10367,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C24" s="17">
         <v>-6.7999999999999996E-3</v>
@@ -10061,10 +10393,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C25" s="17">
         <v>-6.7999999999999996E-3</v>
@@ -10087,10 +10419,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C26" s="17">
         <v>-7.7000000000000002E-3</v>
@@ -10113,10 +10445,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C27" s="17">
         <v>-8.9999999999999993E-3</v>
@@ -10139,10 +10471,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C28" s="17">
         <v>-9.4999999999999998E-3</v>
@@ -10165,10 +10497,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C29" s="17">
         <v>-9.7000000000000003E-3</v>
@@ -10191,10 +10523,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C30" s="17">
         <v>-9.9000000000000008E-3</v>
@@ -10217,10 +10549,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C31" s="17">
         <v>-1.04E-2</v>
@@ -10243,10 +10575,10 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C32" s="17">
         <v>-1.0500000000000001E-2</v>
@@ -10269,10 +10601,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C33" s="17">
         <v>-1.09E-2</v>
@@ -10295,10 +10627,10 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C34" s="17">
         <v>-1.0999999999999999E-2</v>
@@ -10321,10 +10653,10 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C35" s="17">
         <v>-1.14E-2</v>
@@ -10347,10 +10679,10 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C36" s="17">
         <v>-1.1599999999999999E-2</v>
@@ -10373,10 +10705,10 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C37" s="17">
         <v>-1.1900000000000001E-2</v>
@@ -10399,10 +10731,10 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C38" s="17">
         <v>-1.1900000000000001E-2</v>
@@ -10425,10 +10757,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C39" s="17">
         <v>-1.2200000000000001E-2</v>
@@ -10451,10 +10783,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C40" s="17">
         <v>-1.2699999999999999E-2</v>
@@ -10477,10 +10809,10 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C41" s="17">
         <v>-1.3100000000000001E-2</v>
@@ -10503,10 +10835,10 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C42" s="17">
         <v>-1.32E-2</v>
@@ -10529,10 +10861,10 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C43" s="17">
         <v>-1.3599999999999999E-2</v>
@@ -10555,10 +10887,10 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C44" s="17">
         <v>-1.4E-2</v>
@@ -10581,10 +10913,10 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C45" s="17">
         <v>-1.4200000000000001E-2</v>
@@ -10607,10 +10939,10 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C46" s="17">
         <v>-1.4800000000000001E-2</v>
@@ -10633,10 +10965,10 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C47" s="17">
         <v>-1.5299999999999999E-2</v>
@@ -10659,10 +10991,10 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C48" s="17">
         <v>-1.5299999999999999E-2</v>
@@ -10685,10 +11017,10 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C49" s="17">
         <v>-1.54E-2</v>
@@ -10711,10 +11043,10 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C50" s="17">
         <v>-1.55E-2</v>
@@ -10737,10 +11069,10 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C51" s="17">
         <v>-1.5599999999999999E-2</v>
@@ -10763,10 +11095,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C52" s="17">
         <v>-1.5800000000000002E-2</v>
@@ -10789,10 +11121,10 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C53" s="17">
         <v>-1.6299999999999999E-2</v>
@@ -10815,10 +11147,10 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C54" s="17">
         <v>-1.6500000000000001E-2</v>
@@ -10841,10 +11173,10 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C55" s="17">
         <v>-1.6799999999999999E-2</v>
@@ -10867,10 +11199,10 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C56" s="17">
         <v>-1.7000000000000001E-2</v>
@@ -10893,10 +11225,10 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C57" s="17">
         <v>-1.83E-2</v>
@@ -10919,10 +11251,10 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C58" s="17">
         <v>-1.8599999999999998E-2</v>
@@ -10945,10 +11277,10 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C59" s="17">
         <v>-1.9199999999999998E-2</v>
@@ -10971,10 +11303,10 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C60" s="17">
         <v>-0.02</v>
@@ -10997,10 +11329,10 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C61" s="17">
         <v>-2.0299999999999999E-2</v>
@@ -11023,10 +11355,10 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C62" s="17">
         <v>-2.06E-2</v>
@@ -11049,10 +11381,10 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C63" s="17">
         <v>-2.06E-2</v>
@@ -11075,10 +11407,10 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C64" s="17">
         <v>-2.07E-2</v>
@@ -11101,10 +11433,10 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C65" s="17">
         <v>-2.1100000000000001E-2</v>
@@ -11127,10 +11459,10 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C66" s="17">
         <v>-2.1299999999999999E-2</v>
@@ -11153,10 +11485,10 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C67" s="17">
         <v>-2.1499999999999998E-2</v>
@@ -11179,10 +11511,10 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C68" s="17">
         <v>-2.1999999999999999E-2</v>
@@ -11205,10 +11537,10 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C69" s="17">
         <v>-2.2800000000000001E-2</v>
@@ -11231,10 +11563,10 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C70" s="17">
         <v>-2.47E-2</v>
@@ -11257,10 +11589,10 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C71" s="17">
         <v>-2.5100000000000001E-2</v>
@@ -11283,10 +11615,10 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C72" s="17">
         <v>-2.6200000000000001E-2</v>
@@ -11309,10 +11641,10 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C73" s="17">
         <v>-2.6800000000000001E-2</v>
@@ -11335,10 +11667,10 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C74" s="17">
         <v>-2.7099999999999999E-2</v>
@@ -11361,10 +11693,10 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C75" s="17">
         <v>-2.7300000000000001E-2</v>
@@ -11387,10 +11719,10 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C76" s="17">
         <v>-2.9700000000000001E-2</v>
@@ -11413,10 +11745,10 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C77" s="17">
         <v>-3.5499999999999997E-2</v>
@@ -11439,10 +11771,10 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C78" s="17">
         <v>-3.5700000000000003E-2</v>
@@ -11465,10 +11797,10 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C79" s="17">
         <v>-5.5300000000000002E-2</v>
@@ -11491,10 +11823,10 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C80" s="17">
         <v>-8.8599999999999998E-2</v>
@@ -11544,24 +11876,24 @@
   <sheetData>
     <row r="1" spans="2:7" ht="31.5">
       <c r="D1" s="49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:7" s="54" customFormat="1" ht="21" thickBot="1">
       <c r="B3" s="55" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" s="56" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" s="57"/>
     </row>
@@ -17625,18 +17957,1495 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29D3AF0-C543-4FDA-916F-470C27FFA098}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.875" customWidth="1"/>
+    <col min="5" max="5" width="58.625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" s="59" customFormat="1" ht="21" thickBot="1">
+      <c r="A1" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E2" t="s">
+        <v>579</v>
+      </c>
+      <c r="F2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E3" t="s">
+        <v>582</v>
+      </c>
+      <c r="F3" t="s">
+        <v>583</v>
+      </c>
+      <c r="G3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>578</v>
+      </c>
+      <c r="E4" t="s">
+        <v>585</v>
+      </c>
+      <c r="F4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>578</v>
+      </c>
+      <c r="E5" t="s">
+        <v>588</v>
+      </c>
+      <c r="F5" t="s">
+        <v>589</v>
+      </c>
+      <c r="G5" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="33">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>578</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>577</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>578</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="F7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G7" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>577</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>578</v>
+      </c>
+      <c r="E8" t="s">
+        <v>596</v>
+      </c>
+      <c r="F8" t="s">
+        <v>597</v>
+      </c>
+      <c r="G8" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>577</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>578</v>
+      </c>
+      <c r="E9" t="s">
+        <v>599</v>
+      </c>
+      <c r="F9" t="s">
+        <v>600</v>
+      </c>
+      <c r="G9" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>577</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>578</v>
+      </c>
+      <c r="E10" t="s">
+        <v>602</v>
+      </c>
+      <c r="F10" t="s">
+        <v>603</v>
+      </c>
+      <c r="G10" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>577</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>578</v>
+      </c>
+      <c r="E11" t="s">
+        <v>605</v>
+      </c>
+      <c r="F11" t="s">
+        <v>606</v>
+      </c>
+      <c r="G11" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>577</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>578</v>
+      </c>
+      <c r="E12" t="s">
+        <v>608</v>
+      </c>
+      <c r="F12" t="s">
+        <v>603</v>
+      </c>
+      <c r="G12" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>577</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>578</v>
+      </c>
+      <c r="E13" t="s">
+        <v>579</v>
+      </c>
+      <c r="F13" t="s">
+        <v>580</v>
+      </c>
+      <c r="G13" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>577</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>578</v>
+      </c>
+      <c r="E14" t="s">
+        <v>610</v>
+      </c>
+      <c r="F14" t="s">
+        <v>583</v>
+      </c>
+      <c r="G14" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>577</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>612</v>
+      </c>
+      <c r="E15" t="s">
+        <v>613</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>577</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>578</v>
+      </c>
+      <c r="E16" t="s">
+        <v>610</v>
+      </c>
+      <c r="F16" t="s">
+        <v>583</v>
+      </c>
+      <c r="G16" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>577</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>578</v>
+      </c>
+      <c r="E17" t="s">
+        <v>615</v>
+      </c>
+      <c r="F17" t="s">
+        <v>616</v>
+      </c>
+      <c r="G17" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>577</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>578</v>
+      </c>
+      <c r="E18" t="s">
+        <v>610</v>
+      </c>
+      <c r="F18" t="s">
+        <v>583</v>
+      </c>
+      <c r="G18" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>577</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>578</v>
+      </c>
+      <c r="E19" t="s">
+        <v>618</v>
+      </c>
+      <c r="F19" t="s">
+        <v>583</v>
+      </c>
+      <c r="G19" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>577</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
+        <v>612</v>
+      </c>
+      <c r="E20" t="s">
+        <v>620</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>577</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>578</v>
+      </c>
+      <c r="E21" t="s">
+        <v>610</v>
+      </c>
+      <c r="F21" t="s">
+        <v>583</v>
+      </c>
+      <c r="G21" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>577</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>578</v>
+      </c>
+      <c r="E22" t="s">
+        <v>622</v>
+      </c>
+      <c r="F22" t="s">
+        <v>623</v>
+      </c>
+      <c r="G22" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>577</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>578</v>
+      </c>
+      <c r="E23" t="s">
+        <v>618</v>
+      </c>
+      <c r="F23" t="s">
+        <v>583</v>
+      </c>
+      <c r="G23" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>577</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>578</v>
+      </c>
+      <c r="E24" t="s">
+        <v>625</v>
+      </c>
+      <c r="F24" t="s">
+        <v>580</v>
+      </c>
+      <c r="G24" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>577</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>612</v>
+      </c>
+      <c r="E25" t="s">
+        <v>620</v>
+      </c>
+      <c r="F25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>577</v>
+      </c>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" t="s">
+        <v>578</v>
+      </c>
+      <c r="E26" t="s">
+        <v>627</v>
+      </c>
+      <c r="F26" t="s">
+        <v>628</v>
+      </c>
+      <c r="G26" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>577</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" t="s">
+        <v>578</v>
+      </c>
+      <c r="E27" t="s">
+        <v>630</v>
+      </c>
+      <c r="F27" t="s">
+        <v>631</v>
+      </c>
+      <c r="G27" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="33">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>577</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" t="s">
+        <v>578</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="F28" t="s">
+        <v>634</v>
+      </c>
+      <c r="G28" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>577</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>578</v>
+      </c>
+      <c r="E29" t="s">
+        <v>608</v>
+      </c>
+      <c r="F29" t="s">
+        <v>603</v>
+      </c>
+      <c r="G29" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>577</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>578</v>
+      </c>
+      <c r="E30" t="s">
+        <v>636</v>
+      </c>
+      <c r="F30" t="s">
+        <v>580</v>
+      </c>
+      <c r="G30" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>577</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>578</v>
+      </c>
+      <c r="E31" t="s">
+        <v>610</v>
+      </c>
+      <c r="F31" t="s">
+        <v>583</v>
+      </c>
+      <c r="G31" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>577</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>578</v>
+      </c>
+      <c r="E32" t="s">
+        <v>638</v>
+      </c>
+      <c r="F32" t="s">
+        <v>580</v>
+      </c>
+      <c r="G32" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>577</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>578</v>
+      </c>
+      <c r="E33" t="s">
+        <v>640</v>
+      </c>
+      <c r="F33" t="s">
+        <v>641</v>
+      </c>
+      <c r="G33" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>577</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
+        <v>578</v>
+      </c>
+      <c r="E34" t="s">
+        <v>643</v>
+      </c>
+      <c r="F34" t="s">
+        <v>644</v>
+      </c>
+      <c r="G34" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>577</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>612</v>
+      </c>
+      <c r="E35" t="s">
+        <v>646</v>
+      </c>
+      <c r="F35" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>577</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>612</v>
+      </c>
+      <c r="E36" t="s">
+        <v>648</v>
+      </c>
+      <c r="F36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>577</v>
+      </c>
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" t="s">
+        <v>578</v>
+      </c>
+      <c r="E37" t="s">
+        <v>650</v>
+      </c>
+      <c r="F37" t="s">
+        <v>651</v>
+      </c>
+      <c r="G37" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>577</v>
+      </c>
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" t="s">
+        <v>578</v>
+      </c>
+      <c r="E38" t="s">
+        <v>653</v>
+      </c>
+      <c r="F38" t="s">
+        <v>586</v>
+      </c>
+      <c r="G38" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="33">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>577</v>
+      </c>
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" t="s">
+        <v>578</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="F39" t="s">
+        <v>594</v>
+      </c>
+      <c r="G39" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>577</v>
+      </c>
+      <c r="C40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" t="s">
+        <v>578</v>
+      </c>
+      <c r="E40" t="s">
+        <v>657</v>
+      </c>
+      <c r="F40" t="s">
+        <v>580</v>
+      </c>
+      <c r="G40" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>659</v>
+      </c>
+      <c r="C41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" t="s">
+        <v>578</v>
+      </c>
+      <c r="E41" t="s">
+        <v>579</v>
+      </c>
+      <c r="F41" t="s">
+        <v>580</v>
+      </c>
+      <c r="G41" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>659</v>
+      </c>
+      <c r="C42" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" t="s">
+        <v>578</v>
+      </c>
+      <c r="E42" t="s">
+        <v>660</v>
+      </c>
+      <c r="F42" t="s">
+        <v>583</v>
+      </c>
+      <c r="G42" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>659</v>
+      </c>
+      <c r="C43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" t="s">
+        <v>578</v>
+      </c>
+      <c r="E43" t="s">
+        <v>625</v>
+      </c>
+      <c r="F43" t="s">
+        <v>580</v>
+      </c>
+      <c r="G43" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>659</v>
+      </c>
+      <c r="C44" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" t="s">
+        <v>578</v>
+      </c>
+      <c r="E44" t="s">
+        <v>579</v>
+      </c>
+      <c r="F44" t="s">
+        <v>580</v>
+      </c>
+      <c r="G44" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>659</v>
+      </c>
+      <c r="C45" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" t="s">
+        <v>578</v>
+      </c>
+      <c r="E45" t="s">
+        <v>660</v>
+      </c>
+      <c r="F45" t="s">
+        <v>583</v>
+      </c>
+      <c r="G45" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>659</v>
+      </c>
+      <c r="C46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" t="s">
+        <v>578</v>
+      </c>
+      <c r="E46" t="s">
+        <v>622</v>
+      </c>
+      <c r="F46" t="s">
+        <v>623</v>
+      </c>
+      <c r="G46" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>659</v>
+      </c>
+      <c r="C47" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" t="s">
+        <v>578</v>
+      </c>
+      <c r="E47" t="s">
+        <v>582</v>
+      </c>
+      <c r="F47" t="s">
+        <v>583</v>
+      </c>
+      <c r="G47" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>659</v>
+      </c>
+      <c r="C48" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" t="s">
+        <v>578</v>
+      </c>
+      <c r="E48" t="s">
+        <v>585</v>
+      </c>
+      <c r="F48" t="s">
+        <v>586</v>
+      </c>
+      <c r="G48" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>659</v>
+      </c>
+      <c r="C49" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" t="s">
+        <v>578</v>
+      </c>
+      <c r="E49" t="s">
+        <v>662</v>
+      </c>
+      <c r="F49" t="s">
+        <v>583</v>
+      </c>
+      <c r="G49" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>659</v>
+      </c>
+      <c r="C50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" t="s">
+        <v>578</v>
+      </c>
+      <c r="E50" t="s">
+        <v>664</v>
+      </c>
+      <c r="F50" t="s">
+        <v>665</v>
+      </c>
+      <c r="G50" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>659</v>
+      </c>
+      <c r="C51" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" t="s">
+        <v>612</v>
+      </c>
+      <c r="E51" t="s">
+        <v>667</v>
+      </c>
+      <c r="F51" t="s">
+        <v>150</v>
+      </c>
+      <c r="G51" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>659</v>
+      </c>
+      <c r="C52" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" t="s">
+        <v>612</v>
+      </c>
+      <c r="E52" t="s">
+        <v>669</v>
+      </c>
+      <c r="F52" t="s">
+        <v>150</v>
+      </c>
+      <c r="G52" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>659</v>
+      </c>
+      <c r="C53" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" t="s">
+        <v>612</v>
+      </c>
+      <c r="E53" t="s">
+        <v>671</v>
+      </c>
+      <c r="F53" t="s">
+        <v>150</v>
+      </c>
+      <c r="G53" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>659</v>
+      </c>
+      <c r="C54" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" t="s">
+        <v>612</v>
+      </c>
+      <c r="E54" t="s">
+        <v>673</v>
+      </c>
+      <c r="F54" t="s">
+        <v>150</v>
+      </c>
+      <c r="G54" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>659</v>
+      </c>
+      <c r="C55" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" t="s">
+        <v>578</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="F55" t="s">
+        <v>616</v>
+      </c>
+      <c r="G55" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>659</v>
+      </c>
+      <c r="C56" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56" t="s">
+        <v>578</v>
+      </c>
+      <c r="E56" t="s">
+        <v>677</v>
+      </c>
+      <c r="F56" t="s">
+        <v>583</v>
+      </c>
+      <c r="G56" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="33">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>659</v>
+      </c>
+      <c r="C57" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" t="s">
+        <v>578</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="F57" t="s">
+        <v>634</v>
+      </c>
+      <c r="G57" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>659</v>
+      </c>
+      <c r="C58" t="s">
+        <v>154</v>
+      </c>
+      <c r="D58" t="s">
+        <v>578</v>
+      </c>
+      <c r="E58" t="s">
+        <v>681</v>
+      </c>
+      <c r="F58" t="s">
+        <v>682</v>
+      </c>
+      <c r="G58" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="33">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>659</v>
+      </c>
+      <c r="C59" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" t="s">
+        <v>578</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="F59" t="s">
+        <v>594</v>
+      </c>
+      <c r="G59" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="49.5">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>659</v>
+      </c>
+      <c r="C60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" t="s">
+        <v>578</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="F60" t="s">
+        <v>594</v>
+      </c>
+      <c r="G60" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>659</v>
+      </c>
+      <c r="C61" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" t="s">
+        <v>578</v>
+      </c>
+      <c r="E61" t="s">
+        <v>688</v>
+      </c>
+      <c r="F61" t="s">
+        <v>583</v>
+      </c>
+      <c r="G61" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>659</v>
+      </c>
+      <c r="C62" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" t="s">
+        <v>578</v>
+      </c>
+      <c r="E62" t="s">
+        <v>690</v>
+      </c>
+      <c r="F62" t="s">
+        <v>580</v>
+      </c>
+      <c r="G62" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>659</v>
+      </c>
+      <c r="C63" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" t="s">
+        <v>578</v>
+      </c>
+      <c r="E63" t="s">
+        <v>692</v>
+      </c>
+      <c r="F63" t="s">
+        <v>693</v>
+      </c>
+      <c r="G63" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>659</v>
+      </c>
+      <c r="C64" t="s">
+        <v>156</v>
+      </c>
+      <c r="D64" t="s">
+        <v>578</v>
+      </c>
+      <c r="E64" t="s">
+        <v>662</v>
+      </c>
+      <c r="F64" t="s">
+        <v>583</v>
+      </c>
+      <c r="G64" t="s">
+        <v>663</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17660,296 +19469,296 @@
   <sheetData>
     <row r="1" spans="1:4" s="58" customFormat="1" ht="21" thickBot="1">
       <c r="A1" s="53" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B21" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -17976,226 +19785,226 @@
   <sheetData>
     <row r="1" spans="1:4" s="58" customFormat="1" ht="21" thickBot="1">
       <c r="A1" s="53" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B9" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B10" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B11" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B12" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B13" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B14" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B15" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B16" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -18209,7 +20018,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18229,523 +20038,523 @@
         <v>29</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="45" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="45" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="45" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B4" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="45" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B5" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="45" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B6" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="45" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="45" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B8" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="45" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B9" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="45" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B10" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="45" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B11" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="45" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B12" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="45" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B13" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="45" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B14" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="45" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B15" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="45" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B16" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="45" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B17" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="45" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B18" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="45" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B19" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="45" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B20" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="45" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B21" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="45" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B22" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="45" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B23" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="45" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B24" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="45" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B25" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="45" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B26" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="45" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B27" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="45" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B28" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="45" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B29" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="45" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B30" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="45" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B31" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/21_오늘의_증권시황/Data/Output/2024년/2024년12월/Today_Stock_Information_2024-12-20.xlsx
+++ b/21_오늘의_증권시황/Data/Output/2024년/2024년12월/Today_Stock_Information_2024-12-20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\21_오늘의_증권시황\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCC9FB2-5FF5-434C-8B07-094BC27A153B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E21FAB5-37E1-43E5-A9A4-40C753DC0900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5400" yWindow="1500" windowWidth="16920" windowHeight="12030" xr2:uid="{128CB9EE-8F8F-4283-BC02-829EA9DF085D}"/>
   </bookViews>
@@ -2924,7 +2924,7 @@
     <t>마음AI</t>
   </si>
   <si>
-    <t xml:space="preserve">AI 플랫폼 서비스 전문기업 </t>
+    <t>AI 플랫폼 서비스 전문기업</t>
   </si>
   <si>
     <t>https://finance.naver.com/research/company_read.naver?nid=79430&amp;page=1</t>
@@ -2951,7 +2951,7 @@
     <t>이노인스트루먼트</t>
   </si>
   <si>
-    <t xml:space="preserve">광섬유 융착 접속기 제조 전문기업 </t>
+    <t>광섬유 융착 접속기 제조 전문기업</t>
   </si>
   <si>
     <t>https://finance.naver.com/research/company_read.naver?nid=79427&amp;page=1</t>
@@ -5133,7 +5133,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11A687B9-813D-4300-B06B-3AF03999CF88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C224AF-765E-4A35-8B58-C18CDF726201}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5183,7 +5183,7 @@
         <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93B96A3B-78E5-4C7F-85F8-425847C90244}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4114B71B-048C-4DD6-9F44-9D7C37699D43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5233,7 +5233,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF1B348-2639-40BD-88C8-CE83CB7CDB61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91A6565-F247-4EB0-B1EA-B82AA124B989}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5283,7 +5283,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CF6E5A3-8925-464D-B450-93D8147EFDFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A377CA-8C0A-486B-9EFD-9B3FCFF423C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5333,7 +5333,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D6C0821-5AF2-4783-96D3-758877366947}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F1CA2E-4A95-4C7D-8B63-CC1F2BAB5A7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5383,7 +5383,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2BAEF9-EFAD-440B-9F26-522E6475D90C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59729122-C942-4CDB-8882-360BCFA214EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5433,7 +5433,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F79A994-3CEE-4D45-931C-232B89B2C085}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{202676AD-8594-4BD0-9B1B-FB871FF20B03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5483,7 +5483,7 @@
         <xdr:cNvPr id="12" name="그림 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F25614E-9D9F-4AB8-8185-A8969DCF45BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06443601-749E-43BC-BBBB-B0C6CF929ACE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5533,7 +5533,7 @@
         <xdr:cNvPr id="14" name="그림 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{664394C1-694E-43CD-AE86-14567A1EF7C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A68F86F-A524-4AE7-BE79-F7BD9196AF0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5583,7 +5583,7 @@
         <xdr:cNvPr id="16" name="그림 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA71E5F-47E0-48DB-92A4-562333B4D0C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE14768-8D15-4981-B0CE-ADE84E151EAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5633,7 +5633,7 @@
         <xdr:cNvPr id="18" name="그림 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC826808-2559-4124-82BE-0F2458488995}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9B39006-D815-4160-BAEF-8D36ECCB2ED4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5683,7 +5683,7 @@
         <xdr:cNvPr id="20" name="그림 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{765476D1-6439-4550-B46D-B3ED42ADB0DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E84FFA1-54B8-40F2-A987-03C4213E6E26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
